--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="808" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8E7B6F-5B58-4D4B-8E32-83B9A75F45BC}"/>
+  <xr:revisionPtr revIDLastSave="1154" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24017C7-F90E-402D-9124-9ABFD093165F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="852">
   <si>
     <t>record_id</t>
   </si>
@@ -1369,9 +1380,6 @@
   </si>
   <si>
     <t>Is the gender you identify with the same as your sexregistered at birth?</t>
-  </si>
-  <si>
-    <t>Sexual Orientation (if users &gt;16yrs). Sexuality and sexual orientation is about who someone feels physically and emotionally attracted to. This can be romantic or emotional attraction, or both. (NSPCC definition) Sexual orientation is alegally protected characteristic under the Equality Act 2010. Which of the following best describes your sexualorientation?</t>
   </si>
   <si>
     <t>Other Sexual Orientation</t>
@@ -1978,12 +1986,6 @@
     <t>How likely are you to take the next scheduled vaccine recommended for you and your family by your GP?</t>
   </si>
   <si>
-    <t>1. How important do you think vaccines are for your child'shealth? Would you say...</t>
-  </si>
-  <si>
-    <t>2. Do you think most of your close family and friends wantyou to get your child vaccinated?</t>
-  </si>
-  <si>
     <t>3. The UK has a schedule of recommended vaccines for children. Do you want your child to get none of these vaccines, some of these vaccines or all of these vaccines?</t>
   </si>
   <si>
@@ -2296,9 +2298,6 @@
     <t>Do you want to stop smoking?</t>
   </si>
   <si>
-    <t>How many times do use this on average? (Please select Average per Week or Day)</t>
-  </si>
-  <si>
     <t>How many times do you use shisha on average? (Please select Average per Week or Day)</t>
   </si>
   <si>
@@ -2330,6 +2329,303 @@
   </si>
   <si>
     <t>Participant Consent</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>Imputed</t>
+  </si>
+  <si>
+    <t>Yes; No</t>
+  </si>
+  <si>
+    <t>FFF_option_code</t>
+  </si>
+  <si>
+    <t>1; 0</t>
+  </si>
+  <si>
+    <t>Remotely via Electronic Survey</t>
+  </si>
+  <si>
+    <t>Incomplete; Unverified; Complete</t>
+  </si>
+  <si>
+    <t>0; 1; 2</t>
+  </si>
+  <si>
+    <t>0 - 9; 10 - 19; 20 - 29; 30 - 39; 40 - 49; 50 - 59; 60 - 69; 70 - 79; 80 - 89; Over 90; Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4; 5; 6; 7; 8; 9; DN</t>
+  </si>
+  <si>
+    <t>Male; Female; Non-Binary; Other; Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>1; 2; 3; O; DN</t>
+  </si>
+  <si>
+    <t>Sexual Orientation (if users &gt;16yrs). Sexuality and sexual orientation is about who someone feels physically and emotionally attracted to. This can be romantic or emotional attraction, or both. (NSPCC definition) Sexual orientation is alegally protected characteristic under the Equality Act 2010. Which of the following best describes your sexual orientation?</t>
+  </si>
+  <si>
+    <t>Yes; No; Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>1; 0; DN</t>
+  </si>
+  <si>
+    <t>Straight or Heterosexual; Gay or Lesbian; Bisexual; Other sexual orientation; Do not wish to answer</t>
+  </si>
+  <si>
+    <t>No religion; Christian; Buddhist; Hindu; Jewish; Muslim; Sikh; Agnostic; Atheist; Other religion; Do not wish to answer</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4; 5; 6; 7; 8; O; DN</t>
+  </si>
+  <si>
+    <t>None of the above; Do not wish to answer</t>
+  </si>
+  <si>
+    <t>NA; DN</t>
+  </si>
+  <si>
+    <t>Yes, a lot; Yes, a little; Not at all; Do not wish to answer</t>
+  </si>
+  <si>
+    <t>1; 2; 0; DN</t>
+  </si>
+  <si>
+    <t>Do not wish to answer; Afghanistan; Albania; Algeria; Andorra; Angola; Antigua and Barbuda; Argentina; Armenia; Austria; Azerbaijan; Bahrain; Bangladesh; Barbados; Belarus; Belgium; Belize; Benin; Bhutan; Bolivia; Bosnia and Herzegovina; Botswana; Brazil; Brunei; Bulgaria; Burkina Faso; Burundi; Cabo Verde; Cambodia; Cameroon; Canada; Central African Republic; Chad; Channel Islands; Chile; China; Colombia; Comoros; Congo; Costa Rica; Côte d'Ivoire; Croatia; Cuba; Cyprus; Czech Republic; Denmark; Djibouti; Dominica; Dominican Republic; DR Congo; Ecuador; Egypt; El Salvador; Equatorial Guinea; Eritrea; Estonia; Eswatini; Ethiopia; Faeroe Islands; Finland; France; French Guiana; Gabon; Gambia; Georgia; Germany; Ghana; Gibraltar; Greece; Grenada; Guatemala; Guinea; Guinea-Bissau; Guyana; Haiti; Holy See; Honduras; Hong Kong; Hungary; Iceland; India; Indonesia; Iran; Iraq; Ireland; Isle of Man; Israel; Italy; Jamaica; Japan; Jordan; Kazakhstan; Kenya; Kuwait; Kyrgyzstan; Laos; Latvia; Lebanon; Lesotho; Liberia; Libya; Liechtenstein; Lithuania; Luxembourg; Macao; Madagascar; Malawi; Malaysia; Maldives; Mali; Malta; Mauritania; Mauritius; Mayotte; Mexico; Moldova; Monaco; Mongolia; Montenegro; Morocco; Mozambique; Myanmar; Namibia; Nepal; Netherlands; Nicaragua; Niger; Nigeria; North Korea; North Macedonia; Norway; Oman; Pakistan; Panama; Paraguay; Peru; Philippines; Poland; Portugal; Qatar; Réunion; Romania; Russia; Rwanda; Saint Helena; Saint Kitts and Nevis; Saint Lucia; Saint Vincent and the Grenadines; San Marino; Sao Tome &amp; Principe; Saudi Arabia; Senegal; Serbia; Seychelles; Sierra Leone; Singapore; Slovakia; Slovenia; Somalia; South Africa; South Korea; South Sudan; Spain; Sri Lanka; State of Palestine; Sudan; Suriname; Sweden; Switzerland; Syria; Taiwan; Tajikistan; Tanzania; Thailand; The Bahamas; Timor-Leste; Togo; Trinidad and Tobago; Tunisia; Turkey; Turkmenistan; Uganda; Ukraine; United Arab Emirates; United Kingdom; United States; Uruguay; Uzbekistan; Venezuela; Vietnam; Western Sahara; Yemen; Zambia; Zimbabwe</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4; 5; 6; 7; 8; 9; 10; 11; 12; 13; 14; 15; 16; 17; 18; 19; 20; 21; 22; 23; 24; 25; 26; 27; 28; 29; 30; 31; 32; 33; 34; 35; 36; 37; 38; 39; 40; 41; 42; 43; 44; 45; 46; 47; 48; 49; 50; 51; 52; 53; 54; 55; 56; 57; 58; 59; 60; 61; 62; 63; 64; 65; 66; 67; 68; 69; 70; 71; 72; 73; 74; 75; 76; 77; 78; 79; 80; 81; 82; 83; 84; 85; 86; 87; 88; 89; 90; 91; 92; 93; 4; 95; 96; 97; 98; 99; 100; 101; 102; 103; 104; 105; 106; 107; 108; 109; 110; 111; 112; 113; 114; 115; 116; 117; 118; 119; 120; 121; 122; 123; 124; 125; 126; 127; 128; 129; 130; 131; 132; 133; 134; 135; 136; 137; 138; 139; 140; 141; 142; 143; 144; 145; 146; 147; 148; 149; 150; 151; 152; 153; 154; 155; 156; 157; 158; 159; 160; 161; 162; 163; 164; 165; 166; 167; 168; 169; 170; 171; 172; 173; 174; 175; 176; 177; 178; 179; 180; 181; 182; 183; 184; 185; 186; 187; 188; 189; 190; 191; 192; 193</t>
+  </si>
+  <si>
+    <t>Yes; No; Not Applicable; Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>1; 0; NA; DN</t>
+  </si>
+  <si>
+    <t>Single; Never married and never registered a civil partnership; Married; In a registered civil partnership; Separated, but still legally married; Separated, but still legally in a civil partnership; Divorced; Formerly in a civil partnership which is now legally dissolved; Widowed; Surviving partner from a registered civil partnership; Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6; 7; 8; 9; 10; DN</t>
+  </si>
+  <si>
+    <t>Someone of the opposite sex; Someone of the same sex; Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>1; 2; DN</t>
+  </si>
+  <si>
+    <t>Do Not Wish to Answer</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes; No </t>
+  </si>
+  <si>
+    <t>I confirm that I do not wish to provide my postcode</t>
+  </si>
+  <si>
+    <t>None of the Time; Rarely; Some of the Time; Often; All of the Time</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5</t>
+  </si>
+  <si>
+    <t>Not at all; a little; I feel fully informed</t>
+  </si>
+  <si>
+    <t>1; 2; 3</t>
+  </si>
+  <si>
+    <t>Exclusively breastfeed; Combination feed (some breastmilk and some infant formula); Exclusively formula feed</t>
+  </si>
+  <si>
+    <t>Breastmilk; Donor breastmilk; Not breastmilk</t>
+  </si>
+  <si>
+    <t>Exclusively breastfeed; Combination feed (some breastmilk and some infant formula); Exclusively formula feed; Not applicable as less than 6 weeks since baby's birth</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4</t>
+  </si>
+  <si>
+    <t>Strongly disagree; Disagree; Neither agree nor disagree; Agree; Strongly agree; Not applicable as formula feeding</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; NA</t>
+  </si>
+  <si>
+    <t>Strongly disagree; Disagree; Neither agree nor disagree; Agree; Strongly agree</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NHS/healthcare provider; Local Authority; Voluntary sector organisation; Education - Schools; Education - Universities/Further Education; Early Years Education; Other</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6; O</t>
+  </si>
+  <si>
+    <t>You will be training others on the content; The training is to improve your own delivery activity</t>
+  </si>
+  <si>
+    <t>1; 2</t>
+  </si>
+  <si>
+    <t>In-person; Online; Hybrid</t>
+  </si>
+  <si>
+    <t>Yes; No; I'm not sure</t>
+  </si>
+  <si>
+    <t>1; 0; 2</t>
+  </si>
+  <si>
+    <t>Within the past month; 1 to 6 months ago; 7 to 12 months ago; Between 1 and 5 years ago; More than 5 years ago; I've never had my blood pressure checked; I don't remember</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6; 7</t>
+  </si>
+  <si>
+    <t>No symptoms; Headaches; Nosebleeds; Heart palpitations (fast or irregular heart beat); Shortness of breath</t>
+  </si>
+  <si>
+    <t>Rarely; Sometimes; Often</t>
+  </si>
+  <si>
+    <t>a) information and encouragement to lead healthy lifestyles; b) good housing, education, decent jobs andgood local facilities</t>
+  </si>
+  <si>
+    <t>0; 1</t>
+  </si>
+  <si>
+    <t>Yes; No; Not sure; Not Applicable</t>
+  </si>
+  <si>
+    <t>1; 0; 2; NA</t>
+  </si>
+  <si>
+    <t>Yes; No; No sure</t>
+  </si>
+  <si>
+    <t>Less than 3 months ago; More than 3 months ago; Never; Don't know; Do not wish to answer</t>
+  </si>
+  <si>
+    <t>1; 2; 0; DK; DN</t>
+  </si>
+  <si>
+    <t>Strongly disagree; Disagree; Undecided; Agree; Strongly agree</t>
+  </si>
+  <si>
+    <t>Very likely; Likely; Undecided; Unlikely; Very unlikely</t>
+  </si>
+  <si>
+    <t>Yes; No; Don't Know; Do not wish to answer</t>
+  </si>
+  <si>
+    <t>1; 0; DK; DN</t>
+  </si>
+  <si>
+    <t>Not at all important; A little important; Moderately important; Very important</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3</t>
+  </si>
+  <si>
+    <t>No; Yes</t>
+  </si>
+  <si>
+    <t>You do not want to; You are not sure; You want to; You are already vaccinated</t>
+  </si>
+  <si>
+    <t>Strongly Disagree; Disagree; Neither agree nor Disagree; Agree; Strongly Agree</t>
+  </si>
+  <si>
+    <t>5; 4; 3; 2; 1</t>
+  </si>
+  <si>
+    <t>Not likely; Somewhat likely; Very likely</t>
+  </si>
+  <si>
+    <t>1. How important do you think vaccines are for your child's health? Would you say...</t>
+  </si>
+  <si>
+    <t>2. Do you think most of your close family and friends want you to get your child vaccinated?</t>
+  </si>
+  <si>
+    <t>None; Some; All</t>
+  </si>
+  <si>
+    <t>Yes; No; Not sure</t>
+  </si>
+  <si>
+    <t>Yes; No; Not applicable</t>
+  </si>
+  <si>
+    <t>1; 0; NA</t>
+  </si>
+  <si>
+    <t>In the last year; 1 to 5 years ago; More than 5 years ago; Not sure; Never been invited; Not applicable (40-74 year olds only)</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6</t>
+  </si>
+  <si>
+    <t>0 portions; 1 portion; 2 portions; 3 portions; 4+ portions</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4</t>
+  </si>
+  <si>
+    <t>Feet &amp; Inches; Metres &amp; Centimetres</t>
+  </si>
+  <si>
+    <t>Stones &amp; Pounds; Kilograms &amp; Grams</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6; Don’t know/Not sure</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6; 0</t>
+  </si>
+  <si>
+    <t>Not confident at all; Slightly confident; Quite confident; Confident; Very confident</t>
+  </si>
+  <si>
+    <t>Always; Often; Sometimes; Never</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 0</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; More than 5</t>
+  </si>
+  <si>
+    <t>Smoker - cigarette/cigars/pipe; User of chewing tobacco/snus; Shisha smoker; Use vapes/e-cig devices</t>
+  </si>
+  <si>
+    <t>Ex-smoker (at least 14 days since last smokedcigarettes/cigars/pipe/shisha); Ex-smoker (less than 14 days since lastsmoked cigarettes/cigars/pipe/shisha)</t>
+  </si>
+  <si>
+    <t>Average per Week; Average per Day</t>
+  </si>
+  <si>
+    <t>Yes; No; Don't Know</t>
+  </si>
+  <si>
+    <t>How many times do use chewing tobacoo/snus this on average? (Please select Average per Week or Day)</t>
+  </si>
+  <si>
+    <t>Hardly ever or never; Some of the time; Often</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2398,6 +2694,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2678,21 +2976,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="56.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>385</v>
       </c>
@@ -2705,8 +3005,14 @@
       <c r="D1" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>367</v>
       </c>
@@ -2714,13 +3020,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>367</v>
       </c>
@@ -2728,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>367</v>
       </c>
@@ -2739,10 +3048,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>367</v>
       </c>
@@ -2750,13 +3059,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>367</v>
       </c>
@@ -2764,13 +3076,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>367</v>
       </c>
@@ -2778,13 +3093,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -2792,13 +3110,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>367</v>
       </c>
@@ -2806,13 +3127,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>367</v>
       </c>
@@ -2820,13 +3141,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -2839,8 +3160,14 @@
       <c r="D11" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>367</v>
       </c>
@@ -2854,7 +3181,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -2868,7 +3195,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -2882,7 +3209,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>367</v>
       </c>
@@ -2895,8 +3222,14 @@
       <c r="D15" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -2910,7 +3243,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>367</v>
       </c>
@@ -2923,8 +3256,14 @@
       <c r="D17" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -2932,13 +3271,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -2951,8 +3296,14 @@
       <c r="D19" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F19" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -2960,13 +3311,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -2974,13 +3325,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>369</v>
       </c>
@@ -2988,13 +3339,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>369</v>
       </c>
@@ -3002,13 +3353,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>369</v>
       </c>
@@ -3016,13 +3367,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>369</v>
       </c>
@@ -3036,7 +3387,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>369</v>
       </c>
@@ -3050,7 +3401,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>369</v>
       </c>
@@ -3063,8 +3414,14 @@
       <c r="D27" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>369</v>
       </c>
@@ -3078,7 +3435,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>369</v>
       </c>
@@ -3092,7 +3449,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -3105,8 +3462,14 @@
       <c r="D30" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F30" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -3119,8 +3482,14 @@
       <c r="D31" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -3133,8 +3502,14 @@
       <c r="D32" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -3148,7 +3523,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>370</v>
       </c>
@@ -3161,8 +3536,14 @@
       <c r="D34" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>370</v>
       </c>
@@ -3173,10 +3554,16 @@
         <v>399</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>370</v>
       </c>
@@ -3187,10 +3574,10 @@
         <v>399</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>370</v>
       </c>
@@ -3201,10 +3588,16 @@
         <v>400</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>370</v>
       </c>
@@ -3215,10 +3608,10 @@
         <v>400</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -3229,10 +3622,16 @@
         <v>401</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -3240,13 +3639,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E40" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -3254,13 +3659,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>370</v>
       </c>
@@ -3268,13 +3679,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>370</v>
       </c>
@@ -3282,13 +3699,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -3296,13 +3719,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>370</v>
       </c>
@@ -3310,13 +3739,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>370</v>
       </c>
@@ -3324,13 +3759,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>370</v>
       </c>
@@ -3338,13 +3779,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>370</v>
       </c>
@@ -3352,13 +3799,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>370</v>
       </c>
@@ -3366,13 +3819,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>370</v>
       </c>
@@ -3380,13 +3839,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E50" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>370</v>
       </c>
@@ -3394,13 +3859,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>370</v>
       </c>
@@ -3408,13 +3879,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>370</v>
       </c>
@@ -3422,13 +3899,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>370</v>
       </c>
@@ -3436,13 +3919,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>370</v>
       </c>
@@ -3450,13 +3939,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>370</v>
       </c>
@@ -3464,13 +3959,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -3478,13 +3979,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>370</v>
       </c>
@@ -3492,13 +3999,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="E58" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>370</v>
       </c>
@@ -3506,13 +4019,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>370</v>
       </c>
@@ -3520,13 +4039,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -3534,13 +4059,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>370</v>
       </c>
@@ -3548,13 +4079,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>370</v>
       </c>
@@ -3562,13 +4099,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>370</v>
       </c>
@@ -3576,13 +4119,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>370</v>
       </c>
@@ -3590,13 +4139,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>370</v>
       </c>
@@ -3604,13 +4159,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>370</v>
       </c>
@@ -3618,13 +4179,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>370</v>
       </c>
@@ -3632,13 +4199,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -3646,13 +4219,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -3660,13 +4239,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -3674,13 +4259,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -3688,13 +4279,19 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>370</v>
       </c>
@@ -3702,13 +4299,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>370</v>
       </c>
@@ -3716,13 +4319,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>370</v>
       </c>
@@ -3730,13 +4339,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>370</v>
       </c>
@@ -3744,13 +4359,19 @@
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>370</v>
       </c>
@@ -3758,13 +4379,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>370</v>
       </c>
@@ -3772,13 +4399,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>370</v>
       </c>
@@ -3786,13 +4419,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E79" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>370</v>
       </c>
@@ -3800,13 +4439,19 @@
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>370</v>
       </c>
@@ -3814,13 +4459,19 @@
         <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E81" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>370</v>
       </c>
@@ -3828,13 +4479,19 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>370</v>
       </c>
@@ -3842,13 +4499,19 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E83" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>370</v>
       </c>
@@ -3859,10 +4522,16 @@
         <v>402</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>370</v>
       </c>
@@ -3873,10 +4542,16 @@
         <v>402</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>370</v>
       </c>
@@ -3887,10 +4562,16 @@
         <v>402</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>370</v>
       </c>
@@ -3898,13 +4579,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>370</v>
       </c>
@@ -3912,13 +4593,19 @@
         <v>86</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>370</v>
       </c>
@@ -3926,13 +4613,13 @@
         <v>87</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>370</v>
       </c>
@@ -3940,24 +4627,39 @@
         <v>88</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>370</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>370</v>
       </c>
@@ -3965,10 +4667,10 @@
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>370</v>
       </c>
@@ -3976,10 +4678,10 @@
         <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>370</v>
       </c>
@@ -3987,10 +4689,10 @@
         <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>370</v>
       </c>
@@ -3998,10 +4700,10 @@
         <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>370</v>
       </c>
@@ -4014,8 +4716,14 @@
       <c r="D96" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E96" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F96" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>371</v>
       </c>
@@ -4026,10 +4734,16 @@
         <v>404</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -4040,10 +4754,16 @@
         <v>404</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>371</v>
       </c>
@@ -4054,10 +4774,16 @@
         <v>404</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>371</v>
       </c>
@@ -4068,10 +4794,16 @@
         <v>404</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>371</v>
       </c>
@@ -4082,10 +4814,16 @@
         <v>404</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>371</v>
       </c>
@@ -4096,10 +4834,16 @@
         <v>404</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>371</v>
       </c>
@@ -4110,10 +4854,16 @@
         <v>404</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>371</v>
       </c>
@@ -4124,10 +4874,16 @@
         <v>404</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>371</v>
       </c>
@@ -4138,10 +4894,16 @@
         <v>404</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>371</v>
       </c>
@@ -4152,10 +4914,16 @@
         <v>404</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>371</v>
       </c>
@@ -4166,10 +4934,16 @@
         <v>404</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>371</v>
       </c>
@@ -4180,10 +4954,16 @@
         <v>404</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>371</v>
       </c>
@@ -4194,10 +4974,16 @@
         <v>404</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>371</v>
       </c>
@@ -4208,10 +4994,16 @@
         <v>404</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>371</v>
       </c>
@@ -4224,8 +5016,14 @@
       <c r="D111" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E111" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F111" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>372</v>
       </c>
@@ -4236,10 +5034,16 @@
         <v>403</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>372</v>
       </c>
@@ -4250,10 +5054,16 @@
         <v>403</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>372</v>
       </c>
@@ -4264,10 +5074,16 @@
         <v>403</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>372</v>
       </c>
@@ -4278,10 +5094,16 @@
         <v>403</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>372</v>
       </c>
@@ -4292,10 +5114,16 @@
         <v>403</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>372</v>
       </c>
@@ -4306,10 +5134,16 @@
         <v>403</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>372</v>
       </c>
@@ -4320,10 +5154,16 @@
         <v>403</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>372</v>
       </c>
@@ -4334,10 +5174,16 @@
         <v>403</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -4348,10 +5194,16 @@
         <v>403</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>372</v>
       </c>
@@ -4362,10 +5214,16 @@
         <v>403</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -4376,10 +5234,16 @@
         <v>403</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -4390,10 +5254,16 @@
         <v>403</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>372</v>
       </c>
@@ -4406,8 +5276,14 @@
       <c r="D124" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F124" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -4415,13 +5291,19 @@
         <v>123</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>373</v>
       </c>
@@ -4429,13 +5311,19 @@
         <v>124</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>373</v>
       </c>
@@ -4443,13 +5331,19 @@
         <v>125</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>373</v>
       </c>
@@ -4457,13 +5351,19 @@
         <v>126</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>373</v>
       </c>
@@ -4471,13 +5371,19 @@
         <v>127</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>373</v>
       </c>
@@ -4485,13 +5391,19 @@
         <v>128</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -4499,13 +5411,19 @@
         <v>129</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>373</v>
       </c>
@@ -4513,13 +5431,19 @@
         <v>130</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>373</v>
       </c>
@@ -4527,13 +5451,19 @@
         <v>131</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>373</v>
       </c>
@@ -4541,13 +5471,19 @@
         <v>132</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>373</v>
       </c>
@@ -4555,13 +5491,19 @@
         <v>133</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>373</v>
       </c>
@@ -4569,13 +5511,19 @@
         <v>134</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>373</v>
       </c>
@@ -4583,13 +5531,19 @@
         <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>373</v>
       </c>
@@ -4597,13 +5551,19 @@
         <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>373</v>
       </c>
@@ -4611,13 +5571,19 @@
         <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>373</v>
       </c>
@@ -4625,13 +5591,19 @@
         <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>373</v>
       </c>
@@ -4639,13 +5611,19 @@
         <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>373</v>
       </c>
@@ -4653,13 +5631,19 @@
         <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>373</v>
       </c>
@@ -4667,13 +5651,19 @@
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>373</v>
       </c>
@@ -4681,13 +5671,19 @@
         <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>373</v>
       </c>
@@ -4695,13 +5691,19 @@
         <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>373</v>
       </c>
@@ -4709,13 +5711,19 @@
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>373</v>
       </c>
@@ -4723,13 +5731,19 @@
         <v>145</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -4737,13 +5751,13 @@
         <v>146</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -4751,13 +5765,19 @@
         <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>373</v>
       </c>
@@ -4765,13 +5785,13 @@
         <v>148</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>373</v>
       </c>
@@ -4779,13 +5799,19 @@
         <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>373</v>
       </c>
@@ -4793,13 +5819,19 @@
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>373</v>
       </c>
@@ -4807,13 +5839,19 @@
         <v>151</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>373</v>
       </c>
@@ -4821,13 +5859,19 @@
         <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>373</v>
       </c>
@@ -4835,13 +5879,19 @@
         <v>153</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>373</v>
       </c>
@@ -4849,13 +5899,19 @@
         <v>154</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>373</v>
       </c>
@@ -4863,13 +5919,19 @@
         <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>373</v>
       </c>
@@ -4877,13 +5939,19 @@
         <v>156</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>373</v>
       </c>
@@ -4891,13 +5959,19 @@
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -4905,13 +5979,19 @@
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -4919,13 +5999,19 @@
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>373</v>
       </c>
@@ -4933,13 +6019,19 @@
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>373</v>
       </c>
@@ -4952,8 +6044,14 @@
       <c r="D163" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E163" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F163" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>374</v>
       </c>
@@ -4961,13 +6059,19 @@
         <v>162</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>374</v>
       </c>
@@ -4975,13 +6079,19 @@
         <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>374</v>
       </c>
@@ -4989,13 +6099,19 @@
         <v>164</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>374</v>
       </c>
@@ -5003,13 +6119,19 @@
         <v>165</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>374</v>
       </c>
@@ -5017,13 +6139,19 @@
         <v>166</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>374</v>
       </c>
@@ -5031,13 +6159,19 @@
         <v>167</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>374</v>
       </c>
@@ -5045,13 +6179,19 @@
         <v>168</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>374</v>
       </c>
@@ -5059,13 +6199,19 @@
         <v>169</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>374</v>
       </c>
@@ -5073,13 +6219,19 @@
         <v>170</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>374</v>
       </c>
@@ -5087,13 +6239,19 @@
         <v>171</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>374</v>
       </c>
@@ -5101,13 +6259,19 @@
         <v>172</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>374</v>
       </c>
@@ -5115,13 +6279,19 @@
         <v>173</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>374</v>
       </c>
@@ -5129,13 +6299,19 @@
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>374</v>
       </c>
@@ -5143,13 +6319,19 @@
         <v>175</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>374</v>
       </c>
@@ -5157,13 +6339,19 @@
         <v>176</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>374</v>
       </c>
@@ -5171,13 +6359,19 @@
         <v>177</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>374</v>
       </c>
@@ -5185,13 +6379,19 @@
         <v>178</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -5204,8 +6404,14 @@
       <c r="D181" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="E181" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F181" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -5216,10 +6422,16 @@
         <v>405</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>375</v>
       </c>
@@ -5230,10 +6442,16 @@
         <v>405</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>375</v>
       </c>
@@ -5244,10 +6462,16 @@
         <v>405</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>375</v>
       </c>
@@ -5258,10 +6482,16 @@
         <v>405</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>375</v>
       </c>
@@ -5272,10 +6502,16 @@
         <v>405</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>375</v>
       </c>
@@ -5286,10 +6522,16 @@
         <v>405</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -5300,10 +6542,16 @@
         <v>405</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -5314,10 +6562,16 @@
         <v>405</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>375</v>
       </c>
@@ -5328,10 +6582,16 @@
         <v>405</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>375</v>
       </c>
@@ -5342,10 +6602,16 @@
         <v>405</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -5356,10 +6622,16 @@
         <v>405</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>375</v>
       </c>
@@ -5370,10 +6642,16 @@
         <v>405</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>375</v>
       </c>
@@ -5384,10 +6662,16 @@
         <v>405</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>375</v>
       </c>
@@ -5400,8 +6684,14 @@
       <c r="D195" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E195" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F195" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>376</v>
       </c>
@@ -5409,13 +6699,19 @@
         <v>194</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E196" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>376</v>
       </c>
@@ -5423,13 +6719,19 @@
         <v>195</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>376</v>
       </c>
@@ -5437,13 +6739,19 @@
         <v>196</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>376</v>
       </c>
@@ -5451,13 +6759,13 @@
         <v>197</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>376</v>
       </c>
@@ -5470,8 +6778,14 @@
       <c r="D200" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E200" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F200" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>377</v>
       </c>
@@ -5479,13 +6793,19 @@
         <v>199</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>377</v>
       </c>
@@ -5493,13 +6813,19 @@
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>377</v>
       </c>
@@ -5507,13 +6833,19 @@
         <v>201</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>377</v>
       </c>
@@ -5521,13 +6853,19 @@
         <v>202</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>377</v>
       </c>
@@ -5535,13 +6873,19 @@
         <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>377</v>
       </c>
@@ -5549,13 +6893,19 @@
         <v>204</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>377</v>
       </c>
@@ -5563,13 +6913,19 @@
         <v>205</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>377</v>
       </c>
@@ -5577,13 +6933,19 @@
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>377</v>
       </c>
@@ -5591,13 +6953,19 @@
         <v>207</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>377</v>
       </c>
@@ -5605,13 +6973,19 @@
         <v>208</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>377</v>
       </c>
@@ -5619,13 +6993,19 @@
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>377</v>
       </c>
@@ -5633,13 +7013,19 @@
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E212" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>377</v>
       </c>
@@ -5647,13 +7033,19 @@
         <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>377</v>
       </c>
@@ -5661,13 +7053,19 @@
         <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>377</v>
       </c>
@@ -5675,13 +7073,19 @@
         <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>377</v>
       </c>
@@ -5689,13 +7093,19 @@
         <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>377</v>
       </c>
@@ -5708,8 +7118,14 @@
       <c r="D217" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E217" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F217" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>378</v>
       </c>
@@ -5720,10 +7136,16 @@
         <v>409</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>378</v>
       </c>
@@ -5734,10 +7156,16 @@
         <v>409</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>378</v>
       </c>
@@ -5748,10 +7176,16 @@
         <v>409</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>378</v>
       </c>
@@ -5762,10 +7196,16 @@
         <v>409</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>378</v>
       </c>
@@ -5776,10 +7216,16 @@
         <v>406</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>378</v>
       </c>
@@ -5790,10 +7236,16 @@
         <v>406</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>378</v>
       </c>
@@ -5804,10 +7256,16 @@
         <v>406</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>378</v>
       </c>
@@ -5818,10 +7276,16 @@
         <v>406</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>378</v>
       </c>
@@ -5832,10 +7296,16 @@
         <v>407</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>378</v>
       </c>
@@ -5846,10 +7316,16 @@
         <v>407</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>378</v>
       </c>
@@ -5860,10 +7336,16 @@
         <v>407</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>378</v>
       </c>
@@ -5874,10 +7356,16 @@
         <v>407</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>378</v>
       </c>
@@ -5888,10 +7376,16 @@
         <v>407</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>378</v>
       </c>
@@ -5902,10 +7396,16 @@
         <v>407</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>378</v>
       </c>
@@ -5916,10 +7416,16 @@
         <v>407</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>378</v>
       </c>
@@ -5930,10 +7436,16 @@
         <v>407</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>378</v>
       </c>
@@ -5944,10 +7456,16 @@
         <v>407</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>378</v>
       </c>
@@ -5958,10 +7476,16 @@
         <v>407</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>378</v>
       </c>
@@ -5972,10 +7496,16 @@
         <v>408</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>378</v>
       </c>
@@ -5988,8 +7518,14 @@
       <c r="D237" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E237" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F237" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>379</v>
       </c>
@@ -6000,10 +7536,16 @@
         <v>410</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>379</v>
       </c>
@@ -6014,10 +7556,16 @@
         <v>410</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>379</v>
       </c>
@@ -6028,10 +7576,16 @@
         <v>410</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>379</v>
       </c>
@@ -6042,10 +7596,16 @@
         <v>410</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>379</v>
       </c>
@@ -6056,10 +7616,16 @@
         <v>410</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>379</v>
       </c>
@@ -6070,10 +7636,16 @@
         <v>410</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>379</v>
       </c>
@@ -6084,10 +7656,16 @@
         <v>410</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>379</v>
       </c>
@@ -6098,10 +7676,16 @@
         <v>410</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>379</v>
       </c>
@@ -6112,10 +7696,16 @@
         <v>410</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>379</v>
       </c>
@@ -6126,10 +7716,16 @@
         <v>410</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>379</v>
       </c>
@@ -6140,10 +7736,16 @@
         <v>410</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>379</v>
       </c>
@@ -6154,10 +7756,16 @@
         <v>410</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>379</v>
       </c>
@@ -6168,10 +7776,16 @@
         <v>410</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>379</v>
       </c>
@@ -6182,10 +7796,16 @@
         <v>410</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>379</v>
       </c>
@@ -6196,10 +7816,16 @@
         <v>408</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>379</v>
       </c>
@@ -6212,8 +7838,14 @@
       <c r="D253" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F253" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>380</v>
       </c>
@@ -6221,13 +7853,19 @@
         <v>252</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>380</v>
       </c>
@@ -6235,13 +7873,19 @@
         <v>253</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>380</v>
       </c>
@@ -6249,13 +7893,19 @@
         <v>254</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>380</v>
       </c>
@@ -6263,13 +7913,19 @@
         <v>255</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>380</v>
       </c>
@@ -6277,13 +7933,19 @@
         <v>256</v>
       </c>
       <c r="C258" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D258" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>380</v>
       </c>
@@ -6291,13 +7953,19 @@
         <v>257</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>380</v>
       </c>
@@ -6305,13 +7973,19 @@
         <v>258</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>380</v>
       </c>
@@ -6319,13 +7993,19 @@
         <v>259</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>380</v>
       </c>
@@ -6333,13 +8013,19 @@
         <v>260</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>380</v>
       </c>
@@ -6347,13 +8033,19 @@
         <v>261</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>380</v>
       </c>
@@ -6361,13 +8053,13 @@
         <v>262</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>380</v>
       </c>
@@ -6375,13 +8067,19 @@
         <v>263</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>380</v>
       </c>
@@ -6394,8 +8092,14 @@
       <c r="D266" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E266" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F266" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>381</v>
       </c>
@@ -6403,13 +8107,19 @@
         <v>265</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>381</v>
       </c>
@@ -6417,13 +8127,19 @@
         <v>266</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>381</v>
       </c>
@@ -6431,13 +8147,19 @@
         <v>267</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>381</v>
       </c>
@@ -6445,13 +8167,19 @@
         <v>268</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>381</v>
       </c>
@@ -6459,13 +8187,13 @@
         <v>269</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>381</v>
       </c>
@@ -6478,8 +8206,14 @@
       <c r="D272" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E272" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F272" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>382</v>
       </c>
@@ -6490,10 +8224,16 @@
         <v>411</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>382</v>
       </c>
@@ -6504,10 +8244,16 @@
         <v>411</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>382</v>
       </c>
@@ -6518,10 +8264,16 @@
         <v>411</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>382</v>
       </c>
@@ -6532,10 +8284,16 @@
         <v>411</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>382</v>
       </c>
@@ -6546,10 +8304,16 @@
         <v>411</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>382</v>
       </c>
@@ -6560,10 +8324,16 @@
         <v>411</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>382</v>
       </c>
@@ -6574,10 +8344,16 @@
         <v>411</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>382</v>
       </c>
@@ -6588,10 +8364,16 @@
         <v>411</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>382</v>
       </c>
@@ -6602,10 +8384,16 @@
         <v>411</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>382</v>
       </c>
@@ -6616,10 +8404,16 @@
         <v>411</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>382</v>
       </c>
@@ -6630,10 +8424,16 @@
         <v>411</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>382</v>
       </c>
@@ -6644,10 +8444,16 @@
         <v>411</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>382</v>
       </c>
@@ -6658,10 +8464,16 @@
         <v>411</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>382</v>
       </c>
@@ -6672,10 +8484,16 @@
         <v>411</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>382</v>
       </c>
@@ -6688,8 +8506,14 @@
       <c r="D287" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E287" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F287" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>386</v>
       </c>
@@ -6700,10 +8524,16 @@
         <v>412</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>386</v>
       </c>
@@ -6714,10 +8544,10 @@
         <v>412</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>386</v>
       </c>
@@ -6728,10 +8558,10 @@
         <v>412</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>386</v>
       </c>
@@ -6742,10 +8572,10 @@
         <v>412</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>386</v>
       </c>
@@ -6756,10 +8586,10 @@
         <v>412</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>386</v>
       </c>
@@ -6770,10 +8600,16 @@
         <v>413</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>386</v>
       </c>
@@ -6784,10 +8620,10 @@
         <v>413</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>386</v>
       </c>
@@ -6798,10 +8634,10 @@
         <v>413</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>386</v>
       </c>
@@ -6812,10 +8648,10 @@
         <v>413</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>386</v>
       </c>
@@ -6826,10 +8662,10 @@
         <v>413</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -6842,8 +8678,14 @@
       <c r="D298" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E298" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F298" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>387</v>
       </c>
@@ -6854,10 +8696,16 @@
         <v>414</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>387</v>
       </c>
@@ -6868,10 +8716,16 @@
         <v>415</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>387</v>
       </c>
@@ -6882,10 +8736,16 @@
         <v>415</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>387</v>
       </c>
@@ -6896,10 +8756,16 @@
         <v>415</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>387</v>
       </c>
@@ -6910,10 +8776,16 @@
         <v>415</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>387</v>
       </c>
@@ -6924,10 +8796,16 @@
         <v>416</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>387</v>
       </c>
@@ -6938,10 +8816,16 @@
         <v>416</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>387</v>
       </c>
@@ -6952,10 +8836,16 @@
         <v>416</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>387</v>
       </c>
@@ -6966,10 +8856,16 @@
         <v>416</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>387</v>
       </c>
@@ -6980,10 +8876,16 @@
         <v>416</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>387</v>
       </c>
@@ -6994,10 +8896,16 @@
         <v>416</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>387</v>
       </c>
@@ -7010,8 +8918,14 @@
       <c r="D310" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E310" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F310" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>388</v>
       </c>
@@ -7022,10 +8936,16 @@
         <v>417</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>388</v>
       </c>
@@ -7036,10 +8956,16 @@
         <v>417</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>388</v>
       </c>
@@ -7050,10 +8976,16 @@
         <v>417</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>388</v>
       </c>
@@ -7064,10 +8996,16 @@
         <v>417</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>388</v>
       </c>
@@ -7078,10 +9016,16 @@
         <v>417</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>388</v>
       </c>
@@ -7092,10 +9036,16 @@
         <v>417</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>388</v>
       </c>
@@ -7106,10 +9056,16 @@
         <v>417</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>388</v>
       </c>
@@ -7120,10 +9076,16 @@
         <v>417</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>388</v>
       </c>
@@ -7136,8 +9098,14 @@
       <c r="D319" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E319" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F319" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>389</v>
       </c>
@@ -7145,13 +9113,19 @@
         <v>318</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>389</v>
       </c>
@@ -7159,13 +9133,19 @@
         <v>319</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>389</v>
       </c>
@@ -7173,13 +9153,19 @@
         <v>320</v>
       </c>
       <c r="C322" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D322" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E322" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>389</v>
       </c>
@@ -7187,13 +9173,19 @@
         <v>321</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>389</v>
       </c>
@@ -7201,13 +9193,19 @@
         <v>322</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>389</v>
       </c>
@@ -7215,13 +9213,13 @@
         <v>323</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>389</v>
       </c>
@@ -7229,13 +9227,13 @@
         <v>324</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>389</v>
       </c>
@@ -7243,13 +9241,19 @@
         <v>325</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>389</v>
       </c>
@@ -7257,13 +9261,13 @@
         <v>326</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>389</v>
       </c>
@@ -7271,13 +9275,19 @@
         <v>327</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>389</v>
       </c>
@@ -7285,13 +9295,19 @@
         <v>328</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>389</v>
       </c>
@@ -7299,13 +9315,13 @@
         <v>329</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>389</v>
       </c>
@@ -7313,13 +9329,19 @@
         <v>330</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>389</v>
       </c>
@@ -7332,8 +9354,14 @@
       <c r="D333" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E333" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F333" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>390</v>
       </c>
@@ -7341,13 +9369,19 @@
         <v>332</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>390</v>
       </c>
@@ -7355,13 +9389,19 @@
         <v>333</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F335" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>390</v>
       </c>
@@ -7369,13 +9409,19 @@
         <v>334</v>
       </c>
       <c r="C336" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D336" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="D336" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E336" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>390</v>
       </c>
@@ -7383,13 +9429,19 @@
         <v>335</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>390</v>
       </c>
@@ -7397,13 +9449,19 @@
         <v>336</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>390</v>
       </c>
@@ -7411,13 +9469,19 @@
         <v>337</v>
       </c>
       <c r="C339" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D339" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E339" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>390</v>
       </c>
@@ -7425,13 +9489,19 @@
         <v>338</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>390</v>
       </c>
@@ -7439,13 +9509,13 @@
         <v>339</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>390</v>
       </c>
@@ -7453,13 +9523,13 @@
         <v>340</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>390</v>
       </c>
@@ -7467,13 +9537,19 @@
         <v>341</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>390</v>
       </c>
@@ -7481,13 +9557,19 @@
         <v>342</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>390</v>
       </c>
@@ -7495,13 +9577,13 @@
         <v>343</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>390</v>
       </c>
@@ -7509,13 +9591,13 @@
         <v>344</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>390</v>
       </c>
@@ -7523,13 +9605,19 @@
         <v>345</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>390</v>
       </c>
@@ -7537,13 +9625,13 @@
         <v>346</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>390</v>
       </c>
@@ -7551,13 +9639,13 @@
         <v>347</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>390</v>
       </c>
@@ -7565,13 +9653,19 @@
         <v>348</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>390</v>
       </c>
@@ -7579,13 +9673,13 @@
         <v>349</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>390</v>
       </c>
@@ -7593,13 +9687,13 @@
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>390</v>
       </c>
@@ -7612,8 +9706,14 @@
       <c r="D353" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E353" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F353" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>391</v>
       </c>
@@ -7624,10 +9724,16 @@
         <v>418</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>391</v>
       </c>
@@ -7638,10 +9744,16 @@
         <v>418</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>391</v>
       </c>
@@ -7652,10 +9764,16 @@
         <v>418</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>391</v>
       </c>
@@ -7666,10 +9784,16 @@
         <v>418</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>391</v>
       </c>
@@ -7682,8 +9806,14 @@
       <c r="D358" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E358" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F358" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>392</v>
       </c>
@@ -7696,8 +9826,14 @@
       <c r="D359" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E359" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F359" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>393</v>
       </c>
@@ -7708,10 +9844,16 @@
         <v>419</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>393</v>
       </c>
@@ -7722,10 +9864,16 @@
         <v>419</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>393</v>
       </c>
@@ -7736,10 +9884,16 @@
         <v>419</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -7750,10 +9904,16 @@
         <v>419</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -7764,10 +9924,16 @@
         <v>419</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>393</v>
       </c>
@@ -7778,10 +9944,16 @@
         <v>419</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>393</v>
       </c>
@@ -7792,10 +9964,16 @@
         <v>419</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>393</v>
       </c>
@@ -7807,6 +9985,12 @@
       </c>
       <c r="D367" s="3" t="s">
         <v>433</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F367" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1154" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24017C7-F90E-402D-9124-9ABFD093165F}"/>
+  <xr:revisionPtr revIDLastSave="1157" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58032DFA-C0C7-4CBF-BF57-D8E6476E65A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2340,9 +2340,6 @@
     <t>Yes; No</t>
   </si>
   <si>
-    <t>FFF_option_code</t>
-  </si>
-  <si>
     <t>1; 0</t>
   </si>
   <si>
@@ -2626,6 +2623,9 @@
   </si>
   <si>
     <t>Hardly ever or never; Some of the time; Often</t>
+  </si>
+  <si>
+    <t>RC_option_code</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +2979,7 @@
   <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3009,7 +3009,7 @@
         <v>753</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>756</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3164,7 +3164,7 @@
         <v>755</v>
       </c>
       <c r="F11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,7 +3223,7 @@
         <v>431</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -3257,10 +3257,10 @@
         <v>433</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F17" t="s">
         <v>759</v>
-      </c>
-      <c r="F17" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,7 +3280,7 @@
         <v>755</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3297,10 +3297,10 @@
         <v>433</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F19" t="s">
         <v>759</v>
-      </c>
-      <c r="F19" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3418,7 +3418,7 @@
         <v>755</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3463,10 +3463,10 @@
         <v>433</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F30" t="s">
         <v>759</v>
-      </c>
-      <c r="F30" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3483,10 +3483,10 @@
         <v>444</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -3503,10 +3503,10 @@
         <v>445</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3537,10 +3537,10 @@
         <v>447</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3554,13 +3554,13 @@
         <v>399</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3591,10 +3591,10 @@
         <v>449</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3625,10 +3625,10 @@
         <v>451</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3645,7 +3645,7 @@
         <v>453</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>454</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         <v>455</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -3705,7 +3705,7 @@
         <v>456</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>457</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>458</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>459</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -3785,10 +3785,10 @@
         <v>460</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3805,10 +3805,10 @@
         <v>461</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3825,10 +3825,10 @@
         <v>463</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
         <v>465</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>466</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -3885,7 +3885,7 @@
         <v>467</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>468</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>469</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>470</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -3965,7 +3965,7 @@
         <v>471</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -3985,10 +3985,10 @@
         <v>460</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>755</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
         <v>755</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4048,7 +4048,7 @@
         <v>755</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4068,7 +4068,7 @@
         <v>755</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>755</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4108,7 +4108,7 @@
         <v>755</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>755</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4148,7 +4148,7 @@
         <v>755</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4168,7 +4168,7 @@
         <v>755</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>755</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4208,7 +4208,7 @@
         <v>755</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4228,7 +4228,7 @@
         <v>755</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>755</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4268,7 +4268,7 @@
         <v>755</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4288,7 +4288,7 @@
         <v>755</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4308,7 +4308,7 @@
         <v>755</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4328,7 +4328,7 @@
         <v>755</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4348,7 +4348,7 @@
         <v>755</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>755</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4388,7 +4388,7 @@
         <v>755</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4408,7 +4408,7 @@
         <v>755</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4425,10 +4425,10 @@
         <v>495</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4448,7 +4448,7 @@
         <v>755</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4465,10 +4465,10 @@
         <v>495</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4488,7 +4488,7 @@
         <v>755</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4505,10 +4505,10 @@
         <v>495</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>497</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -4545,10 +4545,10 @@
         <v>498</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4565,10 +4565,10 @@
         <v>499</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4599,10 +4599,10 @@
         <v>502</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4636,7 +4636,7 @@
         <v>755</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4650,13 +4650,13 @@
         <v>500</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,10 +4717,10 @@
         <v>433</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F96" t="s">
         <v>759</v>
-      </c>
-      <c r="F96" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4737,10 +4737,10 @@
         <v>505</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4757,10 +4757,10 @@
         <v>506</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4777,10 +4777,10 @@
         <v>507</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4797,10 +4797,10 @@
         <v>508</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4817,10 +4817,10 @@
         <v>509</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4837,10 +4837,10 @@
         <v>510</v>
       </c>
       <c r="E102" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4857,10 +4857,10 @@
         <v>511</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4877,10 +4877,10 @@
         <v>512</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4897,10 +4897,10 @@
         <v>513</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4917,10 +4917,10 @@
         <v>514</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4937,10 +4937,10 @@
         <v>515</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4957,10 +4957,10 @@
         <v>516</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4977,10 +4977,10 @@
         <v>517</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4997,10 +4997,10 @@
         <v>518</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5017,10 +5017,10 @@
         <v>433</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F111" t="s">
         <v>759</v>
-      </c>
-      <c r="F111" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5037,10 +5037,10 @@
         <v>519</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5057,10 +5057,10 @@
         <v>520</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5077,10 +5077,10 @@
         <v>521</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5100,7 +5100,7 @@
         <v>755</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5117,10 +5117,10 @@
         <v>523</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -5137,10 +5137,10 @@
         <v>524</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5157,10 +5157,10 @@
         <v>525</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5177,10 +5177,10 @@
         <v>526</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5197,10 +5197,10 @@
         <v>527</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5217,10 +5217,10 @@
         <v>528</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5237,10 +5237,10 @@
         <v>529</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5257,10 +5257,10 @@
         <v>530</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -5277,10 +5277,10 @@
         <v>433</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F124" t="s">
         <v>759</v>
-      </c>
-      <c r="F124" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5297,7 +5297,7 @@
         <v>532</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -5317,7 +5317,7 @@
         <v>533</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>534</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>535</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>536</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>537</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -5417,7 +5417,7 @@
         <v>538</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>541</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -5457,7 +5457,7 @@
         <v>540</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -5477,7 +5477,7 @@
         <v>539</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>543</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>542</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -5537,7 +5537,7 @@
         <v>544</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -5557,7 +5557,7 @@
         <v>545</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -5577,7 +5577,7 @@
         <v>546</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>547</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>548</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -5637,7 +5637,7 @@
         <v>549</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -5657,7 +5657,7 @@
         <v>550</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         <v>551</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -5697,7 +5697,7 @@
         <v>552</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>553</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5737,7 +5737,7 @@
         <v>471</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -5771,10 +5771,10 @@
         <v>556</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5805,10 +5805,10 @@
         <v>556</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5825,10 +5825,10 @@
         <v>560</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5845,10 +5845,10 @@
         <v>561</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5865,10 +5865,10 @@
         <v>562</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5885,10 +5885,10 @@
         <v>563</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5905,10 +5905,10 @@
         <v>564</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5925,10 +5925,10 @@
         <v>565</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5945,10 +5945,10 @@
         <v>566</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5965,10 +5965,10 @@
         <v>567</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5985,10 +5985,10 @@
         <v>568</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6005,10 +6005,10 @@
         <v>569</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -6025,10 +6025,10 @@
         <v>556</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -6045,10 +6045,10 @@
         <v>433</v>
       </c>
       <c r="E163" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F163" t="s">
         <v>759</v>
-      </c>
-      <c r="F163" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6065,10 +6065,10 @@
         <v>556</v>
       </c>
       <c r="E164" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6085,10 +6085,10 @@
         <v>556</v>
       </c>
       <c r="E165" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6105,7 +6105,7 @@
         <v>576</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -6125,7 +6125,7 @@
         <v>532</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -6145,7 +6145,7 @@
         <v>577</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         <v>578</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -6185,7 +6185,7 @@
         <v>579</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>580</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>581</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -6245,10 +6245,10 @@
         <v>556</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
         <v>582</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -6285,7 +6285,7 @@
         <v>583</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -6305,7 +6305,7 @@
         <v>584</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>585</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -6345,7 +6345,7 @@
         <v>538</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -6365,7 +6365,7 @@
         <v>586</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -6385,7 +6385,7 @@
         <v>587</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -6405,10 +6405,10 @@
         <v>433</v>
       </c>
       <c r="E181" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F181" t="s">
         <v>759</v>
-      </c>
-      <c r="F181" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6425,10 +6425,10 @@
         <v>588</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6445,10 +6445,10 @@
         <v>589</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6465,10 +6465,10 @@
         <v>590</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6485,10 +6485,10 @@
         <v>591</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6505,10 +6505,10 @@
         <v>592</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6525,10 +6525,10 @@
         <v>593</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6545,10 +6545,10 @@
         <v>594</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6565,10 +6565,10 @@
         <v>595</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6585,10 +6585,10 @@
         <v>596</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6605,10 +6605,10 @@
         <v>597</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6625,10 +6625,10 @@
         <v>598</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6648,7 +6648,7 @@
         <v>755</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6665,10 +6665,10 @@
         <v>600</v>
       </c>
       <c r="E194" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6685,10 +6685,10 @@
         <v>433</v>
       </c>
       <c r="E195" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F195" t="s">
         <v>759</v>
-      </c>
-      <c r="F195" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6705,10 +6705,10 @@
         <v>602</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -6725,10 +6725,10 @@
         <v>603</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6745,10 +6745,10 @@
         <v>604</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6779,10 +6779,10 @@
         <v>433</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F200" t="s">
         <v>759</v>
-      </c>
-      <c r="F200" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6799,10 +6799,10 @@
         <v>606</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6819,10 +6819,10 @@
         <v>607</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6839,10 +6839,10 @@
         <v>608</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6859,10 +6859,10 @@
         <v>609</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6879,10 +6879,10 @@
         <v>610</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6899,10 +6899,10 @@
         <v>611</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6919,10 +6919,10 @@
         <v>612</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6939,10 +6939,10 @@
         <v>613</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6959,10 +6959,10 @@
         <v>617</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6979,10 +6979,10 @@
         <v>618</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6999,10 +6999,10 @@
         <v>619</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7019,10 +7019,10 @@
         <v>621</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7039,10 +7039,10 @@
         <v>614</v>
       </c>
       <c r="E213" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F213" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7059,10 +7059,10 @@
         <v>615</v>
       </c>
       <c r="E214" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F214" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7079,10 +7079,10 @@
         <v>616</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F215" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7099,10 +7099,10 @@
         <v>622</v>
       </c>
       <c r="E216" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F216" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -7119,10 +7119,10 @@
         <v>433</v>
       </c>
       <c r="E217" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F217" t="s">
         <v>759</v>
-      </c>
-      <c r="F217" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7139,10 +7139,10 @@
         <v>623</v>
       </c>
       <c r="E218" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7159,10 +7159,10 @@
         <v>624</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7179,10 +7179,10 @@
         <v>625</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7199,10 +7199,10 @@
         <v>626</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7219,10 +7219,10 @@
         <v>627</v>
       </c>
       <c r="E222" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7239,10 +7239,10 @@
         <v>628</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7259,10 +7259,10 @@
         <v>629</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -7279,10 +7279,10 @@
         <v>630</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7299,10 +7299,10 @@
         <v>631</v>
       </c>
       <c r="E226" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F226" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7319,10 +7319,10 @@
         <v>632</v>
       </c>
       <c r="E227" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F227" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7339,10 +7339,10 @@
         <v>636</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F228" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7359,10 +7359,10 @@
         <v>635</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F229" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7379,10 +7379,10 @@
         <v>633</v>
       </c>
       <c r="E230" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7399,10 +7399,10 @@
         <v>634</v>
       </c>
       <c r="E231" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7419,10 +7419,10 @@
         <v>637</v>
       </c>
       <c r="E232" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7439,10 +7439,10 @@
         <v>638</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F233" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7459,10 +7459,10 @@
         <v>639</v>
       </c>
       <c r="E234" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F234" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7479,10 +7479,10 @@
         <v>640</v>
       </c>
       <c r="E235" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F235" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7499,10 +7499,10 @@
         <v>641</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -7519,10 +7519,10 @@
         <v>433</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F237" t="s">
         <v>759</v>
-      </c>
-      <c r="F237" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7536,13 +7536,13 @@
         <v>410</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E238" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F238" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7556,13 +7556,13 @@
         <v>410</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7579,10 +7579,10 @@
         <v>642</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7599,10 +7599,10 @@
         <v>643</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7619,10 +7619,10 @@
         <v>644</v>
       </c>
       <c r="E242" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F242" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7639,10 +7639,10 @@
         <v>645</v>
       </c>
       <c r="E243" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7659,10 +7659,10 @@
         <v>646</v>
       </c>
       <c r="E244" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F244" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7679,10 +7679,10 @@
         <v>647</v>
       </c>
       <c r="E245" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F245" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7699,10 +7699,10 @@
         <v>648</v>
       </c>
       <c r="E246" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F246" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7719,10 +7719,10 @@
         <v>649</v>
       </c>
       <c r="E247" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7739,10 +7739,10 @@
         <v>650</v>
       </c>
       <c r="E248" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F248" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7759,10 +7759,10 @@
         <v>651</v>
       </c>
       <c r="E249" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F249" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7779,10 +7779,10 @@
         <v>639</v>
       </c>
       <c r="E250" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F250" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7799,10 +7799,10 @@
         <v>652</v>
       </c>
       <c r="E251" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F251" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7819,10 +7819,10 @@
         <v>653</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -7839,10 +7839,10 @@
         <v>433</v>
       </c>
       <c r="E253" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F253" t="s">
         <v>759</v>
-      </c>
-      <c r="F253" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7859,10 +7859,10 @@
         <v>556</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -7879,10 +7879,10 @@
         <v>556</v>
       </c>
       <c r="E255" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F255" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7899,7 +7899,7 @@
         <v>658</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>659</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -7939,7 +7939,7 @@
         <v>660</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -7959,7 +7959,7 @@
         <v>661</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -7979,7 +7979,7 @@
         <v>664</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F260">
         <v>3</v>
@@ -7999,7 +7999,7 @@
         <v>662</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F261">
         <v>4</v>
@@ -8019,7 +8019,7 @@
         <v>663</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F262">
         <v>5</v>
@@ -8039,7 +8039,7 @@
         <v>665</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F263">
         <v>6</v>
@@ -8073,10 +8073,10 @@
         <v>556</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -8093,10 +8093,10 @@
         <v>433</v>
       </c>
       <c r="E266" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F266" t="s">
         <v>759</v>
-      </c>
-      <c r="F266" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8113,10 +8113,10 @@
         <v>667</v>
       </c>
       <c r="E267" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F267" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8133,10 +8133,10 @@
         <v>668</v>
       </c>
       <c r="E268" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="F268" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8153,10 +8153,10 @@
         <v>669</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8173,10 +8173,10 @@
         <v>670</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8207,10 +8207,10 @@
         <v>433</v>
       </c>
       <c r="E272" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F272" t="s">
         <v>759</v>
-      </c>
-      <c r="F272" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8227,10 +8227,10 @@
         <v>672</v>
       </c>
       <c r="E273" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8247,10 +8247,10 @@
         <v>673</v>
       </c>
       <c r="E274" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8267,10 +8267,10 @@
         <v>674</v>
       </c>
       <c r="E275" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F275" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8287,10 +8287,10 @@
         <v>675</v>
       </c>
       <c r="E276" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F276" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8307,10 +8307,10 @@
         <v>676</v>
       </c>
       <c r="E277" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F277" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8327,10 +8327,10 @@
         <v>677</v>
       </c>
       <c r="E278" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F278" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8347,10 +8347,10 @@
         <v>678</v>
       </c>
       <c r="E279" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F279" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8367,10 +8367,10 @@
         <v>679</v>
       </c>
       <c r="E280" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F280" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8387,10 +8387,10 @@
         <v>680</v>
       </c>
       <c r="E281" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F281" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8407,10 +8407,10 @@
         <v>681</v>
       </c>
       <c r="E282" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F282" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8427,10 +8427,10 @@
         <v>682</v>
       </c>
       <c r="E283" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F283" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8447,10 +8447,10 @@
         <v>683</v>
       </c>
       <c r="E284" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F284" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8467,10 +8467,10 @@
         <v>684</v>
       </c>
       <c r="E285" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F285" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8487,10 +8487,10 @@
         <v>685</v>
       </c>
       <c r="E286" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F286" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -8507,10 +8507,10 @@
         <v>433</v>
       </c>
       <c r="E287" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F287" t="s">
         <v>759</v>
-      </c>
-      <c r="F287" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8527,10 +8527,10 @@
         <v>686</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8603,10 +8603,10 @@
         <v>691</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8679,10 +8679,10 @@
         <v>433</v>
       </c>
       <c r="E298" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F298" t="s">
         <v>759</v>
-      </c>
-      <c r="F298" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8699,10 +8699,10 @@
         <v>696</v>
       </c>
       <c r="E299" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F299" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8719,10 +8719,10 @@
         <v>697</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8739,10 +8739,10 @@
         <v>698</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8759,10 +8759,10 @@
         <v>699</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8779,10 +8779,10 @@
         <v>700</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8799,10 +8799,10 @@
         <v>702</v>
       </c>
       <c r="E304" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F304" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -8819,10 +8819,10 @@
         <v>701</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8839,10 +8839,10 @@
         <v>703</v>
       </c>
       <c r="E306" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F306" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -8859,10 +8859,10 @@
         <v>704</v>
       </c>
       <c r="E307" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F307" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8879,10 +8879,10 @@
         <v>705</v>
       </c>
       <c r="E308" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F308" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8899,10 +8899,10 @@
         <v>706</v>
       </c>
       <c r="E309" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F309" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -8919,10 +8919,10 @@
         <v>433</v>
       </c>
       <c r="E310" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F310" t="s">
         <v>759</v>
-      </c>
-      <c r="F310" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8942,7 +8942,7 @@
         <v>755</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8962,7 +8962,7 @@
         <v>755</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8982,7 +8982,7 @@
         <v>755</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9002,7 +9002,7 @@
         <v>755</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9022,7 +9022,7 @@
         <v>755</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9042,7 +9042,7 @@
         <v>755</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9062,7 +9062,7 @@
         <v>755</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9082,7 +9082,7 @@
         <v>755</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -9099,10 +9099,10 @@
         <v>433</v>
       </c>
       <c r="E319" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F319" t="s">
         <v>759</v>
-      </c>
-      <c r="F319" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9119,7 +9119,7 @@
         <v>717</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>716</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -9159,7 +9159,7 @@
         <v>718</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -9179,7 +9179,7 @@
         <v>719</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -9199,10 +9199,10 @@
         <v>556</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9247,10 +9247,10 @@
         <v>556</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9284,7 +9284,7 @@
         <v>755</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9301,10 +9301,10 @@
         <v>556</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9338,7 +9338,7 @@
         <v>755</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -9355,10 +9355,10 @@
         <v>433</v>
       </c>
       <c r="E333" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F333" t="s">
         <v>759</v>
-      </c>
-      <c r="F333" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9375,10 +9375,10 @@
         <v>556</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -9395,10 +9395,10 @@
         <v>732</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F335" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -9435,7 +9435,7 @@
         <v>735</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>736</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -9475,7 +9475,7 @@
         <v>737</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -9495,10 +9495,10 @@
         <v>556</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9543,10 +9543,10 @@
         <v>556</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9557,16 +9557,16 @@
         <v>342</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>556</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9577,7 +9577,7 @@
         <v>343</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>739</v>
@@ -9591,7 +9591,7 @@
         <v>344</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>740</v>
@@ -9611,10 +9611,10 @@
         <v>556</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9659,10 +9659,10 @@
         <v>556</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9707,10 +9707,10 @@
         <v>433</v>
       </c>
       <c r="E353" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F353" t="s">
         <v>759</v>
-      </c>
-      <c r="F353" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9727,10 +9727,10 @@
         <v>744</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9747,10 +9747,10 @@
         <v>745</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9767,10 +9767,10 @@
         <v>746</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9787,10 +9787,10 @@
         <v>747</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9807,10 +9807,10 @@
         <v>433</v>
       </c>
       <c r="E358" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F358" t="s">
         <v>759</v>
-      </c>
-      <c r="F358" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9827,10 +9827,10 @@
         <v>433</v>
       </c>
       <c r="E359" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F359" t="s">
         <v>759</v>
-      </c>
-      <c r="F359" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9847,10 +9847,10 @@
         <v>505</v>
       </c>
       <c r="E360" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F360" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F360" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9867,10 +9867,10 @@
         <v>506</v>
       </c>
       <c r="E361" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F361" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9887,10 +9887,10 @@
         <v>507</v>
       </c>
       <c r="E362" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F362" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9907,10 +9907,10 @@
         <v>510</v>
       </c>
       <c r="E363" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F363" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9927,10 +9927,10 @@
         <v>511</v>
       </c>
       <c r="E364" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F364" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9947,10 +9947,10 @@
         <v>513</v>
       </c>
       <c r="E365" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F365" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9967,10 +9967,10 @@
         <v>515</v>
       </c>
       <c r="E366" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F366" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9987,10 +9987,10 @@
         <v>433</v>
       </c>
       <c r="E367" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F367" t="s">
         <v>759</v>
-      </c>
-      <c r="F367" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1157" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58032DFA-C0C7-4CBF-BF57-D8E6476E65A6}"/>
+  <xr:revisionPtr revIDLastSave="1163" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFF040B-8714-4CA2-9C79-2AF5025FA9F7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1163" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFF040B-8714-4CA2-9C79-2AF5025FA9F7}"/>
+  <xr:revisionPtr revIDLastSave="1246" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749BB87B-C75A-4201-AC85-0718690B1D0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="854">
   <si>
     <t>record_id</t>
   </si>
@@ -1347,12 +1347,6 @@
   </si>
   <si>
     <t>2. I understand that my participation is voluntary and that Iam free to withdraw at any time without giving any reason.However, I also understand that after 14 days analysis of mydata has begun and it will not be possible to withdraw myanonymised data from the study.</t>
-  </si>
-  <si>
-    <t>3. I agree to information, which can identify me beinginputted into a REDCap database hosted by the University ofBirmingham.</t>
-  </si>
-  <si>
-    <t>4. I agree to be part of the evaluation as detailed in theparticipant information sheet.</t>
   </si>
   <si>
     <t>Name of Participant</t>
@@ -2626,6 +2620,18 @@
   </si>
   <si>
     <t>RC_option_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;  </t>
+  </si>
+  <si>
+    <t>3. I agree to information, which can identify me beinginputted into a REDCap database hosted by the University of Birmingham.</t>
+  </si>
+  <si>
+    <t>4. I agree to be part of the evaluation as detailed in the participant information sheet.</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2696,6 +2702,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2978,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3006,10 +3013,10 @@
         <v>384</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>420</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3048,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3059,13 +3066,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>421</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,13 +3083,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3093,13 +3100,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>423</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3110,13 +3117,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3127,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>425</v>
@@ -3141,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>426</v>
@@ -3161,10 +3168,10 @@
         <v>427</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,7 +3230,7 @@
         <v>431</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -3257,10 +3264,10 @@
         <v>433</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3271,16 +3278,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3297,10 +3304,10 @@
         <v>433</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3311,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>434</v>
@@ -3325,7 +3332,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>435</v>
@@ -3339,7 +3346,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>436</v>
@@ -3353,10 +3360,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>437</v>
+        <v>852</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3367,10 +3374,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>438</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3384,7 +3391,7 @@
         <v>397</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3398,7 +3405,7 @@
         <v>397</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3412,13 +3419,13 @@
         <v>397</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3432,7 +3439,7 @@
         <v>398</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3446,7 +3453,7 @@
         <v>398</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3463,10 +3470,10 @@
         <v>433</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3480,13 +3487,13 @@
         <v>399</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -3500,13 +3507,13 @@
         <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3520,7 +3527,7 @@
         <v>399</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3534,13 +3541,13 @@
         <v>399</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3554,13 +3561,13 @@
         <v>399</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3574,7 +3581,7 @@
         <v>399</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -3588,13 +3595,13 @@
         <v>400</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3608,7 +3615,7 @@
         <v>400</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
@@ -3622,13 +3629,13 @@
         <v>401</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3639,16 +3646,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3659,16 +3666,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3679,16 +3686,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3699,16 +3706,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3719,16 +3726,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3739,16 +3746,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3759,16 +3766,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3779,16 +3786,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3799,16 +3806,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3819,16 +3826,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3839,16 +3846,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3859,16 +3866,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3879,16 +3886,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3899,16 +3906,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3919,16 +3926,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3939,16 +3946,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3959,16 +3966,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
+        <v>850</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3979,16 +3986,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -3999,16 +4006,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>756</v>
+        <v>471</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4019,16 +4026,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>756</v>
+      <c r="E59" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4039,16 +4046,16 @@
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>756</v>
+        <v>473</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4059,16 +4066,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>756</v>
+        <v>474</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4079,16 +4086,16 @@
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>756</v>
+        <v>475</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4099,16 +4106,16 @@
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>756</v>
+        <v>476</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4119,16 +4126,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>756</v>
+        <v>477</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4139,16 +4146,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>756</v>
+        <v>478</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4159,16 +4166,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>756</v>
+        <v>479</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4179,16 +4186,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>756</v>
+        <v>480</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4199,16 +4206,16 @@
         <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>756</v>
+        <v>481</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4219,16 +4226,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>756</v>
+        <v>482</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4239,16 +4246,16 @@
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>756</v>
+        <v>483</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4259,16 +4266,16 @@
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>756</v>
+        <v>484</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4279,16 +4286,16 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>756</v>
+        <v>485</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4299,16 +4306,16 @@
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>756</v>
+        <v>486</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4319,16 +4326,16 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>756</v>
+        <v>487</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4339,16 +4346,16 @@
         <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>756</v>
+        <v>488</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4359,16 +4366,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>756</v>
+        <v>489</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4379,16 +4386,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>756</v>
+        <v>490</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4399,17 +4406,12 @@
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>756</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -4419,16 +4421,16 @@
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4439,16 +4441,16 @@
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="E80" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4459,16 +4461,16 @@
         <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4479,16 +4481,16 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="E82" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4499,16 +4501,16 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -4522,13 +4524,13 @@
         <v>402</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -4542,13 +4544,13 @@
         <v>402</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4562,13 +4564,13 @@
         <v>402</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4579,10 +4581,10 @@
         <v>85</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4593,16 +4595,16 @@
         <v>86</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>502</v>
-      </c>
       <c r="E88" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4613,10 +4615,10 @@
         <v>87</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4627,16 +4629,16 @@
         <v>88</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4647,16 +4649,16 @@
         <v>89</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4667,7 +4669,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4678,7 +4680,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4689,7 +4691,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4700,7 +4702,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,10 +4719,10 @@
         <v>433</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F96" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4734,13 +4736,13 @@
         <v>404</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4754,13 +4756,13 @@
         <v>404</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4774,13 +4776,13 @@
         <v>404</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4794,13 +4796,13 @@
         <v>404</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4814,13 +4816,13 @@
         <v>404</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4834,13 +4836,13 @@
         <v>404</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4854,13 +4856,13 @@
         <v>404</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4874,13 +4876,13 @@
         <v>404</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4894,13 +4896,13 @@
         <v>404</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4914,13 +4916,13 @@
         <v>404</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4934,13 +4936,13 @@
         <v>404</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4954,13 +4956,13 @@
         <v>404</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4974,13 +4976,13 @@
         <v>404</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4994,13 +4996,13 @@
         <v>404</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5017,10 +5019,10 @@
         <v>433</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F111" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5034,13 +5036,13 @@
         <v>403</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5054,13 +5056,13 @@
         <v>403</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5074,13 +5076,13 @@
         <v>403</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5094,13 +5096,13 @@
         <v>403</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5114,13 +5116,13 @@
         <v>403</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -5134,13 +5136,13 @@
         <v>403</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5154,13 +5156,13 @@
         <v>403</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5174,13 +5176,13 @@
         <v>403</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5194,13 +5196,13 @@
         <v>403</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5214,13 +5216,13 @@
         <v>403</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5234,13 +5236,13 @@
         <v>403</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5254,13 +5256,13 @@
         <v>403</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -5277,10 +5279,10 @@
         <v>433</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F124" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5291,16 +5293,16 @@
         <v>123</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5311,16 +5313,16 @@
         <v>124</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
+      <c r="E126" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5331,16 +5333,16 @@
         <v>125</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5351,16 +5353,16 @@
         <v>126</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
+        <v>533</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5371,16 +5373,16 @@
         <v>127</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
+        <v>534</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5391,16 +5393,16 @@
         <v>128</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
+        <v>535</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5411,16 +5413,16 @@
         <v>129</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5431,16 +5433,16 @@
         <v>130</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
+        <v>539</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5451,16 +5453,16 @@
         <v>131</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
+        <v>538</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5471,16 +5473,16 @@
         <v>132</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
+        <v>537</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5491,16 +5493,16 @@
         <v>133</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
+        <v>541</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5511,16 +5513,16 @@
         <v>134</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
+        <v>540</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5531,16 +5533,16 @@
         <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
+        <v>542</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5551,16 +5553,16 @@
         <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
+        <v>543</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5571,16 +5573,16 @@
         <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
+        <v>544</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5591,16 +5593,16 @@
         <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
+        <v>545</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5611,16 +5613,16 @@
         <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5631,16 +5633,16 @@
         <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
+        <v>547</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5651,16 +5653,16 @@
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
+        <v>548</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5671,16 +5673,16 @@
         <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
+        <v>549</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5691,16 +5693,16 @@
         <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
+        <v>550</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5711,16 +5713,16 @@
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
+        <v>551</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5731,16 +5733,16 @@
         <v>145</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
+        <v>469</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5751,10 +5753,10 @@
         <v>146</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -5765,16 +5767,16 @@
         <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5785,10 +5787,10 @@
         <v>148</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5799,16 +5801,16 @@
         <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5819,16 +5821,16 @@
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5839,16 +5841,16 @@
         <v>151</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5859,16 +5861,16 @@
         <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5879,16 +5881,16 @@
         <v>153</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5899,16 +5901,16 @@
         <v>154</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5919,16 +5921,16 @@
         <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5939,16 +5941,16 @@
         <v>156</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5959,16 +5961,16 @@
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5979,16 +5981,16 @@
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5999,16 +6001,16 @@
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -6019,16 +6021,16 @@
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -6045,10 +6047,10 @@
         <v>433</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F163" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6059,16 +6061,16 @@
         <v>162</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6079,16 +6081,16 @@
         <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6099,16 +6101,16 @@
         <v>164</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F166">
-        <v>1</v>
+        <v>574</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6119,16 +6121,16 @@
         <v>165</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F167">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6139,16 +6141,16 @@
         <v>166</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F168">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6159,16 +6161,16 @@
         <v>167</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
+        <v>576</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6179,16 +6181,16 @@
         <v>168</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
+        <v>577</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6199,16 +6201,16 @@
         <v>169</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
+        <v>578</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6219,16 +6221,16 @@
         <v>170</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F172">
-        <v>1</v>
+        <v>579</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -6239,16 +6241,16 @@
         <v>171</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6259,16 +6261,16 @@
         <v>172</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6279,16 +6281,16 @@
         <v>173</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F175">
-        <v>1</v>
+        <v>581</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6299,16 +6301,16 @@
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6319,16 +6321,16 @@
         <v>175</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
+        <v>583</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6339,16 +6341,16 @@
         <v>176</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F178">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6359,16 +6361,16 @@
         <v>177</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F179">
-        <v>1</v>
+        <v>584</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6379,16 +6381,16 @@
         <v>178</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -6405,10 +6407,10 @@
         <v>433</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F181" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6422,13 +6424,13 @@
         <v>405</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6442,13 +6444,13 @@
         <v>405</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6462,13 +6464,13 @@
         <v>405</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6482,13 +6484,13 @@
         <v>405</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6502,13 +6504,13 @@
         <v>405</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6522,13 +6524,13 @@
         <v>405</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6542,13 +6544,13 @@
         <v>405</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6562,13 +6564,13 @@
         <v>405</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6582,13 +6584,13 @@
         <v>405</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6602,13 +6604,13 @@
         <v>405</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6622,13 +6624,13 @@
         <v>405</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6642,13 +6644,13 @@
         <v>405</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6662,13 +6664,13 @@
         <v>405</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6685,10 +6687,10 @@
         <v>433</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F195" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6699,16 +6701,16 @@
         <v>194</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -6719,16 +6721,16 @@
         <v>195</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="E197" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6739,16 +6741,16 @@
         <v>196</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6759,10 +6761,10 @@
         <v>197</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6779,10 +6781,10 @@
         <v>433</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F200" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6793,16 +6795,16 @@
         <v>199</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6813,16 +6815,16 @@
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6833,16 +6835,16 @@
         <v>201</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6853,16 +6855,16 @@
         <v>202</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6873,16 +6875,16 @@
         <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6893,16 +6895,16 @@
         <v>204</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6913,16 +6915,16 @@
         <v>205</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6933,16 +6935,16 @@
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6953,16 +6955,16 @@
         <v>207</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6973,16 +6975,16 @@
         <v>208</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6993,16 +6995,16 @@
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7013,16 +7015,16 @@
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7033,16 +7035,16 @@
         <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7053,16 +7055,16 @@
         <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7073,16 +7075,16 @@
         <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7093,16 +7095,16 @@
         <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>622</v>
-      </c>
       <c r="E216" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -7119,10 +7121,10 @@
         <v>433</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F217" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7136,13 +7138,13 @@
         <v>409</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7156,13 +7158,13 @@
         <v>409</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7176,13 +7178,13 @@
         <v>409</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7196,13 +7198,13 @@
         <v>409</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7216,13 +7218,13 @@
         <v>406</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7236,13 +7238,13 @@
         <v>406</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7256,13 +7258,13 @@
         <v>406</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -7276,13 +7278,13 @@
         <v>406</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7296,13 +7298,13 @@
         <v>407</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7316,13 +7318,13 @@
         <v>407</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7336,13 +7338,13 @@
         <v>407</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7356,13 +7358,13 @@
         <v>407</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7376,13 +7378,13 @@
         <v>407</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7396,13 +7398,13 @@
         <v>407</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7416,13 +7418,13 @@
         <v>407</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7436,13 +7438,13 @@
         <v>407</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7456,13 +7458,13 @@
         <v>407</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7476,13 +7478,13 @@
         <v>407</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7496,13 +7498,13 @@
         <v>408</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -7519,10 +7521,10 @@
         <v>433</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F237" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7536,13 +7538,13 @@
         <v>410</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7556,13 +7558,13 @@
         <v>410</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7576,13 +7578,13 @@
         <v>410</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7596,13 +7598,13 @@
         <v>410</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7616,13 +7618,13 @@
         <v>410</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7636,13 +7638,13 @@
         <v>410</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7656,13 +7658,13 @@
         <v>410</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7676,13 +7678,13 @@
         <v>410</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7696,13 +7698,13 @@
         <v>410</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7716,13 +7718,13 @@
         <v>410</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7736,13 +7738,13 @@
         <v>410</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7756,13 +7758,13 @@
         <v>410</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7776,13 +7778,13 @@
         <v>410</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7796,13 +7798,13 @@
         <v>410</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7816,13 +7818,13 @@
         <v>408</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -7839,10 +7841,10 @@
         <v>433</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F253" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7853,16 +7855,16 @@
         <v>252</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -7873,16 +7875,16 @@
         <v>253</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7893,16 +7895,16 @@
         <v>254</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
+        <v>656</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7913,16 +7915,16 @@
         <v>255</v>
       </c>
       <c r="C257" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F257">
-        <v>1</v>
+      <c r="E257" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7933,16 +7935,16 @@
         <v>256</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
+        <v>658</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7953,16 +7955,16 @@
         <v>257</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F259">
-        <v>2</v>
+        <v>659</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7973,16 +7975,16 @@
         <v>258</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F260">
-        <v>3</v>
+        <v>662</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7993,16 +7995,16 @@
         <v>259</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F261">
-        <v>4</v>
+        <v>660</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8013,16 +8015,16 @@
         <v>260</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F262">
-        <v>5</v>
+        <v>661</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8033,16 +8035,16 @@
         <v>261</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F263">
-        <v>6</v>
+        <v>663</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8053,10 +8055,10 @@
         <v>262</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8067,16 +8069,16 @@
         <v>263</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -8093,10 +8095,10 @@
         <v>433</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F266" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8107,16 +8109,16 @@
         <v>265</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8127,16 +8129,16 @@
         <v>266</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8147,16 +8149,16 @@
         <v>267</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8167,16 +8169,16 @@
         <v>268</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8187,10 +8189,10 @@
         <v>269</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -8207,10 +8209,10 @@
         <v>433</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F272" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8224,13 +8226,13 @@
         <v>411</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8244,13 +8246,13 @@
         <v>411</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8264,13 +8266,13 @@
         <v>411</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8284,13 +8286,13 @@
         <v>411</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8304,13 +8306,13 @@
         <v>411</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8324,13 +8326,13 @@
         <v>411</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8344,13 +8346,13 @@
         <v>411</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8364,13 +8366,13 @@
         <v>411</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8384,13 +8386,13 @@
         <v>411</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8404,13 +8406,13 @@
         <v>411</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8424,13 +8426,13 @@
         <v>411</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8444,13 +8446,13 @@
         <v>411</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8464,13 +8466,13 @@
         <v>411</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8484,13 +8486,13 @@
         <v>411</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -8507,10 +8509,10 @@
         <v>433</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F287" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8524,13 +8526,13 @@
         <v>412</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8544,7 +8546,7 @@
         <v>412</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8558,7 +8560,7 @@
         <v>412</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8572,7 +8574,7 @@
         <v>412</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8586,7 +8588,7 @@
         <v>412</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8600,13 +8602,13 @@
         <v>413</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8620,7 +8622,7 @@
         <v>413</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8634,7 +8636,7 @@
         <v>413</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8648,7 +8650,7 @@
         <v>413</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8662,7 +8664,7 @@
         <v>413</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -8679,10 +8681,10 @@
         <v>433</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F298" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8696,13 +8698,13 @@
         <v>414</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8716,13 +8718,13 @@
         <v>415</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8736,13 +8738,13 @@
         <v>415</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8756,13 +8758,13 @@
         <v>415</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8776,13 +8778,13 @@
         <v>415</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8796,13 +8798,13 @@
         <v>416</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -8816,13 +8818,13 @@
         <v>416</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8836,13 +8838,13 @@
         <v>416</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -8856,13 +8858,13 @@
         <v>416</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8876,13 +8878,13 @@
         <v>416</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8896,13 +8898,13 @@
         <v>416</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -8919,10 +8921,10 @@
         <v>433</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F310" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8936,13 +8938,13 @@
         <v>417</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8956,13 +8958,13 @@
         <v>417</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8976,13 +8978,13 @@
         <v>417</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8996,13 +8998,13 @@
         <v>417</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9016,13 +9018,13 @@
         <v>417</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9036,13 +9038,13 @@
         <v>417</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9056,13 +9058,13 @@
         <v>417</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9076,13 +9078,13 @@
         <v>417</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -9099,10 +9101,10 @@
         <v>433</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F319" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9113,13 +9115,13 @@
         <v>318</v>
       </c>
       <c r="C320" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="E320" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -9133,13 +9135,13 @@
         <v>319</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -9153,13 +9155,13 @@
         <v>320</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -9173,13 +9175,13 @@
         <v>321</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -9193,16 +9195,16 @@
         <v>322</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9213,10 +9215,10 @@
         <v>323</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9227,10 +9229,10 @@
         <v>324</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9241,16 +9243,16 @@
         <v>325</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9261,10 +9263,10 @@
         <v>326</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9275,16 +9277,16 @@
         <v>327</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9295,16 +9297,16 @@
         <v>328</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9315,10 +9317,10 @@
         <v>329</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9329,16 +9331,16 @@
         <v>330</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -9355,10 +9357,10 @@
         <v>433</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F333" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9369,16 +9371,16 @@
         <v>332</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -9389,16 +9391,16 @@
         <v>333</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F335" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -9409,13 +9411,13 @@
         <v>334</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9429,16 +9431,16 @@
         <v>335</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F337">
-        <v>1</v>
+        <v>733</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9449,16 +9451,16 @@
         <v>336</v>
       </c>
       <c r="C338" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D338" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
+      <c r="E338" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9469,16 +9471,16 @@
         <v>337</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F339">
-        <v>1</v>
+        <v>735</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9489,16 +9491,16 @@
         <v>338</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9509,10 +9511,10 @@
         <v>339</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9523,10 +9525,10 @@
         <v>340</v>
       </c>
       <c r="C342" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D342" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -9537,16 +9539,16 @@
         <v>341</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9557,16 +9559,16 @@
         <v>342</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9577,10 +9579,10 @@
         <v>343</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9591,10 +9593,10 @@
         <v>344</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9605,16 +9607,16 @@
         <v>345</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9625,10 +9627,10 @@
         <v>346</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9639,10 +9641,10 @@
         <v>347</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9653,16 +9655,16 @@
         <v>348</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9673,10 +9675,10 @@
         <v>349</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9687,10 +9689,10 @@
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9707,10 +9709,10 @@
         <v>433</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F353" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9724,13 +9726,13 @@
         <v>418</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9744,13 +9746,13 @@
         <v>418</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9764,13 +9766,13 @@
         <v>418</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9784,13 +9786,13 @@
         <v>418</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9807,10 +9809,10 @@
         <v>433</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F358" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9827,10 +9829,10 @@
         <v>433</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F359" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9844,13 +9846,13 @@
         <v>419</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9864,13 +9866,13 @@
         <v>419</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9884,13 +9886,13 @@
         <v>419</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9904,13 +9906,13 @@
         <v>419</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9924,13 +9926,13 @@
         <v>419</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9944,13 +9946,13 @@
         <v>419</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9964,13 +9966,13 @@
         <v>419</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9987,15 +9989,16 @@
         <v>433</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F367" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL</oddFooter>
   </headerFooter>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1246" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749BB87B-C75A-4201-AC85-0718690B1D0D}"/>
+  <xr:revisionPtr revIDLastSave="1255" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5124B48-8F81-458E-A4A8-65C6585379A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14235" yWindow="-13620" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2985,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1255" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5124B48-8F81-458E-A4A8-65C6585379A6}"/>
+  <xr:revisionPtr revIDLastSave="1264" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EBA5602-3C66-4DF7-9BBC-C97A8FA0BA63}"/>
   <bookViews>
-    <workbookView xWindow="-14235" yWindow="-13620" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="853">
   <si>
     <t>record_id</t>
   </si>
@@ -1343,12 +1343,6 @@
     <t>Name of Evaluator</t>
   </si>
   <si>
-    <t>1. I confirm that I have read and understand the informationsheet dated 26/11/2024 (version 1.0) for the aboveevaluation. I have had the opportunity to consider theinformation, ask questions and have had these answeredsatisfactorily.</t>
-  </si>
-  <si>
-    <t>2. I understand that my participation is voluntary and that Iam free to withdraw at any time without giving any reason.However, I also understand that after 14 days analysis of mydata has begun and it will not be possible to withdraw myanonymised data from the study.</t>
-  </si>
-  <si>
     <t>Name of Participant</t>
   </si>
   <si>
@@ -1371,9 +1365,6 @@
   </si>
   <si>
     <t>Other Gender</t>
-  </si>
-  <si>
-    <t>Is the gender you identify with the same as your sexregistered at birth?</t>
   </si>
   <si>
     <t>Other Sexual Orientation</t>
@@ -2337,9 +2328,6 @@
     <t>1; 0</t>
   </si>
   <si>
-    <t>Remotely via Electronic Survey</t>
-  </si>
-  <si>
     <t>Incomplete; Unverified; Complete</t>
   </si>
   <si>
@@ -2628,10 +2616,19 @@
     <t xml:space="preserve">1;  </t>
   </si>
   <si>
-    <t>3. I agree to information, which can identify me beinginputted into a REDCap database hosted by the University of Birmingham.</t>
-  </si>
-  <si>
     <t>4. I agree to be part of the evaluation as detailed in the participant information sheet.</t>
+  </si>
+  <si>
+    <t>3. I agree to information, which can identify me being inputted into a REDCap database hosted by the University of Birmingham.</t>
+  </si>
+  <si>
+    <t>2. I understand that my participation is voluntary and that Iam free to withdraw at any time without giving any reason. However, I also understand that after 14 days analysis of mydata has begun and it will not be possible to withdraw myanonymised data from the study.</t>
+  </si>
+  <si>
+    <t>1. I confirm that I have read and understand the information sheet dated 26/11/2024 (version 1.0) for the above evaluation. I have had the opportunity to consider the information, ask questions and have had these answered satisfactorily.</t>
+  </si>
+  <si>
+    <t>Is the gender you identify with the same as your sex registered at birth?</t>
   </si>
 </sst>
 </file>
@@ -2986,7 +2983,7 @@
   <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,10 +3010,10 @@
         <v>384</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3027,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>420</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3044,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3055,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,13 +3063,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>421</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3080,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,13 +3097,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>423</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3117,13 +3114,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3134,7 +3131,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>425</v>
@@ -3148,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>426</v>
@@ -3168,10 +3165,10 @@
         <v>427</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3230,11 +3227,9 @@
         <v>431</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3264,10 +3259,10 @@
         <v>433</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F17" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3278,16 +3273,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3304,10 +3299,10 @@
         <v>433</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F19" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3318,7 +3313,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>434</v>
@@ -3332,10 +3327,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>435</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3346,10 +3341,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>436</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3360,10 +3355,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3374,10 +3369,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3391,7 +3386,7 @@
         <v>397</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3405,7 +3400,7 @@
         <v>397</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3419,13 +3414,13 @@
         <v>397</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3439,7 +3434,7 @@
         <v>398</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3453,7 +3448,7 @@
         <v>398</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3470,10 +3465,10 @@
         <v>433</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F30" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3487,13 +3482,13 @@
         <v>399</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -3507,13 +3502,13 @@
         <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3527,7 +3522,7 @@
         <v>399</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3541,13 +3536,13 @@
         <v>399</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>445</v>
+        <v>852</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3561,13 +3556,13 @@
         <v>399</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3581,7 +3576,7 @@
         <v>399</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -3595,13 +3590,13 @@
         <v>400</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3615,7 +3610,7 @@
         <v>400</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
@@ -3629,13 +3624,13 @@
         <v>401</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3646,16 +3641,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3666,16 +3661,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3686,16 +3681,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3706,16 +3701,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3726,16 +3721,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3746,16 +3741,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3766,16 +3761,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3786,16 +3781,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3806,16 +3801,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3826,16 +3821,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3846,16 +3841,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3866,16 +3861,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3886,16 +3881,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3906,16 +3901,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3926,16 +3921,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3946,16 +3941,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3966,16 +3961,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3986,16 +3981,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4006,16 +4001,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4026,16 +4021,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4046,16 +4041,16 @@
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E60" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4066,16 +4061,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4086,16 +4081,16 @@
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4106,16 +4101,16 @@
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4126,16 +4121,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4146,16 +4141,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4166,16 +4161,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4186,16 +4181,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4206,16 +4201,16 @@
         <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4226,16 +4221,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4246,16 +4241,16 @@
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4266,16 +4261,16 @@
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4286,16 +4281,16 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4306,16 +4301,16 @@
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4326,16 +4321,16 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4346,16 +4341,16 @@
         <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4366,16 +4361,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4386,16 +4381,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4406,10 +4401,10 @@
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F78" s="3"/>
     </row>
@@ -4421,16 +4416,16 @@
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4441,16 +4436,16 @@
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4461,16 +4456,16 @@
         <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4481,16 +4476,16 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4501,16 +4496,16 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -4524,13 +4519,13 @@
         <v>402</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -4544,13 +4539,13 @@
         <v>402</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4564,13 +4559,13 @@
         <v>402</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4581,10 +4576,10 @@
         <v>85</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4595,16 +4590,16 @@
         <v>86</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4615,10 +4610,10 @@
         <v>87</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4629,16 +4624,16 @@
         <v>88</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4649,16 +4644,16 @@
         <v>89</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4669,7 +4664,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4680,7 +4675,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4691,7 +4686,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4702,7 +4697,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4719,10 +4714,10 @@
         <v>433</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F96" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4736,13 +4731,13 @@
         <v>404</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4756,13 +4751,13 @@
         <v>404</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4776,13 +4771,13 @@
         <v>404</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4796,13 +4791,13 @@
         <v>404</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4816,13 +4811,13 @@
         <v>404</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4836,13 +4831,13 @@
         <v>404</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4856,13 +4851,13 @@
         <v>404</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4876,13 +4871,13 @@
         <v>404</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4896,13 +4891,13 @@
         <v>404</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4916,13 +4911,13 @@
         <v>404</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4936,13 +4931,13 @@
         <v>404</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4956,13 +4951,13 @@
         <v>404</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4976,13 +4971,13 @@
         <v>404</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4996,13 +4991,13 @@
         <v>404</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5019,10 +5014,10 @@
         <v>433</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F111" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5036,13 +5031,13 @@
         <v>403</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5056,13 +5051,13 @@
         <v>403</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5076,13 +5071,13 @@
         <v>403</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5096,13 +5091,13 @@
         <v>403</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5116,13 +5111,13 @@
         <v>403</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -5136,13 +5131,13 @@
         <v>403</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5156,13 +5151,13 @@
         <v>403</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5176,13 +5171,13 @@
         <v>403</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5196,13 +5191,13 @@
         <v>403</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5216,13 +5211,13 @@
         <v>403</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5236,13 +5231,13 @@
         <v>403</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5256,13 +5251,13 @@
         <v>403</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -5279,10 +5274,10 @@
         <v>433</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F124" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5293,16 +5288,16 @@
         <v>123</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5313,16 +5308,16 @@
         <v>124</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5333,16 +5328,16 @@
         <v>125</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="E127" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5353,16 +5348,16 @@
         <v>126</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5373,16 +5368,16 @@
         <v>127</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5393,16 +5388,16 @@
         <v>128</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5413,16 +5408,16 @@
         <v>129</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5433,16 +5428,16 @@
         <v>130</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5453,16 +5448,16 @@
         <v>131</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5473,16 +5468,16 @@
         <v>132</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5493,16 +5488,16 @@
         <v>133</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5513,16 +5508,16 @@
         <v>134</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5533,16 +5528,16 @@
         <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5553,16 +5548,16 @@
         <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5573,16 +5568,16 @@
         <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5593,16 +5588,16 @@
         <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5613,16 +5608,16 @@
         <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5633,16 +5628,16 @@
         <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5653,16 +5648,16 @@
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5673,16 +5668,16 @@
         <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5693,16 +5688,16 @@
         <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5713,16 +5708,16 @@
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5733,16 +5728,16 @@
         <v>145</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5753,10 +5748,10 @@
         <v>146</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -5767,16 +5762,16 @@
         <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5787,10 +5782,10 @@
         <v>148</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5801,16 +5796,16 @@
         <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5821,16 +5816,16 @@
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5841,16 +5836,16 @@
         <v>151</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5861,16 +5856,16 @@
         <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="E154" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5881,16 +5876,16 @@
         <v>153</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5901,16 +5896,16 @@
         <v>154</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5921,16 +5916,16 @@
         <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5941,16 +5936,16 @@
         <v>156</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5961,16 +5956,16 @@
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5981,16 +5976,16 @@
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6001,16 +5996,16 @@
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -6021,16 +6016,16 @@
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -6047,10 +6042,10 @@
         <v>433</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F163" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6061,16 +6056,16 @@
         <v>162</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6081,16 +6076,16 @@
         <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6101,16 +6096,16 @@
         <v>164</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>574</v>
-      </c>
       <c r="E166" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6121,16 +6116,16 @@
         <v>165</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6141,16 +6136,16 @@
         <v>166</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6161,16 +6156,16 @@
         <v>167</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6181,16 +6176,16 @@
         <v>168</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6201,16 +6196,16 @@
         <v>169</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6221,16 +6216,16 @@
         <v>170</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -6241,16 +6236,16 @@
         <v>171</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6261,16 +6256,16 @@
         <v>172</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6281,16 +6276,16 @@
         <v>173</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6301,16 +6296,16 @@
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6321,16 +6316,16 @@
         <v>175</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6341,16 +6336,16 @@
         <v>176</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6361,16 +6356,16 @@
         <v>177</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6381,16 +6376,16 @@
         <v>178</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -6407,10 +6402,10 @@
         <v>433</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F181" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6424,13 +6419,13 @@
         <v>405</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6444,13 +6439,13 @@
         <v>405</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6464,13 +6459,13 @@
         <v>405</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6484,13 +6479,13 @@
         <v>405</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6504,13 +6499,13 @@
         <v>405</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6524,13 +6519,13 @@
         <v>405</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6544,13 +6539,13 @@
         <v>405</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6564,13 +6559,13 @@
         <v>405</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6584,13 +6579,13 @@
         <v>405</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6604,13 +6599,13 @@
         <v>405</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6624,13 +6619,13 @@
         <v>405</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6644,13 +6639,13 @@
         <v>405</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6664,13 +6659,13 @@
         <v>405</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6687,10 +6682,10 @@
         <v>433</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F195" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6701,16 +6696,16 @@
         <v>194</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -6721,16 +6716,16 @@
         <v>195</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6741,16 +6736,16 @@
         <v>196</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="E198" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6761,10 +6756,10 @@
         <v>197</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6781,10 +6776,10 @@
         <v>433</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F200" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6795,16 +6790,16 @@
         <v>199</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6815,16 +6810,16 @@
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6835,16 +6830,16 @@
         <v>201</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6855,16 +6850,16 @@
         <v>202</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6875,16 +6870,16 @@
         <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6895,16 +6890,16 @@
         <v>204</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6915,16 +6910,16 @@
         <v>205</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6935,16 +6930,16 @@
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6955,16 +6950,16 @@
         <v>207</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6975,16 +6970,16 @@
         <v>208</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6995,16 +6990,16 @@
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7015,16 +7010,16 @@
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7035,16 +7030,16 @@
         <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7055,16 +7050,16 @@
         <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7075,16 +7070,16 @@
         <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7095,16 +7090,16 @@
         <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -7121,10 +7116,10 @@
         <v>433</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F217" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7138,13 +7133,13 @@
         <v>409</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7158,13 +7153,13 @@
         <v>409</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7178,13 +7173,13 @@
         <v>409</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7198,13 +7193,13 @@
         <v>409</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7218,13 +7213,13 @@
         <v>406</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7238,13 +7233,13 @@
         <v>406</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7258,13 +7253,13 @@
         <v>406</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -7278,13 +7273,13 @@
         <v>406</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7298,13 +7293,13 @@
         <v>407</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7318,13 +7313,13 @@
         <v>407</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7338,13 +7333,13 @@
         <v>407</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7358,13 +7353,13 @@
         <v>407</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7378,13 +7373,13 @@
         <v>407</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7398,13 +7393,13 @@
         <v>407</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7418,13 +7413,13 @@
         <v>407</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7438,13 +7433,13 @@
         <v>407</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7458,13 +7453,13 @@
         <v>407</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7478,13 +7473,13 @@
         <v>407</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7498,13 +7493,13 @@
         <v>408</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -7521,10 +7516,10 @@
         <v>433</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F237" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7538,13 +7533,13 @@
         <v>410</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7558,13 +7553,13 @@
         <v>410</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7578,13 +7573,13 @@
         <v>410</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7598,13 +7593,13 @@
         <v>410</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7618,13 +7613,13 @@
         <v>410</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7638,13 +7633,13 @@
         <v>410</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7658,13 +7653,13 @@
         <v>410</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7678,13 +7673,13 @@
         <v>410</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7698,13 +7693,13 @@
         <v>410</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7718,13 +7713,13 @@
         <v>410</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7738,13 +7733,13 @@
         <v>410</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7758,13 +7753,13 @@
         <v>410</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7778,13 +7773,13 @@
         <v>410</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7798,13 +7793,13 @@
         <v>410</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7818,13 +7813,13 @@
         <v>408</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -7841,10 +7836,10 @@
         <v>433</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F253" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7855,16 +7850,16 @@
         <v>252</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -7875,16 +7870,16 @@
         <v>253</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7895,16 +7890,16 @@
         <v>254</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7915,16 +7910,16 @@
         <v>255</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7935,16 +7930,16 @@
         <v>256</v>
       </c>
       <c r="C258" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D258" s="3" t="s">
-        <v>658</v>
-      </c>
       <c r="E258" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7955,16 +7950,16 @@
         <v>257</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7975,16 +7970,16 @@
         <v>258</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7995,16 +7990,16 @@
         <v>259</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8015,16 +8010,16 @@
         <v>260</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8035,16 +8030,16 @@
         <v>261</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8055,10 +8050,10 @@
         <v>262</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8069,16 +8064,16 @@
         <v>263</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -8095,10 +8090,10 @@
         <v>433</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F266" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8109,16 +8104,16 @@
         <v>265</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8129,16 +8124,16 @@
         <v>266</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8149,16 +8144,16 @@
         <v>267</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8169,16 +8164,16 @@
         <v>268</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8189,10 +8184,10 @@
         <v>269</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -8209,10 +8204,10 @@
         <v>433</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F272" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8226,13 +8221,13 @@
         <v>411</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8246,13 +8241,13 @@
         <v>411</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8266,13 +8261,13 @@
         <v>411</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8286,13 +8281,13 @@
         <v>411</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8306,13 +8301,13 @@
         <v>411</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8326,13 +8321,13 @@
         <v>411</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8346,13 +8341,13 @@
         <v>411</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8366,13 +8361,13 @@
         <v>411</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8386,13 +8381,13 @@
         <v>411</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8406,13 +8401,13 @@
         <v>411</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8426,13 +8421,13 @@
         <v>411</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8446,13 +8441,13 @@
         <v>411</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8466,13 +8461,13 @@
         <v>411</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8486,13 +8481,13 @@
         <v>411</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -8509,10 +8504,10 @@
         <v>433</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F287" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8526,13 +8521,13 @@
         <v>412</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8546,7 +8541,7 @@
         <v>412</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8560,7 +8555,7 @@
         <v>412</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8574,7 +8569,7 @@
         <v>412</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8588,7 +8583,7 @@
         <v>412</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8602,13 +8597,13 @@
         <v>413</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8622,7 +8617,7 @@
         <v>413</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8636,7 +8631,7 @@
         <v>413</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8650,7 +8645,7 @@
         <v>413</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8664,7 +8659,7 @@
         <v>413</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -8681,10 +8676,10 @@
         <v>433</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F298" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8698,13 +8693,13 @@
         <v>414</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8718,13 +8713,13 @@
         <v>415</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8738,13 +8733,13 @@
         <v>415</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8758,13 +8753,13 @@
         <v>415</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8778,13 +8773,13 @@
         <v>415</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8798,13 +8793,13 @@
         <v>416</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -8818,13 +8813,13 @@
         <v>416</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8838,13 +8833,13 @@
         <v>416</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -8858,13 +8853,13 @@
         <v>416</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8878,13 +8873,13 @@
         <v>416</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8898,13 +8893,13 @@
         <v>416</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -8921,10 +8916,10 @@
         <v>433</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F310" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8938,13 +8933,13 @@
         <v>417</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8958,13 +8953,13 @@
         <v>417</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8978,13 +8973,13 @@
         <v>417</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8998,13 +8993,13 @@
         <v>417</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9018,13 +9013,13 @@
         <v>417</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9038,13 +9033,13 @@
         <v>417</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9058,13 +9053,13 @@
         <v>417</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9078,13 +9073,13 @@
         <v>417</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -9101,10 +9096,10 @@
         <v>433</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F319" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9115,13 +9110,13 @@
         <v>318</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -9135,13 +9130,13 @@
         <v>319</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -9155,13 +9150,13 @@
         <v>320</v>
       </c>
       <c r="C322" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D322" s="3" t="s">
-        <v>716</v>
-      </c>
       <c r="E322" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -9175,13 +9170,13 @@
         <v>321</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -9195,16 +9190,16 @@
         <v>322</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9215,10 +9210,10 @@
         <v>323</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9229,10 +9224,10 @@
         <v>324</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9243,16 +9238,16 @@
         <v>325</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9263,10 +9258,10 @@
         <v>326</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9277,16 +9272,16 @@
         <v>327</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9297,16 +9292,16 @@
         <v>328</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9317,10 +9312,10 @@
         <v>329</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9331,16 +9326,16 @@
         <v>330</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -9357,10 +9352,10 @@
         <v>433</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F333" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9371,16 +9366,16 @@
         <v>332</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -9391,16 +9386,16 @@
         <v>333</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F335" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -9411,13 +9406,13 @@
         <v>334</v>
       </c>
       <c r="C336" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D336" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="D336" s="4" t="s">
-        <v>731</v>
-      </c>
       <c r="E336" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9431,16 +9426,16 @@
         <v>335</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9451,16 +9446,16 @@
         <v>336</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9471,16 +9466,16 @@
         <v>337</v>
       </c>
       <c r="C339" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D339" s="3" t="s">
-        <v>735</v>
-      </c>
       <c r="E339" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9491,16 +9486,16 @@
         <v>338</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9511,10 +9506,10 @@
         <v>339</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9525,10 +9520,10 @@
         <v>340</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -9539,16 +9534,16 @@
         <v>341</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9559,16 +9554,16 @@
         <v>342</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9579,10 +9574,10 @@
         <v>343</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9593,10 +9588,10 @@
         <v>344</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9607,16 +9602,16 @@
         <v>345</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9627,10 +9622,10 @@
         <v>346</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9641,10 +9636,10 @@
         <v>347</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9655,16 +9650,16 @@
         <v>348</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9675,10 +9670,10 @@
         <v>349</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9689,10 +9684,10 @@
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9709,10 +9704,10 @@
         <v>433</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F353" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9726,13 +9721,13 @@
         <v>418</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9746,13 +9741,13 @@
         <v>418</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9766,13 +9761,13 @@
         <v>418</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9786,13 +9781,13 @@
         <v>418</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9809,10 +9804,10 @@
         <v>433</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F358" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9829,10 +9824,10 @@
         <v>433</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F359" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9846,13 +9841,13 @@
         <v>419</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9866,13 +9861,13 @@
         <v>419</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9886,13 +9881,13 @@
         <v>419</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9906,13 +9901,13 @@
         <v>419</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9926,13 +9921,13 @@
         <v>419</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9946,13 +9941,13 @@
         <v>419</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9966,13 +9961,13 @@
         <v>419</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9989,10 +9984,10 @@
         <v>433</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F367" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1264" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EBA5602-3C66-4DF7-9BBC-C97A8FA0BA63}"/>
+  <xr:revisionPtr revIDLastSave="1307" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCA1CD19-480B-4F34-AB07-10BE408BD9C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="856">
   <si>
     <t>record_id</t>
   </si>
@@ -1875,18 +1875,6 @@
     <t>Last Time Tested for TB</t>
   </si>
   <si>
-    <t>Best Description of HIV</t>
-  </si>
-  <si>
-    <t>Best Description of Hepatitis B</t>
-  </si>
-  <si>
-    <t>Best Description of Hepatitis C</t>
-  </si>
-  <si>
-    <t>Best Description of TB</t>
-  </si>
-  <si>
     <t>Are you at increased risk of HIV?</t>
   </si>
   <si>
@@ -1894,21 +1882,6 @@
   </si>
   <si>
     <t>Are you at increased risk of Hepatitis C?</t>
-  </si>
-  <si>
-    <t>If you were offered HIV</t>
-  </si>
-  <si>
-    <t>If you were offered Hepatitis B</t>
-  </si>
-  <si>
-    <t>If you were offered Hepatitis C</t>
-  </si>
-  <si>
-    <t>HIV and Hepatitis B and C Prevention Questionnaire on blood borne virus awareness/testing</t>
-  </si>
-  <si>
-    <t>If you were offered TB</t>
   </si>
   <si>
     <t>Are you at increased risk of TB?</t>
@@ -2616,26 +2589,62 @@
     <t xml:space="preserve">1;  </t>
   </si>
   <si>
-    <t>4. I agree to be part of the evaluation as detailed in the participant information sheet.</t>
-  </si>
-  <si>
-    <t>3. I agree to information, which can identify me being inputted into a REDCap database hosted by the University of Birmingham.</t>
-  </si>
-  <si>
-    <t>2. I understand that my participation is voluntary and that Iam free to withdraw at any time without giving any reason. However, I also understand that after 14 days analysis of mydata has begun and it will not be possible to withdraw myanonymised data from the study.</t>
-  </si>
-  <si>
-    <t>1. I confirm that I have read and understand the information sheet dated 26/11/2024 (version 1.0) for the above evaluation. I have had the opportunity to consider the information, ask questions and have had these answered satisfactorily.</t>
-  </si>
-  <si>
     <t>Is the gender you identify with the same as your sex registered at birth?</t>
+  </si>
+  <si>
+    <t>When was the last time you were tested for the following:</t>
+  </si>
+  <si>
+    <t>Please state which best describes your agreement with the following statements</t>
+  </si>
+  <si>
+    <t>I know what to do to get tested for HIV</t>
+  </si>
+  <si>
+    <t>I know what to do to get tested for Hepatitis B</t>
+  </si>
+  <si>
+    <t>I know what to do to get tested for Hepatitis C</t>
+  </si>
+  <si>
+    <t>I know what to do to get tested for TB</t>
+  </si>
+  <si>
+    <t>Please state which best describes your agreement with the following statements:</t>
+  </si>
+  <si>
+    <t>If you were offered a HIV test, how likely would you be to take it up</t>
+  </si>
+  <si>
+    <t>If you were offered a Hepatitis B test, how likely would you be to take it up</t>
+  </si>
+  <si>
+    <t>If you were offered a Hepatitis C test, how likely would you be to take it up</t>
+  </si>
+  <si>
+    <t>If you were offered a TB test, how likely would you be to take it up</t>
+  </si>
+  <si>
+    <t>Are you at increased risk of the following:</t>
+  </si>
+  <si>
+    <t>1. I confirm that I have read and understand the information sheet dated 26/11/2024 (version 1.0) for the above evaluation. I have had the opportunity to consider the information, ask questions and have had these answered satisfactorily. (Please enter initials)</t>
+  </si>
+  <si>
+    <t>2. I understand that my participation is voluntary and that Iam free to withdraw at any time without giving any reason. However, I also understand that after 14 days analysis of mydata has begun and it will not be possible to withdraw myanonymised data from the study. (Please enter initials)</t>
+  </si>
+  <si>
+    <t>3. I agree to information, which can identify me being inputted into a REDCap database hosted by the University of Birmingham. (Please enter initials)</t>
+  </si>
+  <si>
+    <t>4. I agree to be part of the evaluation as detailed in the participant information sheet. (Please enter initials)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2664,6 +2673,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2685,7 +2707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2697,9 +2719,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2983,7 +3012,7 @@
   <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2992,8 +3021,8 @@
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3009,11 +3038,11 @@
       <c r="D1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>845</v>
+      <c r="E1" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3024,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>749</v>
+      <c r="E2" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3041,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,13 +3092,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>749</v>
+      <c r="E5" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,13 +3109,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>749</v>
+      <c r="E6" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,13 +3126,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>749</v>
+      <c r="E7" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3114,13 +3143,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>749</v>
+      <c r="E8" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3131,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>425</v>
@@ -3145,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>426</v>
@@ -3164,11 +3193,11 @@
       <c r="D11" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F11" t="s">
-        <v>751</v>
+      <c r="E11" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,10 +3255,10 @@
       <c r="D15" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3245,7 +3274,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>367</v>
       </c>
@@ -3258,11 +3287,11 @@
       <c r="D17" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F17" t="s">
-        <v>753</v>
+      <c r="E17" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3273,19 +3302,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>368</v>
       </c>
@@ -3298,11 +3327,11 @@
       <c r="D19" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F19" t="s">
-        <v>753</v>
+      <c r="E19" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3313,7 +3342,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>434</v>
@@ -3327,10 +3356,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3341,10 +3370,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3355,10 +3384,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3369,10 +3398,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3416,11 +3445,11 @@
       <c r="D27" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>751</v>
+      <c r="E27" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3464,11 +3493,11 @@
       <c r="D30" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F30" t="s">
-        <v>753</v>
+      <c r="E30" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3484,11 +3513,11 @@
       <c r="D31" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>755</v>
+      <c r="E31" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -3504,11 +3533,11 @@
       <c r="D32" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>757</v>
+      <c r="E32" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3536,13 +3565,13 @@
         <v>399</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>760</v>
+        <v>839</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3556,13 +3585,13 @@
         <v>399</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>757</v>
+        <v>749</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3592,11 +3621,11 @@
       <c r="D37" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>763</v>
+      <c r="E37" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3626,11 +3655,11 @@
       <c r="D39" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>760</v>
+      <c r="E39" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3646,11 +3675,11 @@
       <c r="D40" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>847</v>
+      <c r="E40" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3666,11 +3695,11 @@
       <c r="D41" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>847</v>
+      <c r="E41" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3686,11 +3715,11 @@
       <c r="D42" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>847</v>
+      <c r="E42" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3706,11 +3735,11 @@
       <c r="D43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>847</v>
+      <c r="E43" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3726,11 +3755,11 @@
       <c r="D44" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>847</v>
+      <c r="E44" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3746,11 +3775,11 @@
       <c r="D45" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>847</v>
+      <c r="E45" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3766,11 +3795,11 @@
       <c r="D46" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>847</v>
+      <c r="E46" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3786,11 +3815,11 @@
       <c r="D47" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>765</v>
+      <c r="E47" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3806,11 +3835,11 @@
       <c r="D48" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>767</v>
+      <c r="E48" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3826,11 +3855,11 @@
       <c r="D49" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>760</v>
+      <c r="E49" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3846,11 +3875,11 @@
       <c r="D50" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>847</v>
+      <c r="E50" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3866,11 +3895,11 @@
       <c r="D51" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>847</v>
+      <c r="E51" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3886,11 +3915,11 @@
       <c r="D52" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>847</v>
+      <c r="E52" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3906,11 +3935,11 @@
       <c r="D53" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>847</v>
+      <c r="E53" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3926,11 +3955,11 @@
       <c r="D54" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>847</v>
+      <c r="E54" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3946,11 +3975,11 @@
       <c r="D55" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>847</v>
+      <c r="E55" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3966,11 +3995,11 @@
       <c r="D56" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>847</v>
+      <c r="E56" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3986,11 +4015,11 @@
       <c r="D57" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>765</v>
+      <c r="E57" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4006,11 +4035,11 @@
       <c r="D58" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>847</v>
+      <c r="E58" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4026,11 +4055,11 @@
       <c r="D59" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>847</v>
+      <c r="E59" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4046,11 +4075,11 @@
       <c r="D60" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>847</v>
+      <c r="E60" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4066,11 +4095,11 @@
       <c r="D61" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>847</v>
+      <c r="E61" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4086,11 +4115,11 @@
       <c r="D62" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>847</v>
+      <c r="E62" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4106,11 +4135,11 @@
       <c r="D63" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>847</v>
+      <c r="E63" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4126,11 +4155,11 @@
       <c r="D64" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>847</v>
+      <c r="E64" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4146,11 +4175,11 @@
       <c r="D65" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>847</v>
+      <c r="E65" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4166,11 +4195,11 @@
       <c r="D66" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>847</v>
+      <c r="E66" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4186,11 +4215,11 @@
       <c r="D67" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>847</v>
+      <c r="E67" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4206,11 +4235,11 @@
       <c r="D68" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>847</v>
+      <c r="E68" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4226,11 +4255,11 @@
       <c r="D69" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>847</v>
+      <c r="E69" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4246,11 +4275,11 @@
       <c r="D70" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>847</v>
+      <c r="E70" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4266,11 +4295,11 @@
       <c r="D71" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>847</v>
+      <c r="E71" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4286,11 +4315,11 @@
       <c r="D72" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>847</v>
+      <c r="E72" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4306,11 +4335,11 @@
       <c r="D73" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>847</v>
+      <c r="E73" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4326,11 +4355,11 @@
       <c r="D74" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>847</v>
+      <c r="E74" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4346,11 +4375,11 @@
       <c r="D75" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>847</v>
+      <c r="E75" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4366,11 +4395,11 @@
       <c r="D76" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>847</v>
+      <c r="E76" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4386,11 +4415,11 @@
       <c r="D77" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>847</v>
+      <c r="E77" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -4406,7 +4435,7 @@
       <c r="D78" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -4421,11 +4450,11 @@
       <c r="D79" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>769</v>
+      <c r="E79" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4441,11 +4470,11 @@
       <c r="D80" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>751</v>
+      <c r="E80" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4461,11 +4490,11 @@
       <c r="D81" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>769</v>
+      <c r="E81" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4481,11 +4510,11 @@
       <c r="D82" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>751</v>
+      <c r="E82" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -4501,11 +4530,11 @@
       <c r="D83" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>769</v>
+      <c r="E83" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -4521,11 +4550,11 @@
       <c r="D84" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>771</v>
+      <c r="E84" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -4541,11 +4570,11 @@
       <c r="D85" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>773</v>
+      <c r="E85" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4561,11 +4590,11 @@
       <c r="D86" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>775</v>
+      <c r="E86" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4595,11 +4624,11 @@
       <c r="D88" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>777</v>
+      <c r="E88" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4629,11 +4658,11 @@
       <c r="D90" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>751</v>
+      <c r="E90" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -4647,13 +4676,13 @@
         <v>495</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>751</v>
+        <v>770</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4713,11 +4742,11 @@
       <c r="D96" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F96" t="s">
-        <v>753</v>
+      <c r="E96" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4733,11 +4762,11 @@
       <c r="D97" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>781</v>
+      <c r="E97" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4753,11 +4782,11 @@
       <c r="D98" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>781</v>
+      <c r="E98" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4773,11 +4802,11 @@
       <c r="D99" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>781</v>
+      <c r="E99" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4793,11 +4822,11 @@
       <c r="D100" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>781</v>
+      <c r="E100" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4813,11 +4842,11 @@
       <c r="D101" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>781</v>
+      <c r="E101" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4833,11 +4862,11 @@
       <c r="D102" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>781</v>
+      <c r="E102" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4853,11 +4882,11 @@
       <c r="D103" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>781</v>
+      <c r="E103" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4873,11 +4902,11 @@
       <c r="D104" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>781</v>
+      <c r="E104" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4893,11 +4922,11 @@
       <c r="D105" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>781</v>
+      <c r="E105" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4913,11 +4942,11 @@
       <c r="D106" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>781</v>
+      <c r="E106" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4933,11 +4962,11 @@
       <c r="D107" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>781</v>
+      <c r="E107" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4953,11 +4982,11 @@
       <c r="D108" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>781</v>
+      <c r="E108" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4973,11 +5002,11 @@
       <c r="D109" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>781</v>
+      <c r="E109" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4993,11 +5022,11 @@
       <c r="D110" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>781</v>
+      <c r="E110" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -5013,11 +5042,11 @@
       <c r="D111" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F111" t="s">
-        <v>753</v>
+      <c r="E111" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5033,11 +5062,11 @@
       <c r="D112" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>783</v>
+      <c r="E112" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5053,11 +5082,11 @@
       <c r="D113" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>783</v>
+      <c r="E113" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5073,11 +5102,11 @@
       <c r="D114" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>783</v>
+      <c r="E114" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5093,11 +5122,11 @@
       <c r="D115" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>751</v>
+      <c r="E115" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5113,11 +5142,11 @@
       <c r="D116" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>783</v>
+      <c r="E116" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -5133,11 +5162,11 @@
       <c r="D117" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>787</v>
+      <c r="E117" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5153,11 +5182,11 @@
       <c r="D118" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>783</v>
+      <c r="E118" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5173,11 +5202,11 @@
       <c r="D119" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>789</v>
+      <c r="E119" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5193,11 +5222,11 @@
       <c r="D120" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>789</v>
+      <c r="E120" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5213,11 +5242,11 @@
       <c r="D121" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="E121" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5233,11 +5262,11 @@
       <c r="D122" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="E122" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5253,11 +5282,11 @@
       <c r="D123" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="E123" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -5273,11 +5302,11 @@
       <c r="D124" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F124" t="s">
-        <v>753</v>
+      <c r="E124" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5293,11 +5322,11 @@
       <c r="D125" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>847</v>
+      <c r="E125" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5313,11 +5342,11 @@
       <c r="D126" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>847</v>
+      <c r="E126" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5333,11 +5362,11 @@
       <c r="D127" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>847</v>
+      <c r="E127" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5353,11 +5382,11 @@
       <c r="D128" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>847</v>
+      <c r="E128" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5373,11 +5402,11 @@
       <c r="D129" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>847</v>
+      <c r="E129" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5393,11 +5422,11 @@
       <c r="D130" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>847</v>
+      <c r="E130" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5413,11 +5442,11 @@
       <c r="D131" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>847</v>
+      <c r="E131" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5433,11 +5462,11 @@
       <c r="D132" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>847</v>
+      <c r="E132" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5453,11 +5482,11 @@
       <c r="D133" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>847</v>
+      <c r="E133" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5473,11 +5502,11 @@
       <c r="D134" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>847</v>
+      <c r="E134" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5493,11 +5522,11 @@
       <c r="D135" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>847</v>
+      <c r="E135" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5513,11 +5542,11 @@
       <c r="D136" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>847</v>
+      <c r="E136" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5533,11 +5562,11 @@
       <c r="D137" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>847</v>
+      <c r="E137" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5553,11 +5582,11 @@
       <c r="D138" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>847</v>
+      <c r="E138" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5573,11 +5602,11 @@
       <c r="D139" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>847</v>
+      <c r="E139" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5593,11 +5622,11 @@
       <c r="D140" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>847</v>
+      <c r="E140" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5613,11 +5642,11 @@
       <c r="D141" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>847</v>
+      <c r="E141" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5633,11 +5662,11 @@
       <c r="D142" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>847</v>
+      <c r="E142" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5653,11 +5682,11 @@
       <c r="D143" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>847</v>
+      <c r="E143" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5673,11 +5702,11 @@
       <c r="D144" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>847</v>
+      <c r="E144" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5693,11 +5722,11 @@
       <c r="D145" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>847</v>
+      <c r="E145" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5713,11 +5742,11 @@
       <c r="D146" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>847</v>
+      <c r="E146" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5733,11 +5762,11 @@
       <c r="D147" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>847</v>
+      <c r="E147" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5767,11 +5796,11 @@
       <c r="D149" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>793</v>
+      <c r="E149" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5801,11 +5830,11 @@
       <c r="D151" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>795</v>
+      <c r="E151" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5821,11 +5850,11 @@
       <c r="D152" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F152" s="3" t="s">
+      <c r="E152" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5841,11 +5870,11 @@
       <c r="D153" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F153" s="3" t="s">
+      <c r="E153" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5861,11 +5890,11 @@
       <c r="D154" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="E154" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5881,11 +5910,11 @@
       <c r="D155" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="E155" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5901,11 +5930,11 @@
       <c r="D156" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F156" s="3" t="s">
+      <c r="E156" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5921,11 +5950,11 @@
       <c r="D157" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F157" s="3" t="s">
+      <c r="E157" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5941,11 +5970,11 @@
       <c r="D158" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F158" s="3" t="s">
+      <c r="E158" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5961,11 +5990,11 @@
       <c r="D159" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F159" s="3" t="s">
+      <c r="E159" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5981,11 +6010,11 @@
       <c r="D160" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="E160" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6001,11 +6030,11 @@
       <c r="D161" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F161" s="3" t="s">
+      <c r="E161" s="5" t="s">
         <v>781</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -6021,11 +6050,11 @@
       <c r="D162" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>783</v>
+      <c r="E162" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,11 +6070,11 @@
       <c r="D163" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F163" t="s">
-        <v>753</v>
+      <c r="E163" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6061,11 +6090,11 @@
       <c r="D164" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>798</v>
+      <c r="E164" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6081,11 +6110,11 @@
       <c r="D165" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>800</v>
+      <c r="E165" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6101,11 +6130,11 @@
       <c r="D166" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>847</v>
+      <c r="E166" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6121,11 +6150,11 @@
       <c r="D167" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>847</v>
+      <c r="E167" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6141,11 +6170,11 @@
       <c r="D168" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>847</v>
+      <c r="E168" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6161,11 +6190,11 @@
       <c r="D169" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>847</v>
+      <c r="E169" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6181,11 +6210,11 @@
       <c r="D170" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>847</v>
+      <c r="E170" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6201,11 +6230,11 @@
       <c r="D171" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>847</v>
+      <c r="E171" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6221,11 +6250,11 @@
       <c r="D172" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>847</v>
+      <c r="E172" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -6241,11 +6270,11 @@
       <c r="D173" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>781</v>
+      <c r="E173" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6261,11 +6290,11 @@
       <c r="D174" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>847</v>
+      <c r="E174" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6281,11 +6310,11 @@
       <c r="D175" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>847</v>
+      <c r="E175" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6301,11 +6330,11 @@
       <c r="D176" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>847</v>
+      <c r="E176" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6321,11 +6350,11 @@
       <c r="D177" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>847</v>
+      <c r="E177" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6341,11 +6370,11 @@
       <c r="D178" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>847</v>
+      <c r="E178" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6361,11 +6390,11 @@
       <c r="D179" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>847</v>
+      <c r="E179" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6381,11 +6410,11 @@
       <c r="D180" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>847</v>
+      <c r="E180" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -6401,11 +6430,11 @@
       <c r="D181" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F181" t="s">
-        <v>753</v>
+      <c r="E181" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6421,11 +6450,11 @@
       <c r="D182" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>783</v>
+      <c r="E182" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6441,11 +6470,11 @@
       <c r="D183" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>783</v>
+      <c r="E183" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6461,11 +6490,11 @@
       <c r="D184" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>783</v>
+      <c r="E184" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6481,11 +6510,11 @@
       <c r="D185" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>783</v>
+      <c r="E185" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6501,11 +6530,11 @@
       <c r="D186" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>783</v>
+      <c r="E186" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6521,11 +6550,11 @@
       <c r="D187" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>783</v>
+      <c r="E187" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6541,11 +6570,11 @@
       <c r="D188" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>783</v>
+      <c r="E188" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6561,11 +6590,11 @@
       <c r="D189" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>783</v>
+      <c r="E189" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6581,11 +6610,11 @@
       <c r="D190" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>783</v>
+      <c r="E190" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6601,11 +6630,11 @@
       <c r="D191" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>783</v>
+      <c r="E191" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6621,11 +6650,11 @@
       <c r="D192" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>783</v>
+      <c r="E192" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6641,11 +6670,11 @@
       <c r="D193" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>751</v>
+      <c r="E193" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -6661,11 +6690,11 @@
       <c r="D194" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>804</v>
+      <c r="E194" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6681,11 +6710,11 @@
       <c r="D195" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F195" t="s">
-        <v>753</v>
+      <c r="E195" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6701,11 +6730,11 @@
       <c r="D196" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>806</v>
+      <c r="E196" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -6721,11 +6750,11 @@
       <c r="D197" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F197" s="3" t="s">
+      <c r="E197" s="5" t="s">
         <v>798</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6741,11 +6770,11 @@
       <c r="D198" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E198" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F198" s="3" t="s">
+      <c r="E198" s="5" t="s">
         <v>798</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6775,11 +6804,11 @@
       <c r="D200" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F200" t="s">
-        <v>753</v>
+      <c r="E200" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6790,16 +6819,16 @@
         <v>199</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>615</v>
+        <v>840</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>809</v>
+      <c r="E201" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6810,16 +6839,16 @@
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>615</v>
+        <v>840</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E202" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>809</v>
+      <c r="E202" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6830,16 +6859,16 @@
         <v>201</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>615</v>
+        <v>840</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>809</v>
+      <c r="E203" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6850,19 +6879,19 @@
         <v>202</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>615</v>
+        <v>840</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E204" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>377</v>
       </c>
@@ -6870,19 +6899,19 @@
         <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>377</v>
       </c>
@@ -6890,19 +6919,19 @@
         <v>204</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>377</v>
       </c>
@@ -6910,19 +6939,19 @@
         <v>205</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>377</v>
       </c>
@@ -6930,19 +6959,19 @@
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>377</v>
       </c>
@@ -6950,19 +6979,19 @@
         <v>207</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>377</v>
       </c>
@@ -6970,19 +6999,19 @@
         <v>208</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>377</v>
       </c>
@@ -6990,19 +7019,19 @@
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>377</v>
       </c>
@@ -7010,19 +7039,19 @@
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>377</v>
       </c>
@@ -7030,19 +7059,19 @@
         <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>377</v>
       </c>
@@ -7050,19 +7079,19 @@
         <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>615</v>
+        <v>851</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>377</v>
       </c>
@@ -7070,19 +7099,19 @@
         <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>615</v>
+        <v>851</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>377</v>
       </c>
@@ -7090,16 +7119,16 @@
         <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>615</v>
+        <v>851</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>813</v>
+        <v>608</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -7115,11 +7144,11 @@
       <c r="D217" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E217" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F217" t="s">
-        <v>753</v>
+      <c r="E217" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7133,13 +7162,13 @@
         <v>409</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>815</v>
+        <v>609</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7153,13 +7182,13 @@
         <v>409</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>804</v>
+        <v>610</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7173,13 +7202,13 @@
         <v>409</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>815</v>
+        <v>611</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7193,13 +7222,13 @@
         <v>409</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>804</v>
+        <v>612</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7213,13 +7242,13 @@
         <v>406</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>815</v>
+        <v>613</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7233,13 +7262,13 @@
         <v>406</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>804</v>
+        <v>614</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7253,13 +7282,13 @@
         <v>406</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>815</v>
+        <v>615</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -7273,13 +7302,13 @@
         <v>406</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>804</v>
+        <v>616</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7293,13 +7322,13 @@
         <v>407</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>819</v>
+        <v>617</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7313,13 +7342,13 @@
         <v>407</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>819</v>
+        <v>618</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7333,13 +7362,13 @@
         <v>407</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>819</v>
+        <v>622</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7353,13 +7382,13 @@
         <v>407</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>819</v>
+        <v>621</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7373,13 +7402,13 @@
         <v>407</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>819</v>
+        <v>619</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7393,13 +7422,13 @@
         <v>407</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>819</v>
+        <v>620</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7413,13 +7442,13 @@
         <v>407</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>819</v>
+        <v>623</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7433,13 +7462,13 @@
         <v>407</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>819</v>
+        <v>624</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7453,13 +7482,13 @@
         <v>407</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>819</v>
+        <v>625</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7473,13 +7502,13 @@
         <v>407</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>819</v>
+        <v>626</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7493,13 +7522,13 @@
         <v>408</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>783</v>
+        <v>627</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -7515,11 +7544,11 @@
       <c r="D237" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E237" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F237" t="s">
-        <v>753</v>
+      <c r="E237" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7533,13 +7562,13 @@
         <v>410</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7553,13 +7582,13 @@
         <v>410</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>804</v>
+        <v>813</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7573,13 +7602,13 @@
         <v>410</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>753</v>
+        <v>628</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7593,13 +7622,13 @@
         <v>410</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>804</v>
+        <v>629</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7613,13 +7642,13 @@
         <v>410</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>819</v>
+        <v>630</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7633,13 +7662,13 @@
         <v>410</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>819</v>
+        <v>631</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7653,13 +7682,13 @@
         <v>410</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>819</v>
+        <v>632</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7673,13 +7702,13 @@
         <v>410</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>819</v>
+        <v>633</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7693,13 +7722,13 @@
         <v>410</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>819</v>
+        <v>634</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7713,13 +7742,13 @@
         <v>410</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>819</v>
+        <v>635</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7733,13 +7762,13 @@
         <v>410</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>819</v>
+        <v>636</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7753,13 +7782,13 @@
         <v>410</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>819</v>
+        <v>637</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7773,13 +7802,13 @@
         <v>410</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>819</v>
+        <v>625</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7793,13 +7822,13 @@
         <v>410</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>819</v>
+        <v>638</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7813,13 +7842,13 @@
         <v>408</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>783</v>
+        <v>639</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -7835,11 +7864,11 @@
       <c r="D253" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E253" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F253" t="s">
-        <v>753</v>
+      <c r="E253" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7850,16 +7879,16 @@
         <v>252</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E254" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>798</v>
+      <c r="E254" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -7870,16 +7899,16 @@
         <v>253</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>826</v>
+      <c r="E255" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7890,16 +7919,16 @@
         <v>254</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F256" s="7" t="s">
-        <v>847</v>
+        <v>644</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7910,16 +7939,16 @@
         <v>255</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F257" s="7" t="s">
-        <v>847</v>
+        <v>645</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7930,16 +7959,16 @@
         <v>256</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F258" s="7" t="s">
-        <v>847</v>
+        <v>646</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7950,16 +7979,16 @@
         <v>257</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>847</v>
+        <v>647</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7970,16 +7999,16 @@
         <v>258</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>847</v>
+        <v>650</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7990,16 +8019,16 @@
         <v>259</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>847</v>
+        <v>648</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8010,16 +8039,16 @@
         <v>260</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F262" s="7" t="s">
-        <v>847</v>
+        <v>649</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8030,16 +8059,16 @@
         <v>261</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F263" s="7" t="s">
-        <v>847</v>
+        <v>651</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8050,7 +8079,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>466</v>
@@ -8064,16 +8093,16 @@
         <v>263</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>798</v>
+      <c r="E265" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -8089,11 +8118,11 @@
       <c r="D266" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E266" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F266" t="s">
-        <v>753</v>
+      <c r="E266" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8104,16 +8133,16 @@
         <v>265</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>806</v>
+        <v>653</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8124,16 +8153,16 @@
         <v>266</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>828</v>
+        <v>654</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8144,16 +8173,16 @@
         <v>267</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>798</v>
+        <v>655</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8164,16 +8193,16 @@
         <v>268</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>798</v>
+        <v>656</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8184,10 +8213,10 @@
         <v>269</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,11 +8232,11 @@
       <c r="D272" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E272" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F272" t="s">
-        <v>753</v>
+      <c r="E272" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8221,13 +8250,13 @@
         <v>411</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>830</v>
+        <v>658</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8241,13 +8270,13 @@
         <v>411</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>830</v>
+        <v>659</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8261,13 +8290,13 @@
         <v>411</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>830</v>
+        <v>660</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8281,13 +8310,13 @@
         <v>411</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>830</v>
+        <v>661</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8301,13 +8330,13 @@
         <v>411</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>830</v>
+        <v>662</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8321,13 +8350,13 @@
         <v>411</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>830</v>
+        <v>663</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8341,13 +8370,13 @@
         <v>411</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>830</v>
+        <v>664</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8361,13 +8390,13 @@
         <v>411</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>830</v>
+        <v>665</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8381,13 +8410,13 @@
         <v>411</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>830</v>
+        <v>666</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8401,13 +8430,13 @@
         <v>411</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>830</v>
+        <v>667</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8421,13 +8450,13 @@
         <v>411</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>830</v>
+        <v>668</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8441,13 +8470,13 @@
         <v>411</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>830</v>
+        <v>669</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8461,13 +8490,13 @@
         <v>411</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>830</v>
+        <v>670</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8481,13 +8510,13 @@
         <v>411</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>830</v>
+        <v>671</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -8503,11 +8532,11 @@
       <c r="D287" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F287" t="s">
-        <v>753</v>
+      <c r="E287" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8521,13 +8550,13 @@
         <v>412</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>795</v>
+        <v>672</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8541,7 +8570,7 @@
         <v>412</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8555,7 +8584,7 @@
         <v>412</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8569,7 +8598,7 @@
         <v>412</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8583,7 +8612,7 @@
         <v>412</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8597,13 +8626,13 @@
         <v>413</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>795</v>
+        <v>677</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8617,7 +8646,7 @@
         <v>413</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8631,7 +8660,7 @@
         <v>413</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8645,7 +8674,7 @@
         <v>413</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8659,7 +8688,7 @@
         <v>413</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -8675,11 +8704,11 @@
       <c r="D298" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E298" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F298" t="s">
-        <v>753</v>
+      <c r="E298" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F298" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -8693,13 +8722,13 @@
         <v>414</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>834</v>
+        <v>682</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8713,13 +8742,13 @@
         <v>415</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>781</v>
+        <v>683</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8733,13 +8762,13 @@
         <v>415</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>781</v>
+        <v>684</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8753,13 +8782,13 @@
         <v>415</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>781</v>
+        <v>685</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -8773,13 +8802,13 @@
         <v>415</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>781</v>
+        <v>686</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8793,13 +8822,13 @@
         <v>416</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>837</v>
+        <v>688</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -8813,13 +8842,13 @@
         <v>416</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>828</v>
+        <v>687</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8833,13 +8862,13 @@
         <v>416</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>837</v>
+        <v>689</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -8853,13 +8882,13 @@
         <v>416</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>837</v>
+        <v>690</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8873,13 +8902,13 @@
         <v>416</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>837</v>
+        <v>691</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8893,13 +8922,13 @@
         <v>416</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>837</v>
+        <v>692</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -8915,11 +8944,11 @@
       <c r="D310" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E310" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F310" t="s">
-        <v>753</v>
+      <c r="E310" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F310" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8933,13 +8962,13 @@
         <v>417</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>751</v>
+        <v>693</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8953,13 +8982,13 @@
         <v>417</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>751</v>
+        <v>694</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8973,13 +9002,13 @@
         <v>417</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>751</v>
+        <v>695</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -8993,13 +9022,13 @@
         <v>417</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>751</v>
+        <v>696</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9013,13 +9042,13 @@
         <v>417</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>751</v>
+        <v>697</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9033,13 +9062,13 @@
         <v>417</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>751</v>
+        <v>698</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9053,13 +9082,13 @@
         <v>417</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>751</v>
+        <v>699</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -9073,13 +9102,13 @@
         <v>417</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>751</v>
+        <v>700</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -9095,11 +9124,11 @@
       <c r="D319" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E319" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F319" t="s">
-        <v>753</v>
+      <c r="E319" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9110,15 +9139,15 @@
         <v>318</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F320">
+        <v>703</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F320" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9130,15 +9159,15 @@
         <v>319</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F321">
+        <v>702</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F321" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9150,15 +9179,15 @@
         <v>320</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F322">
+        <v>704</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F322" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9170,15 +9199,15 @@
         <v>321</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F323">
+        <v>705</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F323" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9190,16 +9219,16 @@
         <v>322</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E324" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>800</v>
+      <c r="E324" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9210,10 +9239,10 @@
         <v>323</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9224,7 +9253,7 @@
         <v>324</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>551</v>
@@ -9238,16 +9267,16 @@
         <v>325</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E327" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>800</v>
+      <c r="E327" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9258,10 +9287,10 @@
         <v>326</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9272,16 +9301,16 @@
         <v>327</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F329" s="3" t="s">
-        <v>751</v>
+      <c r="E329" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9292,16 +9321,16 @@
         <v>328</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E330" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>800</v>
+      <c r="E330" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9312,10 +9341,10 @@
         <v>329</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9326,16 +9355,16 @@
         <v>330</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E332" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>751</v>
+      <c r="E332" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -9351,11 +9380,11 @@
       <c r="D333" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E333" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F333" t="s">
-        <v>753</v>
+      <c r="E333" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -9366,16 +9395,16 @@
         <v>332</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="E334" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>787</v>
+      <c r="E334" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -9386,16 +9415,16 @@
         <v>333</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F335" t="s">
-        <v>795</v>
+        <v>718</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -9406,15 +9435,15 @@
         <v>334</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="E336" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="F336">
+        <v>719</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="F336" s="8">
         <v>0</v>
       </c>
     </row>
@@ -9426,16 +9455,16 @@
         <v>335</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F337" s="7" t="s">
-        <v>847</v>
+        <v>721</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9446,16 +9475,16 @@
         <v>336</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F338" s="7" t="s">
-        <v>847</v>
+        <v>722</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F338" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9466,16 +9495,16 @@
         <v>337</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E339" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F339" s="7" t="s">
-        <v>847</v>
+        <v>723</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9486,16 +9515,16 @@
         <v>338</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E340" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>795</v>
+      <c r="E340" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9506,10 +9535,10 @@
         <v>339</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9520,10 +9549,10 @@
         <v>340</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -9534,16 +9563,16 @@
         <v>341</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E343" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>798</v>
+      <c r="E343" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9554,16 +9583,16 @@
         <v>342</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E344" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F344" s="3" t="s">
-        <v>795</v>
+      <c r="E344" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9574,10 +9603,10 @@
         <v>343</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -9588,10 +9617,10 @@
         <v>344</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9602,16 +9631,16 @@
         <v>345</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E347" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>795</v>
+      <c r="E347" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9622,10 +9651,10 @@
         <v>346</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9636,10 +9665,10 @@
         <v>347</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9650,16 +9679,16 @@
         <v>348</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E350" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>795</v>
+      <c r="E350" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9670,10 +9699,10 @@
         <v>349</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9684,10 +9713,10 @@
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,11 +9732,11 @@
       <c r="D353" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E353" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F353" t="s">
-        <v>753</v>
+      <c r="E353" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9721,13 +9750,13 @@
         <v>418</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="E354" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>783</v>
+        <v>730</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9741,13 +9770,13 @@
         <v>418</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="E355" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>783</v>
+        <v>731</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9761,13 +9790,13 @@
         <v>418</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E356" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>783</v>
+        <v>732</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9781,13 +9810,13 @@
         <v>418</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="E357" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>783</v>
+        <v>733</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9803,11 +9832,11 @@
       <c r="D358" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E358" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F358" t="s">
-        <v>753</v>
+      <c r="E358" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F358" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9823,11 +9852,11 @@
       <c r="D359" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F359" t="s">
-        <v>753</v>
+      <c r="E359" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F359" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9843,11 +9872,11 @@
       <c r="D360" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E360" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F360" s="3" t="s">
-        <v>781</v>
+      <c r="E360" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9863,11 +9892,11 @@
       <c r="D361" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E361" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>781</v>
+      <c r="E361" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9883,11 +9912,11 @@
       <c r="D362" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E362" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>781</v>
+      <c r="E362" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9903,11 +9932,11 @@
       <c r="D363" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E363" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>781</v>
+      <c r="E363" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9923,11 +9952,11 @@
       <c r="D364" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E364" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>781</v>
+      <c r="E364" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9943,11 +9972,11 @@
       <c r="D365" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E365" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>781</v>
+      <c r="E365" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -9963,11 +9992,11 @@
       <c r="D366" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E366" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>781</v>
+      <c r="E366" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9983,11 +10012,11 @@
       <c r="D367" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E367" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F367" t="s">
-        <v>753</v>
+      <c r="E367" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1307" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCA1CD19-480B-4F34-AB07-10BE408BD9C0}"/>
+  <xr:revisionPtr revIDLastSave="1309" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E933354B-7E39-4C3C-935E-C06D1BC963EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="857">
   <si>
     <t>record_id</t>
   </si>
@@ -2638,6 +2638,9 @@
   </si>
   <si>
     <t>4. I agree to be part of the evaluation as detailed in the participant information sheet. (Please enter initials)</t>
+  </si>
+  <si>
+    <t>Data Access Group</t>
   </si>
 </sst>
 </file>
@@ -3012,7 +3015,7 @@
   <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3083,6 +3086,12 @@
       <c r="C4" s="3" t="s">
         <v>734</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1309" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E933354B-7E39-4C3C-935E-C06D1BC963EA}"/>
+  <xr:revisionPtr revIDLastSave="1310" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD88CFD-88D7-4BB5-AAFF-224C2291E3D9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="857">
   <si>
     <t>record_id</t>
   </si>
@@ -3015,7 +3015,7 @@
   <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3075,6 +3075,9 @@
       <c r="C3" s="3" t="s">
         <v>734</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1310" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD88CFD-88D7-4BB5-AAFF-224C2291E3D9}"/>
+  <xr:revisionPtr revIDLastSave="1311" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B1F3DEE-AFEA-4CCD-8DB7-DEF7E9EA741B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="851">
   <si>
     <t>record_id</t>
   </si>
@@ -50,15 +50,6 @@
     <t>select_project</t>
   </si>
   <si>
-    <t>grant_application_name</t>
-  </si>
-  <si>
-    <t>funding_stream</t>
-  </si>
-  <si>
-    <t>project_lead_email_address</t>
-  </si>
-  <si>
     <t>intervention_start_date</t>
   </si>
   <si>
@@ -1302,15 +1293,6 @@
   </si>
   <si>
     <t>Please select your Project Title from the list below</t>
-  </si>
-  <si>
-    <t>Grant Application Name</t>
-  </si>
-  <si>
-    <t>Funding Stream</t>
-  </si>
-  <si>
-    <t>Project Lead Email Address</t>
   </si>
   <si>
     <t>What is the intervention Start Date?</t>
@@ -3012,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F367"/>
+  <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3030,471 +3012,480 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>740</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>740</v>
+      <c r="F8" s="8" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>735</v>
+        <v>391</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>735</v>
+        <v>391</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>742</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>428</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>394</v>
+        <v>731</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>431</v>
+        <v>730</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>735</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>396</v>
+        <v>732</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>396</v>
+        <v>732</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>738</v>
+        <v>394</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>738</v>
+        <v>394</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>738</v>
+        <v>394</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>855</v>
+        <v>431</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -3503,1044 +3494,1044 @@
         <v>396</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>440</v>
+        <v>833</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>441</v>
+        <v>743</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>839</v>
+        <v>438</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>753</v>
+        <v>831</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>751</v>
+        <v>832</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>838</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>837</v>
+        <v>751</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>837</v>
+        <v>744</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>757</v>
+        <v>831</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>751</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>756</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>837</v>
+        <v>753</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>837</v>
+        <v>735</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>759</v>
@@ -4549,2963 +4540,2963 @@
         <v>760</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>766</v>
+        <v>489</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>497</v>
+        <v>764</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C89" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>742</v>
+      <c r="C91" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>744</v>
+        <v>765</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>511</v>
+        <v>427</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>744</v>
+        <v>769</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>773</v>
+        <v>735</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>774</v>
+        <v>736</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>775</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>403</v>
+        <v>520</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>403</v>
+        <v>520</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>396</v>
+        <v>520</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>433</v>
+        <v>523</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="E127" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>546</v>
+        <v>460</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B145" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>838</v>
+        <v>777</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E150" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>551</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>557</v>
-      </c>
       <c r="E154" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B156" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B157" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B158" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>781</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>554</v>
+        <v>393</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>563</v>
+        <v>427</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>772</v>
+        <v>737</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B163" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>396</v>
+        <v>562</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>433</v>
+        <v>565</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B165" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>791</v>
+        <v>831</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B166" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="E167" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B168" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B169" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B170" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>838</v>
+        <v>786</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B172" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>772</v>
+        <v>831</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B174" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B175" t="s">
         <v>173</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B176" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B177" t="s">
         <v>175</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>570</v>
+        <v>393</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>533</v>
+        <v>427</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>837</v>
+        <v>737</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B179" t="s">
         <v>177</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>570</v>
+        <v>402</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B180" t="s">
         <v>178</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>570</v>
+        <v>402</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>744</v>
+        <v>787</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B182" t="s">
         <v>180</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B183" t="s">
         <v>181</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B184" t="s">
         <v>182</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B185" t="s">
         <v>183</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B187" t="s">
         <v>185</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B188" t="s">
         <v>186</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B189" t="s">
         <v>187</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B190" t="s">
         <v>188</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>793</v>
+        <v>735</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>774</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B191" t="s">
         <v>189</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B192" t="s">
         <v>190</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>593</v>
+        <v>427</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B193" t="s">
         <v>191</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>405</v>
+        <v>590</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>741</v>
+        <v>790</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B194" t="s">
         <v>192</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>405</v>
+        <v>590</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>433</v>
+        <v>593</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>744</v>
+        <v>792</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B196" t="s">
         <v>194</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B197" t="s">
         <v>195</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>596</v>
+        <v>393</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>598</v>
+        <v>427</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B198" t="s">
         <v>196</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>596</v>
+        <v>834</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
         <v>197</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E199" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B200" t="s">
         <v>198</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>396</v>
+        <v>834</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>433</v>
+        <v>597</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>744</v>
+        <v>793</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B201" t="s">
         <v>199</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B202" t="s">
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>602</v>
+        <v>835</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>836</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B203" t="s">
         <v>201</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>603</v>
+        <v>835</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>837</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B204" t="s">
         <v>202</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>604</v>
+        <v>835</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>838</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B205" t="s">
         <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B206" t="s">
         <v>204</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="D206" s="5" t="s">
-        <v>843</v>
-      </c>
       <c r="E206" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B208" t="s">
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B209" t="s">
         <v>207</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B210" t="s">
         <v>208</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>848</v>
+        <v>599</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B211" t="s">
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B212" t="s">
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>850</v>
+        <v>845</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>601</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B213" t="s">
         <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>605</v>
+        <v>845</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B214" t="s">
         <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>851</v>
+        <v>393</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>606</v>
+        <v>427</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>851</v>
+        <v>406</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B216" t="s">
         <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>851</v>
+        <v>406</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B217" t="s">
         <v>215</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>433</v>
+        <v>605</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B218" t="s">
         <v>216</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B219" t="s">
         <v>217</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B220" t="s">
         <v>218</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B221" t="s">
         <v>219</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B222" t="s">
         <v>220</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B223" t="s">
         <v>221</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B224" t="s">
         <v>222</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B225" t="s">
         <v>223</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>616</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B226" t="s">
         <v>224</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B227" t="s">
         <v>225</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B228" t="s">
         <v>226</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B229" t="s">
         <v>227</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B230" t="s">
         <v>228</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B231" t="s">
         <v>229</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B232" t="s">
         <v>230</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B233" t="s">
         <v>231</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B234" t="s">
         <v>232</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>625</v>
+        <v>427</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>810</v>
+        <v>737</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B235" t="s">
         <v>233</v>
@@ -7514,1650 +7505,1650 @@
         <v>407</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B236" t="s">
         <v>234</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>627</v>
+        <v>807</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B237" t="s">
         <v>235</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>433</v>
+        <v>622</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B238" t="s">
         <v>236</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>812</v>
+        <v>623</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B239" t="s">
         <v>237</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>813</v>
+        <v>624</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B240" t="s">
         <v>238</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B241" t="s">
         <v>239</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B242" t="s">
         <v>240</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B243" t="s">
         <v>241</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B244" t="s">
         <v>242</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B245" t="s">
         <v>243</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B246" t="s">
         <v>244</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B247" t="s">
         <v>245</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B248" t="s">
         <v>246</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B249" t="s">
         <v>247</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B250" t="s">
         <v>248</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>625</v>
+        <v>427</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B251" t="s">
         <v>249</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>410</v>
+        <v>635</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>638</v>
+        <v>545</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>809</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B252" t="s">
         <v>250</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>408</v>
+        <v>636</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>639</v>
+        <v>545</v>
       </c>
       <c r="E252" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F252" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="F252" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B253" t="s">
         <v>251</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>396</v>
+        <v>637</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>433</v>
+        <v>638</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B254" t="s">
         <v>252</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>551</v>
+        <v>639</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B255" t="s">
         <v>253</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>551</v>
+        <v>640</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>817</v>
+        <v>831</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B256" t="s">
         <v>254</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B257" t="s">
         <v>255</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B258" t="s">
         <v>256</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B259" t="s">
         <v>257</v>
       </c>
       <c r="C259" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D259" s="3" t="s">
-        <v>647</v>
-      </c>
       <c r="E259" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B260" t="s">
         <v>258</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B261" t="s">
         <v>259</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F261" s="8" t="s">
-        <v>838</v>
+        <v>460</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B262" t="s">
         <v>260</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>649</v>
+        <v>545</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F262" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B263" t="s">
         <v>261</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>643</v>
+        <v>393</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>651</v>
+        <v>427</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>837</v>
+        <v>737</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B264" t="s">
         <v>262</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B265" t="s">
         <v>263</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>551</v>
+        <v>648</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B266" t="s">
         <v>264</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>396</v>
+        <v>634</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>433</v>
+        <v>649</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F266" s="8" t="s">
-        <v>744</v>
+        <v>809</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B267" t="s">
         <v>265</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B268" t="s">
         <v>266</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B269" t="s">
         <v>267</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>640</v>
+        <v>393</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>655</v>
+        <v>427</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>789</v>
+        <v>737</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B270" t="s">
         <v>268</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>640</v>
+        <v>408</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E270" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F270" s="5" t="s">
         <v>815</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B271" t="s">
         <v>269</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>640</v>
+        <v>408</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B272" t="s">
         <v>270</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>433</v>
+        <v>654</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F272" s="8" t="s">
-        <v>744</v>
+        <v>814</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B273" t="s">
         <v>271</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B274" t="s">
         <v>272</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B275" t="s">
         <v>273</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
         <v>274</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B277" t="s">
         <v>275</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B278" t="s">
         <v>276</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B279" t="s">
         <v>277</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B280" t="s">
         <v>278</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B281" t="s">
         <v>279</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B282" t="s">
         <v>280</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B283" t="s">
         <v>281</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B284" t="s">
         <v>282</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>669</v>
+        <v>427</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F284" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B285" t="s">
         <v>283</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B286" t="s">
         <v>284</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="F286" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B287" t="s">
         <v>285</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F287" s="8" t="s">
-        <v>744</v>
+        <v>668</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B288" t="s">
         <v>286</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="F288" s="5" t="s">
-        <v>786</v>
+        <v>669</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B289" t="s">
         <v>287</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B290" t="s">
         <v>288</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B291" t="s">
         <v>289</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B292" t="s">
         <v>290</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B293" t="s">
         <v>291</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="F293" s="5" t="s">
-        <v>786</v>
+        <v>675</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B294" t="s">
         <v>292</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B295" t="s">
         <v>293</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B296" t="s">
         <v>294</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B297" t="s">
         <v>295</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B298" t="s">
         <v>296</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>433</v>
+        <v>678</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F298" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B299" t="s">
         <v>297</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>825</v>
+        <v>766</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B300" t="s">
         <v>298</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B301" t="s">
         <v>299</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B302" t="s">
         <v>300</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B303" t="s">
         <v>301</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B304" t="s">
         <v>302</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B305" t="s">
         <v>303</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B306" t="s">
         <v>304</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B307" t="s">
         <v>305</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>690</v>
+        <v>427</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="F307" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B308" t="s">
         <v>306</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>827</v>
+        <v>735</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B309" t="s">
         <v>307</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>827</v>
+        <v>735</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B310" t="s">
         <v>308</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>433</v>
+        <v>689</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F310" s="8" t="s">
-        <v>744</v>
+        <v>735</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B311" t="s">
         <v>309</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B312" t="s">
         <v>310</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B313" t="s">
         <v>311</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B314" t="s">
         <v>312</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B315" t="s">
         <v>313</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B316" t="s">
         <v>314</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>698</v>
+        <v>427</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F316" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F316" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B317" t="s">
         <v>315</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>417</v>
+        <v>695</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F317" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="F317" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B318" t="s">
         <v>316</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>417</v>
+        <v>695</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F318" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="F318" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B319" t="s">
         <v>317</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>396</v>
+        <v>695</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>433</v>
+        <v>698</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F319" s="8" t="s">
-        <v>744</v>
+        <v>776</v>
+      </c>
+      <c r="F319" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B320" t="s">
         <v>318</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F320" s="8">
         <v>1</v>
@@ -9165,27 +9156,27 @@
     </row>
     <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B321" t="s">
         <v>319</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>702</v>
+        <v>545</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="F321" s="8">
-        <v>1</v>
+        <v>785</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B322" t="s">
         <v>320</v>
@@ -9194,841 +9185,781 @@
         <v>701</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="F322" s="8">
-        <v>1</v>
+        <v>702</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B323" t="s">
         <v>321</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E323" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="F323" s="8">
-        <v>1</v>
+        <v>545</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B324" t="s">
         <v>322</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B325" t="s">
         <v>323</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B326" t="s">
         <v>324</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B327" t="s">
         <v>325</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B328" t="s">
         <v>326</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B329" t="s">
         <v>327</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B330" t="s">
         <v>328</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>713</v>
+        <v>393</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>551</v>
+        <v>427</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="F330" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B331" t="s">
         <v>329</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C331" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B332" t="s">
         <v>330</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>551</v>
+      <c r="C332" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F332" s="5" t="s">
-        <v>742</v>
+        <v>825</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B333" t="s">
         <v>331</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>433</v>
+      <c r="C333" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F333" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="F333" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B334" t="s">
         <v>332</v>
       </c>
-      <c r="C334" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="D334" s="4" t="s">
-        <v>551</v>
+      <c r="C334" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="F334" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B335" t="s">
         <v>333</v>
       </c>
-      <c r="C335" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="D335" s="4" t="s">
-        <v>718</v>
+      <c r="C335" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>831</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B336" t="s">
         <v>334</v>
       </c>
-      <c r="C336" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>719</v>
+      <c r="C336" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>717</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="F336" s="8">
-        <v>0</v>
+        <v>831</v>
+      </c>
+      <c r="F336" s="8" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B337" t="s">
         <v>335</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>721</v>
+        <v>545</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F337" s="8" t="s">
-        <v>838</v>
+        <v>826</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B338" t="s">
         <v>336</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F338" s="8" t="s">
-        <v>838</v>
+        <v>719</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B339" t="s">
         <v>337</v>
       </c>
       <c r="C339" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D339" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="E339" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F339" s="8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B340" t="s">
         <v>338</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B341" t="s">
         <v>339</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>724</v>
+      <c r="C341" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B342" t="s">
         <v>340</v>
       </c>
-      <c r="C342" s="3" t="s">
-        <v>724</v>
+      <c r="C342" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B343" t="s">
         <v>341</v>
       </c>
-      <c r="C343" s="3" t="s">
-        <v>727</v>
+      <c r="C343" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E343" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="F343" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B344" t="s">
         <v>342</v>
       </c>
-      <c r="C344" s="4" t="s">
-        <v>834</v>
+      <c r="C344" s="3" t="s">
+        <v>722</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B345" t="s">
         <v>343</v>
       </c>
-      <c r="C345" s="4" t="s">
-        <v>834</v>
+      <c r="C345" s="3" t="s">
+        <v>722</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B346" t="s">
         <v>344</v>
       </c>
-      <c r="C346" s="4" t="s">
-        <v>834</v>
+      <c r="C346" s="3" t="s">
+        <v>722</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B347" t="s">
         <v>345</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B348" t="s">
         <v>346</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B349" t="s">
         <v>347</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B350" t="s">
         <v>348</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>729</v>
+        <v>393</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>551</v>
+        <v>427</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="F350" s="5" t="s">
-        <v>786</v>
+        <v>737</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B351" t="s">
         <v>349</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>729</v>
+        <v>415</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B352" t="s">
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>729</v>
+        <v>415</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B353" t="s">
         <v>351</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>433</v>
+        <v>726</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F353" s="8" t="s">
-        <v>744</v>
+        <v>829</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B354" t="s">
         <v>352</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B355" t="s">
         <v>353</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>731</v>
+        <v>427</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="F355" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F355" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B356" t="s">
         <v>354</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>732</v>
+        <v>427</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="F356" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F356" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B357" t="s">
         <v>355</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>733</v>
+        <v>494</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>835</v>
+        <v>765</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B358" t="s">
         <v>356</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F358" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B359" t="s">
         <v>357</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F359" s="8" t="s">
-        <v>744</v>
+        <v>765</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B360" t="s">
         <v>358</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B361" t="s">
         <v>359</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B362" t="s">
         <v>360</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>502</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B363" t="s">
         <v>361</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B364" t="s">
         <v>362</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="F364" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>393</v>
-      </c>
-      <c r="B365" t="s">
-        <v>363</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E365" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="F365" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>393</v>
-      </c>
-      <c r="B366" t="s">
-        <v>364</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>393</v>
-      </c>
-      <c r="B367" t="s">
-        <v>365</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F367" s="8" t="s">
-        <v>744</v>
+        <v>737</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1311" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B1F3DEE-AFEA-4CCD-8DB7-DEF7E9EA741B}"/>
+  <xr:revisionPtr revIDLastSave="1325" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{170A3A6F-25AF-4A1F-B619-F190639154B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="850">
   <si>
     <t>record_id</t>
   </si>
@@ -297,18 +297,6 @@
   </si>
   <si>
     <t>postcode_not_provided</t>
-  </si>
-  <si>
-    <t>imd</t>
-  </si>
-  <si>
-    <t>imd_ward</t>
-  </si>
-  <si>
-    <t>imd_decile_calc</t>
-  </si>
-  <si>
-    <t>imd_ward_calc</t>
   </si>
   <si>
     <t>demographics_complete</t>
@@ -1638,9 +1626,6 @@
     <t>Screening</t>
   </si>
   <si>
-    <t>Immunisations aVaccinations</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
@@ -1761,9 +1746,6 @@
     <t>Exercising regularly</t>
   </si>
   <si>
-    <t>Being overweight orobese</t>
-  </si>
-  <si>
     <t>Stress</t>
   </si>
   <si>
@@ -1839,9 +1821,6 @@
     <t>2. Healthy Start is a national scheme that supports pregnant women and their families to eat a healthy diet and get the vitamins they need for healthy development. All pregnant women, breastfeeding mothers and children under 4 years are eligible for Healthy Start vitamins, regardless of income. However, there are eligiblilty requirements for the Healthy Start pre-paid card which can be used to buy milk, fruit, vegetables and pulses. Are you eligible for Healthy Start Card?</t>
   </si>
   <si>
-    <t>3. If you are eligible, have you registered and received yourprepayment card?</t>
-  </si>
-  <si>
     <t>4. If you have not registered, why?</t>
   </si>
   <si>
@@ -2088,9 +2067,6 @@
     <t>Weight - Kilograms</t>
   </si>
   <si>
-    <t>1) What is the minimum number of fruit and vegetableportions you should eat every day for good health?</t>
-  </si>
-  <si>
     <t>2) On a scale of 1-5, how confident are you that you can buy healthy foods on a budget?</t>
   </si>
   <si>
@@ -2119,9 +2095,6 @@
   </si>
   <si>
     <t>11) How often do you choose wholemeal/wholegrain varieties of carbohydrates (e.g. wholewheat pasta, brown rice, wholegrain bread)?</t>
-  </si>
-  <si>
-    <t>1. You were worried you would not have enough food toeat?</t>
   </si>
   <si>
     <t>2. You were unable to eat healthy and nutritious food?</t>
@@ -2400,9 +2373,6 @@
     <t>Strongly disagree; Disagree; Neither agree nor disagree; Agree; Strongly agree</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>NHS/healthcare provider; Local Authority; Voluntary sector organisation; Education - Schools; Education - Universities/Further Education; Early Years Education; Other</t>
   </si>
   <si>
@@ -2623,6 +2593,33 @@
   </si>
   <si>
     <t>Data Access Group</t>
+  </si>
+  <si>
+    <t>Immunisations and Vaccinations</t>
+  </si>
+  <si>
+    <t>Being overweight or obese</t>
+  </si>
+  <si>
+    <t>3. If you are eligible, have you registered and received your prepayment card?</t>
+  </si>
+  <si>
+    <t>1) What is the minimum number of fruit and vegetablevportions you should eat every day for good health?</t>
+  </si>
+  <si>
+    <t>1. You were worried you would not have enough food to eat?</t>
+  </si>
+  <si>
+    <t>Yes;</t>
+  </si>
+  <si>
+    <t>1;</t>
+  </si>
+  <si>
+    <t>Never smoked;</t>
+  </si>
+  <si>
+    <t>0;</t>
   </si>
 </sst>
 </file>
@@ -2994,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3012,5397 +3009,5433 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="360" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="E87" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E92" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>738</v>
+        <v>756</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>494</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>495</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>496</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>497</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>498</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>499</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>500</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>501</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>502</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>503</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>738</v>
+        <v>726</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>508</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>509</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>510</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>511</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>512</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>513</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>514</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>515</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>516</v>
+        <v>423</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>517</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>518</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>519</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>738</v>
+        <v>822</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>521</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>522</v>
+        <v>841</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>527</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>531</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>832</v>
+        <v>767</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B145" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>545</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E147" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="E148" s="5" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="E149" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B156" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>548</v>
+        <v>389</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>556</v>
+        <v>423</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>766</v>
+        <v>728</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B157" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B158" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E158" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B160" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>393</v>
+        <v>557</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>738</v>
+        <v>822</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>545</v>
+        <v>842</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>785</v>
+        <v>821</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B163" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="E163" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B165" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B166" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>832</v>
+        <v>776</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B168" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B169" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B170" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>766</v>
+        <v>821</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B172" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B174" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>564</v>
+        <v>389</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>574</v>
+        <v>423</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>831</v>
+        <v>728</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B175" t="s">
         <v>173</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>564</v>
+        <v>398</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B176" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>564</v>
+        <v>398</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B177" t="s">
         <v>175</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>564</v>
+        <v>398</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>427</v>
+        <v>574</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>738</v>
+        <v>777</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B179" t="s">
         <v>177</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B180" t="s">
         <v>178</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B182" t="s">
         <v>180</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B183" t="s">
         <v>181</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B184" t="s">
         <v>182</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B185" t="s">
         <v>183</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>787</v>
+        <v>726</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
         <v>185</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B188" t="s">
         <v>186</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>586</v>
+        <v>423</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B189" t="s">
         <v>187</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B190" t="s">
         <v>188</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B191" t="s">
         <v>189</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>589</v>
+        <v>843</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B192" t="s">
         <v>190</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>393</v>
+        <v>584</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B193" t="s">
         <v>191</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>590</v>
+        <v>389</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>591</v>
+        <v>423</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B194" t="s">
         <v>192</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>590</v>
+        <v>824</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>590</v>
+        <v>824</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B196" t="s">
         <v>194</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E196" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B197" t="s">
         <v>195</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>393</v>
+        <v>824</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>427</v>
+        <v>591</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B198" t="s">
         <v>196</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>595</v>
+        <v>825</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>826</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B199" t="s">
         <v>197</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>596</v>
+        <v>825</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B200" t="s">
         <v>198</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>597</v>
+        <v>825</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>828</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B201" t="s">
         <v>199</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>598</v>
+        <v>825</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>829</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B202" t="s">
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
         <v>201</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B204" t="s">
         <v>202</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B205" t="s">
         <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B206" t="s">
         <v>204</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>841</v>
+        <v>592</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>842</v>
+        <v>835</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B208" t="s">
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>843</v>
+        <v>835</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B209" t="s">
         <v>207</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B210" t="s">
         <v>208</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>599</v>
+        <v>389</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B211" t="s">
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>845</v>
+        <v>402</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B212" t="s">
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>845</v>
+        <v>402</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B213" t="s">
         <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>845</v>
+        <v>402</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B214" t="s">
         <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>427</v>
+        <v>599</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F214" s="8" t="s">
-        <v>738</v>
+        <v>791</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B216" t="s">
         <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B217" t="s">
         <v>215</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B218" t="s">
         <v>216</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B219" t="s">
         <v>217</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B220" t="s">
         <v>218</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B221" t="s">
         <v>219</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>609</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B222" t="s">
         <v>220</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B223" t="s">
         <v>221</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B224" t="s">
         <v>222</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B225" t="s">
         <v>223</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B226" t="s">
         <v>224</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B227" t="s">
         <v>225</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B228" t="s">
         <v>226</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B229" t="s">
         <v>227</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B230" t="s">
         <v>228</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>618</v>
+        <v>423</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>804</v>
+        <v>728</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B231" t="s">
         <v>229</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>619</v>
+        <v>796</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B232" t="s">
         <v>230</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>620</v>
+        <v>797</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B233" t="s">
         <v>231</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B234" t="s">
         <v>232</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>427</v>
+        <v>616</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>738</v>
+        <v>791</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B235" t="s">
         <v>233</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>806</v>
+        <v>617</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B236" t="s">
         <v>234</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>807</v>
+        <v>618</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B237" t="s">
         <v>235</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B238" t="s">
         <v>236</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B239" t="s">
         <v>237</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B240" t="s">
         <v>238</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B241" t="s">
         <v>239</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B242" t="s">
         <v>240</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B243" t="s">
         <v>241</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B244" t="s">
         <v>242</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B245" t="s">
         <v>243</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B246" t="s">
         <v>244</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>631</v>
+        <v>423</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B247" t="s">
         <v>245</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>407</v>
+        <v>628</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>619</v>
+        <v>540</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B248" t="s">
         <v>246</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>407</v>
+        <v>629</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>632</v>
+        <v>540</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B249" t="s">
         <v>247</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>405</v>
+        <v>630</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B250" t="s">
         <v>248</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>393</v>
+        <v>630</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>427</v>
+        <v>632</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>738</v>
+        <v>822</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B251" t="s">
         <v>249</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>545</v>
+        <v>633</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B252" t="s">
         <v>250</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>545</v>
+        <v>634</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>811</v>
+        <v>821</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B253" t="s">
         <v>251</v>
       </c>
       <c r="C253" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="E253" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B254" t="s">
         <v>252</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B255" t="s">
         <v>253</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B256" t="s">
         <v>254</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B257" t="s">
         <v>255</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F257" s="8" t="s">
-        <v>832</v>
+        <v>456</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B258" t="s">
         <v>256</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>642</v>
+        <v>540</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F258" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B259" t="s">
         <v>257</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>637</v>
+        <v>389</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>643</v>
+        <v>423</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>831</v>
+        <v>728</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B260" t="s">
         <v>258</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B261" t="s">
         <v>259</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B262" t="s">
         <v>260</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>545</v>
+        <v>642</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B263" t="s">
         <v>261</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>393</v>
+        <v>627</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>427</v>
+        <v>643</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F263" s="8" t="s">
-        <v>738</v>
+        <v>799</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B264" t="s">
         <v>262</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B265" t="s">
         <v>263</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>634</v>
+        <v>389</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>648</v>
+        <v>423</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>813</v>
+        <v>728</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B266" t="s">
         <v>264</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B267" t="s">
         <v>265</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B268" t="s">
         <v>266</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B269" t="s">
         <v>267</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>427</v>
+        <v>648</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>738</v>
+        <v>804</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B270" t="s">
         <v>268</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B271" t="s">
         <v>269</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B272" t="s">
         <v>270</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B273" t="s">
         <v>271</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B274" t="s">
         <v>272</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B275" t="s">
         <v>273</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B276" t="s">
         <v>274</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B277" t="s">
         <v>275</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B278" t="s">
         <v>276</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B279" t="s">
         <v>277</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B280" t="s">
         <v>278</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>662</v>
+        <v>423</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F280" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>379</v>
       </c>
@@ -8410,19 +8443,19 @@
         <v>279</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>379</v>
       </c>
@@ -8430,19 +8463,13 @@
         <v>280</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>379</v>
       </c>
@@ -8450,19 +8477,13 @@
         <v>281</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>379</v>
       </c>
@@ -8470,673 +8491,679 @@
         <v>282</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F284" s="8" t="s">
-        <v>738</v>
+        <v>662</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B285" t="s">
         <v>283</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>780</v>
+        <v>663</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B286" t="s">
         <v>284</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B287" t="s">
         <v>285</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B288" t="s">
         <v>286</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B289" t="s">
         <v>287</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B290" t="s">
         <v>288</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="F290" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B291" t="s">
         <v>289</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B292" t="s">
         <v>290</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B293" t="s">
         <v>291</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B294" t="s">
         <v>292</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B295" t="s">
         <v>293</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>427</v>
+        <v>671</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F295" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B296" t="s">
         <v>294</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B297" t="s">
         <v>295</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B298" t="s">
         <v>296</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B299" t="s">
         <v>297</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B300" t="s">
         <v>298</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>766</v>
+        <v>812</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B301" t="s">
         <v>299</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B302" t="s">
         <v>300</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B303" t="s">
         <v>301</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>683</v>
+        <v>423</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="F303" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F303" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B304" t="s">
         <v>302</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>684</v>
+        <v>845</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>821</v>
+        <v>726</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B305" t="s">
         <v>303</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>821</v>
+        <v>726</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B306" t="s">
         <v>304</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>821</v>
+        <v>726</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B307" t="s">
         <v>305</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>427</v>
+        <v>681</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F307" s="8" t="s">
-        <v>738</v>
+        <v>726</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B308" t="s">
         <v>306</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B309" t="s">
         <v>307</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B310" t="s">
         <v>308</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B311" t="s">
         <v>309</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B312" t="s">
         <v>310</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>691</v>
+        <v>423</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F312" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F312" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B313" t="s">
         <v>311</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>414</v>
+        <v>686</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F313" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B314" t="s">
         <v>312</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>414</v>
+        <v>686</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F314" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="F314" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B315" t="s">
         <v>313</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>414</v>
+        <v>686</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F315" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B316" t="s">
         <v>314</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>393</v>
+        <v>686</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>427</v>
+        <v>690</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>737</v>
+        <v>846</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>738</v>
+        <v>847</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B317" t="s">
         <v>315</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>697</v>
+        <v>540</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="F317" s="8">
-        <v>1</v>
+        <v>775</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B318" t="s">
         <v>316</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="F318" s="8">
-        <v>1</v>
+        <v>693</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B319" t="s">
         <v>317</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>698</v>
+        <v>540</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="F319" s="8">
-        <v>1</v>
+        <v>726</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B320" t="s">
         <v>318</v>
@@ -9145,821 +9172,753 @@
         <v>695</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>699</v>
+        <v>540</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="F320" s="8">
-        <v>1</v>
+        <v>775</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B321" t="s">
         <v>319</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="F321" s="5" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B322" t="s">
         <v>320</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B323" t="s">
         <v>321</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B324" t="s">
         <v>322</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E324" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="F324" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B325" t="s">
         <v>323</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B326" t="s">
         <v>324</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>706</v>
+        <v>389</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F326" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F326" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B327" t="s">
         <v>325</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>545</v>
+      <c r="C327" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B328" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D328" s="3" t="s">
+      <c r="C328" s="4" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D328" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B329" t="s">
         <v>327</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>545</v>
+      <c r="C329" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F329" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B330" t="s">
         <v>328</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>393</v>
+        <v>705</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>427</v>
+        <v>706</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B331" t="s">
         <v>329</v>
       </c>
-      <c r="C331" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D331" s="4" t="s">
-        <v>545</v>
+      <c r="C331" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="F331" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B332" t="s">
         <v>330</v>
       </c>
-      <c r="C332" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D332" s="4" t="s">
-        <v>712</v>
+      <c r="C332" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B333" t="s">
         <v>331</v>
       </c>
-      <c r="C333" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D333" s="4" t="s">
-        <v>713</v>
+      <c r="C333" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="F333" s="8">
-        <v>0</v>
+        <v>816</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B334" t="s">
         <v>332</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="E334" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F334" s="8" t="s">
-        <v>832</v>
+        <v>710</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B335" t="s">
         <v>333</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F335" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B336" t="s">
         <v>334</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>717</v>
+        <v>540</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F336" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B337" t="s">
         <v>335</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>718</v>
+      <c r="C337" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B338" t="s">
         <v>336</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>718</v>
+      <c r="C338" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B339" t="s">
         <v>337</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>718</v>
+      <c r="C339" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B340" t="s">
         <v>338</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B341" t="s">
         <v>339</v>
       </c>
-      <c r="C341" s="4" t="s">
-        <v>828</v>
+      <c r="C341" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E341" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F341" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B342" t="s">
         <v>340</v>
       </c>
-      <c r="C342" s="4" t="s">
-        <v>828</v>
+      <c r="C342" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B343" t="s">
         <v>341</v>
       </c>
-      <c r="C343" s="4" t="s">
-        <v>828</v>
+      <c r="C343" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>720</v>
+        <v>540</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B344" t="s">
         <v>342</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E344" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F344" s="5" t="s">
-        <v>780</v>
+        <v>710</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B345" t="s">
         <v>343</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B346" t="s">
         <v>344</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>720</v>
+        <v>423</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B347" t="s">
         <v>345</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>723</v>
+        <v>411</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>545</v>
+        <v>715</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B348" t="s">
         <v>346</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>723</v>
+        <v>411</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B349" t="s">
         <v>347</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>723</v>
+        <v>411</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B350" t="s">
         <v>348</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>427</v>
+        <v>718</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F350" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B351" t="s">
         <v>349</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>724</v>
+        <v>423</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="F351" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B352" t="s">
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>725</v>
+        <v>423</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="F352" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="F352" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B353" t="s">
         <v>351</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>726</v>
+        <v>490</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>829</v>
+        <v>756</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B354" t="s">
         <v>352</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>727</v>
+        <v>491</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>829</v>
+        <v>756</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B355" t="s">
         <v>353</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F355" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B356" t="s">
         <v>354</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F356" s="8" t="s">
-        <v>738</v>
+        <v>756</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B357" t="s">
         <v>355</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B358" t="s">
         <v>356</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B359" t="s">
         <v>357</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B360" t="s">
         <v>358</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="F360" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>390</v>
-      </c>
-      <c r="B361" t="s">
-        <v>359</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="F361" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>390</v>
-      </c>
-      <c r="B362" t="s">
-        <v>360</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="F362" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>390</v>
-      </c>
-      <c r="B363" t="s">
-        <v>361</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="F363" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>390</v>
-      </c>
-      <c r="B364" t="s">
-        <v>362</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F364" s="8" t="s">
-        <v>738</v>
+        <v>728</v>
+      </c>
+      <c r="F360" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1325" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{170A3A6F-25AF-4A1F-B619-F190639154B9}"/>
+  <xr:revisionPtr revIDLastSave="1328" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B97454D-AEB4-4096-80F5-6714C8D5D1C5}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2610,16 +2610,16 @@
     <t>1. You were worried you would not have enough food to eat?</t>
   </si>
   <si>
-    <t>Yes;</t>
-  </si>
-  <si>
-    <t>1;</t>
-  </si>
-  <si>
     <t>Never smoked;</t>
   </si>
   <si>
     <t>0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1; </t>
   </si>
 </sst>
 </file>
@@ -2993,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C334" sqref="C334"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9041,10 +9041,10 @@
         <v>688</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9061,10 +9061,10 @@
         <v>687</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9081,10 +9081,10 @@
         <v>689</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9101,10 +9101,10 @@
         <v>690</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9343,10 +9343,10 @@
         <v>704</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1328" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B97454D-AEB4-4096-80F5-6714C8D5D1C5}"/>
+  <xr:revisionPtr revIDLastSave="1424" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41641825-71D7-466B-AC44-47290B1BCC51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="937">
   <si>
     <t>record_id</t>
   </si>
@@ -2620,6 +2620,267 @@
   </si>
   <si>
     <t xml:space="preserve">1; </t>
+  </si>
+  <si>
+    <t>death_literacy_index</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q1</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q2</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q3</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q4</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q5</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q6</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q7</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q8</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q9</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q10</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q11</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q12</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q13</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q14</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q15</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q16</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q17</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q18</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q19</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q20</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q21</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q22</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q23</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q24</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q25</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q26</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q27</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q28</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q29</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q30</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q31</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q32</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q33</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q34</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q35</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q36</t>
+  </si>
+  <si>
+    <t>death_literacy_index_q37</t>
+  </si>
+  <si>
+    <t>death_literacy_index_complete</t>
+  </si>
+  <si>
+    <t>Some groups of people report a poorer experience of palliative, end of life care and bereavement support than others therefore we are asking for demographic information to look at any patterns in Birmingham.</t>
+  </si>
+  <si>
+    <t>TOPIC: Support groups in my community I am aware of support in my community for…</t>
+  </si>
+  <si>
+    <t>Is there anything you would like to tell us about your experiences in Birmingham that is relevant to this survey?</t>
+  </si>
+  <si>
+    <t>COMMUNITY KNOWLEDGE TOPIC: Others can help me provide end of life care Please rate your level of agreement with the following statements - If I were toprovide end of life care for someone, I know people who could help me:</t>
+  </si>
+  <si>
+    <t>WHAT YOU KNOW TOPIC: Knowledge of what to do around end-of-life care</t>
+  </si>
+  <si>
+    <t>YOUR EXPERIENCES TOPIC - Grief and loss Please rate your level of agreement with the following statements. Indicate your response on a scale where 1 = do not agree at all to 5 = strongly agree My previous experience of grief, loss or other significant life events has:</t>
+  </si>
+  <si>
+    <t>TOPIC - Providing hands on care Would you be able to do the following</t>
+  </si>
+  <si>
+    <t>Death Literacy Index *The Death Literacy Questionnaire* was developed in order to help understand a communities' strengths on issues relating to death, dying and loss. It also highlights opportunities for additional community skills enhancement. Responses to the survey are anonymous and no sensitive data is required or stored. This version has been adapted by Compassionate Birmingham to meet Plain English written standards. The meaning of the questions remain as per the original. If there is a question that you do not know the answer to, answer as best as you can based on what you think you would know/do in that situation. *Leonard, R., Noonan, K., Horsfall, D., Psychogios, H., Kelly, M., Rosenberg, J., Rumbold, B., Grindrod, A., Read, N., and Rahn, A. (2020). Death Literacy Index: A Report on its Development and Implementation. Sydney: Western Sydney University. https://doi.org/10.26183/5eb8d3adb20b0 PRACTICAL KNOWLEDGE TOPIC -Conversations about dying, death and grief Please rate your level of confidence with the following statements. Indicate your response on a scale where 1 = not at all able to5 = very able</t>
+  </si>
+  <si>
+    <t>1. Talking about death, dying and grief to a close friend</t>
+  </si>
+  <si>
+    <t>2. Talking about death, dying and grief to a child</t>
+  </si>
+  <si>
+    <t>3. Talking to a grieving person about their loss</t>
+  </si>
+  <si>
+    <t>4. Talking to a GP about getting support for a dying person</t>
+  </si>
+  <si>
+    <t>5. Feed or help a person to eat</t>
+  </si>
+  <si>
+    <t>6. Bath a person</t>
+  </si>
+  <si>
+    <t>7. Lift a person or help them move</t>
+  </si>
+  <si>
+    <t>8. Give injections</t>
+  </si>
+  <si>
+    <t>10. Made me think about what is important and not important in life</t>
+  </si>
+  <si>
+    <t>11. Developed my wisdom and understanding</t>
+  </si>
+  <si>
+    <t>12. Made me kinder and more compassionate toward myself</t>
+  </si>
+  <si>
+    <t>13. Made me better prepared to face similar challenges in the future</t>
+  </si>
+  <si>
+    <t>14. I know the rules and regulations for when a person dies at home</t>
+  </si>
+  <si>
+    <t>15. I know what documents are needed when planning forsomeone's death</t>
+  </si>
+  <si>
+    <t>16. I know enough about the healthcare system to find the support that a dying person needs</t>
+  </si>
+  <si>
+    <t>17. I know enough to make decisions about different types of funeral arrangements</t>
+  </si>
+  <si>
+    <t>9. Made me more emotionally prepared to support others with death, dying and bereavement</t>
+  </si>
+  <si>
+    <t>18. I know how to access palliative care in my area [palliative care is where a team of healthcare professionals support someone who is seriously ill in their physical, psychological, social and spiritual health]</t>
+  </si>
+  <si>
+    <t>19. I know enough about how different illnesses progress to make choices about medical treatments towards the end of life</t>
+  </si>
+  <si>
+    <t>20. I know how funeral directors can help</t>
+  </si>
+  <si>
+    <t>21. to get support in the area where I live, e.g. from clubs, support groups, associations, or volunteer organisations</t>
+  </si>
+  <si>
+    <t>22. to get help with providing day-to-day care for a person at the end of life</t>
+  </si>
+  <si>
+    <t>23. to get equipment that is needed to help care for someone</t>
+  </si>
+  <si>
+    <t>24. to get support that is culturally appropriate for a person</t>
+  </si>
+  <si>
+    <t>25. to get emotional support for myself</t>
+  </si>
+  <si>
+    <t>26. people with life threatening illnesses</t>
+  </si>
+  <si>
+    <t>27. people who are nearing the end of their life</t>
+  </si>
+  <si>
+    <t>28. people who are caring for a dying person</t>
+  </si>
+  <si>
+    <t>29. people who are grieving</t>
+  </si>
+  <si>
+    <t>30. What are the first 3 letters/numbers of your postcode</t>
+  </si>
+  <si>
+    <t>31. How old are you?</t>
+  </si>
+  <si>
+    <t>32. How would you describe your ethnicity?</t>
+  </si>
+  <si>
+    <t>33. How would you define your gender?</t>
+  </si>
+  <si>
+    <t>34. How would you describe your sexuality?</t>
+  </si>
+  <si>
+    <t>35. Do you work in a health or care role?</t>
+  </si>
+  <si>
+    <t>36. Have you ever cared for someone who was dying?</t>
+  </si>
+  <si>
+    <t>37. Is there anything you would like to tell us about your experiences in Birmingham that is relevant to this survey?</t>
+  </si>
+  <si>
+    <t>1 - Not able; 2, 3, 4, 5 - Very able</t>
+  </si>
+  <si>
+    <t>1 - do not agree at all; 2; 3; 4; 5 - strongly agree</t>
+  </si>
+  <si>
+    <t>Under 18; 18-24; 25-34; 35-44; 45-54; 55-64; 65+</t>
   </si>
 </sst>
 </file>
@@ -2991,15 +3252,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="D391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E398" sqref="E398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" style="3" customWidth="1"/>
@@ -9921,6 +10182,736 @@
         <v>729</v>
       </c>
     </row>
+    <row r="361" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>850</v>
+      </c>
+      <c r="B361" t="s">
+        <v>851</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>850</v>
+      </c>
+      <c r="B362" t="s">
+        <v>852</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F362" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>850</v>
+      </c>
+      <c r="B363" t="s">
+        <v>853</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>850</v>
+      </c>
+      <c r="B364" t="s">
+        <v>854</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>850</v>
+      </c>
+      <c r="B365" t="s">
+        <v>855</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>850</v>
+      </c>
+      <c r="B366" t="s">
+        <v>856</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F366" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>850</v>
+      </c>
+      <c r="B367" t="s">
+        <v>857</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>850</v>
+      </c>
+      <c r="B368" t="s">
+        <v>858</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F368" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>850</v>
+      </c>
+      <c r="B369" t="s">
+        <v>859</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>850</v>
+      </c>
+      <c r="B370" t="s">
+        <v>860</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F370" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>850</v>
+      </c>
+      <c r="B371" t="s">
+        <v>861</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>850</v>
+      </c>
+      <c r="B372" t="s">
+        <v>862</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F372" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>850</v>
+      </c>
+      <c r="B373" t="s">
+        <v>863</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>850</v>
+      </c>
+      <c r="B374" t="s">
+        <v>864</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F374" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>850</v>
+      </c>
+      <c r="B375" t="s">
+        <v>865</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>850</v>
+      </c>
+      <c r="B376" t="s">
+        <v>866</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F376" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>850</v>
+      </c>
+      <c r="B377" t="s">
+        <v>867</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>850</v>
+      </c>
+      <c r="B378" t="s">
+        <v>868</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F378" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>850</v>
+      </c>
+      <c r="B379" t="s">
+        <v>869</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>850</v>
+      </c>
+      <c r="B380" t="s">
+        <v>870</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F380" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>850</v>
+      </c>
+      <c r="B381" t="s">
+        <v>871</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>850</v>
+      </c>
+      <c r="B382" t="s">
+        <v>872</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F382" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>850</v>
+      </c>
+      <c r="B383" t="s">
+        <v>873</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>850</v>
+      </c>
+      <c r="B384" t="s">
+        <v>874</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F384" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>850</v>
+      </c>
+      <c r="B385" t="s">
+        <v>875</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>850</v>
+      </c>
+      <c r="B386" t="s">
+        <v>876</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F386" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>850</v>
+      </c>
+      <c r="B387" t="s">
+        <v>877</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>850</v>
+      </c>
+      <c r="B388" t="s">
+        <v>878</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F388" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>850</v>
+      </c>
+      <c r="B389" t="s">
+        <v>879</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>850</v>
+      </c>
+      <c r="B390" t="s">
+        <v>880</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>850</v>
+      </c>
+      <c r="B391" t="s">
+        <v>881</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>850</v>
+      </c>
+      <c r="B392" t="s">
+        <v>882</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>850</v>
+      </c>
+      <c r="B393" t="s">
+        <v>883</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>850</v>
+      </c>
+      <c r="B394" t="s">
+        <v>884</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>850</v>
+      </c>
+      <c r="B395" t="s">
+        <v>885</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>850</v>
+      </c>
+      <c r="B396" t="s">
+        <v>886</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F396" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>850</v>
+      </c>
+      <c r="B397" t="s">
+        <v>887</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F397" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>850</v>
+      </c>
+      <c r="B398" t="s">
+        <v>888</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1424" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41641825-71D7-466B-AC44-47290B1BCC51}"/>
+  <xr:revisionPtr revIDLastSave="1491" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E487AB1D-31C0-48AF-A970-71F18E46E4C5}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="983">
   <si>
     <t>record_id</t>
   </si>
@@ -2881,6 +2881,144 @@
   </si>
   <si>
     <t>Under 18; 18-24; 25-34; 35-44; 45-54; 55-64; 65+</t>
+  </si>
+  <si>
+    <t>lubben_social_network_scale_revised_lsnsr</t>
+  </si>
+  <si>
+    <t>lsns_r_q1</t>
+  </si>
+  <si>
+    <t>lsns_r_q2</t>
+  </si>
+  <si>
+    <t>lsns_r_q3</t>
+  </si>
+  <si>
+    <t>lsns_r_q4</t>
+  </si>
+  <si>
+    <t>lsns_r_q5</t>
+  </si>
+  <si>
+    <t>lsns_r_q6</t>
+  </si>
+  <si>
+    <t>lsns_r_q7</t>
+  </si>
+  <si>
+    <t>lsns_r_q8</t>
+  </si>
+  <si>
+    <t>lsns_r_q9</t>
+  </si>
+  <si>
+    <t>lsns_r_q10</t>
+  </si>
+  <si>
+    <t>lsns_r_q11</t>
+  </si>
+  <si>
+    <t>lsns_r_q12</t>
+  </si>
+  <si>
+    <t>lubben_social_network_scale_revised_lsnsr_complete</t>
+  </si>
+  <si>
+    <t>LUBBEN SOCIAL NETWORK SCALE - REVISED (LSNS-R) FAMILY: Considering the people to whom you are related by birth, marriage, adoption, etc…</t>
+  </si>
+  <si>
+    <t>FRIENDSHIPS: Considering all of your friends including those who live in your neighbourhood...</t>
+  </si>
+  <si>
+    <t>1. How many relatives do you see or hear from at least once a month?</t>
+  </si>
+  <si>
+    <t>2. How often do you see or hear from the relative with whom you have the most contact?</t>
+  </si>
+  <si>
+    <t>3. How many relatives do you feel at ease with that you can talk about private matters?</t>
+  </si>
+  <si>
+    <t>4. How many relatives do you feel close to such that you could call on them for help?</t>
+  </si>
+  <si>
+    <t>5. When one of your relatives has an important decision to make, how often do they talk to you about it?</t>
+  </si>
+  <si>
+    <t>6. How often is one of your relatives available for you to talk to when you have an important decision to make?</t>
+  </si>
+  <si>
+    <t>7. How many of your friends do you see or hear from at least once a month?</t>
+  </si>
+  <si>
+    <t>8. How often do you see or hear from the friend with whom you have the most contact?</t>
+  </si>
+  <si>
+    <t>9. How many friends do you feel at ease with that you can talk about private matters?</t>
+  </si>
+  <si>
+    <t>10. How many friends do you feel close to such that you could call on them for help?</t>
+  </si>
+  <si>
+    <t>11. When one of your friends has an important decision to make, how often do they talk to you about it?</t>
+  </si>
+  <si>
+    <t>12. How often is one of your friends available for you to talk to when you have an important decision to make?</t>
+  </si>
+  <si>
+    <t>0 = none; 1 = one; 2 = two; 3 = three or four; 4 = five thru eight; 5 = nine or more</t>
+  </si>
+  <si>
+    <t>0; 1; 2; 3; 4; 5</t>
+  </si>
+  <si>
+    <t>0 = less than monthly; 1 = monthly; 2 = few times a month; 3 = weekly; 4 = few times a week; 5 = daily</t>
+  </si>
+  <si>
+    <t>0 = never; 1 = seldom; 2 = sometimes; 3 = often; 4 = very often; 5 = always</t>
+  </si>
+  <si>
+    <t>lubben_social_network_scale_6_lsns_6</t>
+  </si>
+  <si>
+    <t>lsns_6_q1</t>
+  </si>
+  <si>
+    <t>lsns_6_q2</t>
+  </si>
+  <si>
+    <t>lsns_6_q3</t>
+  </si>
+  <si>
+    <t>lsns_6_q4</t>
+  </si>
+  <si>
+    <t>lsns_6_q5</t>
+  </si>
+  <si>
+    <t>lsns_6_q6</t>
+  </si>
+  <si>
+    <t>LUBBEN SOCIAL NETWORK SCALE - REVISED (LSNS-R) FAMILY: Considering the people to whom you are related by birth, marriage, adoption, etc...</t>
+  </si>
+  <si>
+    <t>2. How many relatives do you feel at ease with that you can talk about private matters?</t>
+  </si>
+  <si>
+    <t>3. How many relatives do you feel close to such that you could call on them for help?</t>
+  </si>
+  <si>
+    <t>4. How many of your friends do you see or hear from at least once a month?</t>
+  </si>
+  <si>
+    <t>5. How many friends do you feel at ease with that you can talk about private matters?</t>
+  </si>
+  <si>
+    <t>6. How many friends do you feel close to such that you could call on them for help?</t>
+  </si>
+  <si>
+    <t>lubben_social_network_scale_6_lsns_6_complete</t>
   </si>
 </sst>
 </file>
@@ -3252,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F398"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E398" sqref="E398"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10912,6 +11050,406 @@
         <v>423</v>
       </c>
     </row>
+    <row r="399" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>937</v>
+      </c>
+      <c r="B399" t="s">
+        <v>938</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>937</v>
+      </c>
+      <c r="B400" t="s">
+        <v>939</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F400" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>937</v>
+      </c>
+      <c r="B401" t="s">
+        <v>940</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F401" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>937</v>
+      </c>
+      <c r="B402" t="s">
+        <v>941</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F402" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>937</v>
+      </c>
+      <c r="B403" t="s">
+        <v>942</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="F403" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>937</v>
+      </c>
+      <c r="B404" t="s">
+        <v>943</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="F404" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>937</v>
+      </c>
+      <c r="B405" t="s">
+        <v>944</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F405" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>937</v>
+      </c>
+      <c r="B406" t="s">
+        <v>945</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F406" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>937</v>
+      </c>
+      <c r="B407" t="s">
+        <v>946</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F407" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>937</v>
+      </c>
+      <c r="B408" t="s">
+        <v>947</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F408" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>937</v>
+      </c>
+      <c r="B409" t="s">
+        <v>948</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="F409" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>937</v>
+      </c>
+      <c r="B410" t="s">
+        <v>949</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="F410" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>937</v>
+      </c>
+      <c r="B411" t="s">
+        <v>950</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F411" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>969</v>
+      </c>
+      <c r="B412" t="s">
+        <v>970</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F412" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>969</v>
+      </c>
+      <c r="B413" t="s">
+        <v>971</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F413" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>969</v>
+      </c>
+      <c r="B414" t="s">
+        <v>972</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F414" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>969</v>
+      </c>
+      <c r="B415" t="s">
+        <v>973</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F415" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>969</v>
+      </c>
+      <c r="B416" t="s">
+        <v>974</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F416" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>969</v>
+      </c>
+      <c r="B417" t="s">
+        <v>975</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="F417" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>969</v>
+      </c>
+      <c r="B418" t="s">
+        <v>982</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F418" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1491" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E487AB1D-31C0-48AF-A970-71F18E46E4C5}"/>
+  <xr:revisionPtr revIDLastSave="1607" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F629EB83-3C60-47F6-9A12-16F32CC3C898}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1039">
   <si>
     <t>record_id</t>
   </si>
@@ -3019,6 +3019,174 @@
   </si>
   <si>
     <t>lubben_social_network_scale_6_lsns_6_complete</t>
+  </si>
+  <si>
+    <t>asthma_and_home_safety_survey</t>
+  </si>
+  <si>
+    <t>asthma_pre_question_1</t>
+  </si>
+  <si>
+    <t>asthma_pre_question_2</t>
+  </si>
+  <si>
+    <t>asthma_pre_question_3</t>
+  </si>
+  <si>
+    <t>asthma_pre_question_4</t>
+  </si>
+  <si>
+    <t>asthma_pre_question_4a</t>
+  </si>
+  <si>
+    <t>asthma_post_question_1</t>
+  </si>
+  <si>
+    <t>asthma_post_question_2</t>
+  </si>
+  <si>
+    <t>asthma_post_question_3</t>
+  </si>
+  <si>
+    <t>asthma_post_question_4</t>
+  </si>
+  <si>
+    <t>asthma_post_question_4a</t>
+  </si>
+  <si>
+    <t>asthma_fu_question_1</t>
+  </si>
+  <si>
+    <t>asthma_fu_question_1a</t>
+  </si>
+  <si>
+    <t>asthma_fu_question_2</t>
+  </si>
+  <si>
+    <t>asthma_fu_question_3</t>
+  </si>
+  <si>
+    <t>asthma_fu_question_4</t>
+  </si>
+  <si>
+    <t>asthma_and_home_safety_survey_complete</t>
+  </si>
+  <si>
+    <t>Asthma and Home Safety Survey - Pre-Intervention Questionnaire. Please answer the following questions based on: 1 = Not confident5 = Very confident</t>
+  </si>
+  <si>
+    <t>Asthma and Home Safety Survey - Post-Intervention Questionnaire. Please answer the following questions based on: 1 = Not confident5 = Very confident</t>
+  </si>
+  <si>
+    <t>Asthma and Home Safety Survey - Follow-Up Questionnaire. Please answer the following questions based on: 1 = Not confident, 5 = Very confident</t>
+  </si>
+  <si>
+    <t>1. On a scale of 1 to 5, how confident do you feel recognising the signs of an asthma attack?</t>
+  </si>
+  <si>
+    <t>2. On a scale of 1 to 5, how confident do you feel about using an asthma inhaler and spacer correctly?</t>
+  </si>
+  <si>
+    <t>3. On a scale of 1 to 5, how safe do you feel your home is for young children?</t>
+  </si>
+  <si>
+    <t>4. Have you or your child ever been admitted to hospital due to asthma or a home accident?</t>
+  </si>
+  <si>
+    <t>Please give a brief description:Optional</t>
+  </si>
+  <si>
+    <t>Please give a brief description: Optional</t>
+  </si>
+  <si>
+    <t>1 - Not confident; 2; 3; 4; 5 - Very confident</t>
+  </si>
+  <si>
+    <t>4. Have you made (or do you plan to make) any changes at home or in asthma management because of what you learned?</t>
+  </si>
+  <si>
+    <t>1. Since attending, have you used anything you learned to helpmanage asthma or improve safety at home?</t>
+  </si>
+  <si>
+    <t>4. Have you or your child had any asthma-related or injury-related hospital visits since taking part?</t>
+  </si>
+  <si>
+    <t>3. On a scale of 1 to 5, how safe would you rate your home now,c ompared to before the programme?</t>
+  </si>
+  <si>
+    <t>2. On a scale of 1 to 5, how confident do you now feel handling an asthma emergency?</t>
+  </si>
+  <si>
+    <t>health_promotion_survey</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q1</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2_other</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q3</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q4</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q4a</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q4b</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q4c</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q4d</t>
+  </si>
+  <si>
+    <t>health_promotion_survey_complete</t>
+  </si>
+  <si>
+    <t>1. What was the nature of the event?</t>
+  </si>
+  <si>
+    <t>2. What was the event about?</t>
+  </si>
+  <si>
+    <t>2. What was the event about? - Other</t>
+  </si>
+  <si>
+    <t>3. How was the event delivered?</t>
+  </si>
+  <si>
+    <t>My trust in health care services has increased</t>
+  </si>
+  <si>
+    <t>I have a better understanding of where to go for advice &amp; support</t>
+  </si>
+  <si>
+    <t>I feel more confident about managing my health</t>
+  </si>
+  <si>
+    <t>Health Promotion Survey</t>
+  </si>
+  <si>
+    <t>Health Promotion; Training; Workshop; Group Discussion</t>
+  </si>
+  <si>
+    <t>Smoking; Obesity/Weight management; Physical Activity; Diet/Nutrition; Screening; Immunisations and Vaccinations; Diabetes; Cardiovascular Health; Asthma/Respiratory Health; Sexual Health; Mental Health; Maintaining Wellbeing; Health Promotion; Behaviour Change (for example motivational interviewing); Understanding Communities; Children and Young People; Adult Health; Healthy Aging; LGBTQ+; Learning Disabilities or Autism; Visual or Hearing Impairment; Maternal Health; Other</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5; 6; 7; 8; 9; 10; 11; 12; 13; 14; 15; 16; 17; 18; 19; 20; 21; 22; O</t>
+  </si>
+  <si>
+    <t>4. Event Content (describe)</t>
+  </si>
+  <si>
+    <t>Stronly Disagree; Disagree; Neither Agree nor Disagree; Agree; Stronly Agree</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3106,10 +3274,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3390,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E437" sqref="E437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,7 +3573,7 @@
     <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3422,7 +3592,7 @@
       <c r="E1" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>820</v>
       </c>
     </row>
@@ -3535,7 +3705,7 @@
       <c r="E8" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>727</v>
       </c>
     </row>
@@ -3597,7 +3767,7 @@
       <c r="E12" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3629,7 +3799,7 @@
       <c r="E14" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -3649,7 +3819,7 @@
       <c r="E15" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>727</v>
       </c>
     </row>
@@ -3669,7 +3839,7 @@
       <c r="E16" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -3835,7 +4005,7 @@
       <c r="E27" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -4774,7 +4944,6 @@
       <c r="D75" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -5040,7 +5209,7 @@
       <c r="E89" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -5340,7 +5509,7 @@
       <c r="E104" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -5600,7 +5769,7 @@
       <c r="E117" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -5620,7 +5789,7 @@
       <c r="E118" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5640,7 +5809,7 @@
       <c r="E119" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5660,7 +5829,7 @@
       <c r="E120" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5680,7 +5849,7 @@
       <c r="E121" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5700,7 +5869,7 @@
       <c r="E122" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5720,7 +5889,7 @@
       <c r="E123" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5740,7 +5909,7 @@
       <c r="E124" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5760,7 +5929,7 @@
       <c r="E125" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5780,7 +5949,7 @@
       <c r="E126" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5800,7 +5969,7 @@
       <c r="E127" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5820,7 +5989,7 @@
       <c r="E128" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5840,7 +6009,7 @@
       <c r="E129" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5860,7 +6029,7 @@
       <c r="E130" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5880,7 +6049,7 @@
       <c r="E131" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5900,7 +6069,7 @@
       <c r="E132" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5920,7 +6089,7 @@
       <c r="E133" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5940,7 +6109,7 @@
       <c r="E134" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5960,7 +6129,7 @@
       <c r="E135" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -5980,7 +6149,7 @@
       <c r="E136" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6000,7 +6169,7 @@
       <c r="E137" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6020,7 +6189,7 @@
       <c r="E138" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6040,7 +6209,7 @@
       <c r="E139" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6060,7 +6229,7 @@
       <c r="E140" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6368,7 +6537,7 @@
       <c r="E156" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -6428,7 +6597,7 @@
       <c r="E159" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6448,7 +6617,7 @@
       <c r="E160" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6468,7 +6637,7 @@
       <c r="E161" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6488,7 +6657,7 @@
       <c r="E162" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6508,7 +6677,7 @@
       <c r="E163" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F163" s="8" t="s">
+      <c r="F163" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6528,7 +6697,7 @@
       <c r="E164" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6548,7 +6717,7 @@
       <c r="E165" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6588,7 +6757,7 @@
       <c r="E167" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6608,7 +6777,7 @@
       <c r="E168" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6628,7 +6797,7 @@
       <c r="E169" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6648,7 +6817,7 @@
       <c r="E170" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6668,7 +6837,7 @@
       <c r="E171" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="F171" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6688,7 +6857,7 @@
       <c r="E172" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F172" s="8" t="s">
+      <c r="F172" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6708,7 +6877,7 @@
       <c r="E173" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F173" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -6728,7 +6897,7 @@
       <c r="E174" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F174" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7008,7 +7177,7 @@
       <c r="E188" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F188" s="8" t="s">
+      <c r="F188" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7102,7 +7271,7 @@
       <c r="E193" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7442,7 +7611,7 @@
       <c r="E210" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F210" s="8" t="s">
+      <c r="F210" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7842,7 +8011,7 @@
       <c r="E230" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F230" s="8" t="s">
+      <c r="F230" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8162,7 +8331,7 @@
       <c r="E246" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F246" s="8" t="s">
+      <c r="F246" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8222,7 +8391,7 @@
       <c r="E249" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F249" s="8" t="s">
+      <c r="F249" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8242,7 +8411,7 @@
       <c r="E250" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F250" s="8" t="s">
+      <c r="F250" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8262,7 +8431,7 @@
       <c r="E251" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F251" s="8" t="s">
+      <c r="F251" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8282,7 +8451,7 @@
       <c r="E252" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F252" s="8" t="s">
+      <c r="F252" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8302,7 +8471,7 @@
       <c r="E253" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="F253" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8322,7 +8491,7 @@
       <c r="E254" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F254" s="8" t="s">
+      <c r="F254" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8342,7 +8511,7 @@
       <c r="E255" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F255" s="8" t="s">
+      <c r="F255" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8362,7 +8531,7 @@
       <c r="E256" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F256" s="8" t="s">
+      <c r="F256" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8416,7 +8585,7 @@
       <c r="E259" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F259" s="8" t="s">
+      <c r="F259" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8530,7 +8699,7 @@
       <c r="E265" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F265" s="8" t="s">
+      <c r="F265" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8830,7 +8999,7 @@
       <c r="E280" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F280" s="8" t="s">
+      <c r="F280" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9002,7 +9171,7 @@
       <c r="E291" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F291" s="8" t="s">
+      <c r="F291" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9242,7 +9411,7 @@
       <c r="E303" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F303" s="8" t="s">
+      <c r="F303" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9422,7 +9591,7 @@
       <c r="E312" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F312" s="8" t="s">
+      <c r="F312" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9442,7 +9611,7 @@
       <c r="E313" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="F313" s="8" t="s">
+      <c r="F313" s="5" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9462,7 +9631,7 @@
       <c r="E314" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="F314" s="8" t="s">
+      <c r="F314" s="5" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9482,7 +9651,7 @@
       <c r="E315" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="F315" s="8" t="s">
+      <c r="F315" s="5" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9502,7 +9671,7 @@
       <c r="E316" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="F316" s="8" t="s">
+      <c r="F316" s="5" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9684,7 +9853,7 @@
       <c r="E326" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F326" s="8" t="s">
+      <c r="F326" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9724,7 +9893,7 @@
       <c r="E328" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="F328" s="8" t="s">
+      <c r="F328" s="5" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9744,7 +9913,7 @@
       <c r="E329" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="F329" s="8" t="s">
+      <c r="F329" s="5" t="s">
         <v>847</v>
       </c>
     </row>
@@ -9764,7 +9933,7 @@
       <c r="E330" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F330" s="8" t="s">
+      <c r="F330" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -9784,7 +9953,7 @@
       <c r="E331" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F331" s="8" t="s">
+      <c r="F331" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -9804,7 +9973,7 @@
       <c r="E332" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F332" s="8" t="s">
+      <c r="F332" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -10036,7 +10205,7 @@
       <c r="E346" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F346" s="8" t="s">
+      <c r="F346" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10136,7 +10305,7 @@
       <c r="E351" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F351" s="8" t="s">
+      <c r="F351" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10156,7 +10325,7 @@
       <c r="E352" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F352" s="8" t="s">
+      <c r="F352" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10316,7 +10485,7 @@
       <c r="E360" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F360" s="8" t="s">
+      <c r="F360" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10336,7 +10505,7 @@
       <c r="E361" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F361" s="8" t="s">
+      <c r="F361" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10356,7 +10525,7 @@
       <c r="E362" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F362" s="8" t="s">
+      <c r="F362" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10376,7 +10545,7 @@
       <c r="E363" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F363" s="8" t="s">
+      <c r="F363" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10396,7 +10565,7 @@
       <c r="E364" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F364" s="8" t="s">
+      <c r="F364" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10416,7 +10585,7 @@
       <c r="E365" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F365" s="8" t="s">
+      <c r="F365" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10436,7 +10605,7 @@
       <c r="E366" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F366" s="8" t="s">
+      <c r="F366" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10456,7 +10625,7 @@
       <c r="E367" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F367" s="8" t="s">
+      <c r="F367" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10476,7 +10645,7 @@
       <c r="E368" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F368" s="8" t="s">
+      <c r="F368" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10496,7 +10665,7 @@
       <c r="E369" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F369" s="8" t="s">
+      <c r="F369" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10516,7 +10685,7 @@
       <c r="E370" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F370" s="8" t="s">
+      <c r="F370" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10536,7 +10705,7 @@
       <c r="E371" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F371" s="8" t="s">
+      <c r="F371" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10556,7 +10725,7 @@
       <c r="E372" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F372" s="8" t="s">
+      <c r="F372" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10576,7 +10745,7 @@
       <c r="E373" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F373" s="8" t="s">
+      <c r="F373" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10596,7 +10765,7 @@
       <c r="E374" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F374" s="8" t="s">
+      <c r="F374" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10616,7 +10785,7 @@
       <c r="E375" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F375" s="8" t="s">
+      <c r="F375" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10636,7 +10805,7 @@
       <c r="E376" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F376" s="8" t="s">
+      <c r="F376" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10656,7 +10825,7 @@
       <c r="E377" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F377" s="8" t="s">
+      <c r="F377" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10676,7 +10845,7 @@
       <c r="E378" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F378" s="8" t="s">
+      <c r="F378" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10696,7 +10865,7 @@
       <c r="E379" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F379" s="8" t="s">
+      <c r="F379" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10716,7 +10885,7 @@
       <c r="E380" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F380" s="8" t="s">
+      <c r="F380" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10736,7 +10905,7 @@
       <c r="E381" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F381" s="8" t="s">
+      <c r="F381" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10756,7 +10925,7 @@
       <c r="E382" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F382" s="8" t="s">
+      <c r="F382" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10776,7 +10945,7 @@
       <c r="E383" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F383" s="8" t="s">
+      <c r="F383" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10796,7 +10965,7 @@
       <c r="E384" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F384" s="8" t="s">
+      <c r="F384" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10816,7 +10985,7 @@
       <c r="E385" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F385" s="8" t="s">
+      <c r="F385" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10836,7 +11005,7 @@
       <c r="E386" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F386" s="8" t="s">
+      <c r="F386" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10856,7 +11025,7 @@
       <c r="E387" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F387" s="8" t="s">
+      <c r="F387" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10876,7 +11045,7 @@
       <c r="E388" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F388" s="8" t="s">
+      <c r="F388" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10896,7 +11065,7 @@
       <c r="E389" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="F389" s="8" t="s">
+      <c r="F389" s="5" t="s">
         <v>757</v>
       </c>
     </row>
@@ -10930,7 +11099,7 @@
       <c r="E391" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="F391" s="8" t="s">
+      <c r="F391" s="5" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10992,7 +11161,7 @@
       <c r="E395" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="F395" s="8" t="s">
+      <c r="F395" s="5" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11012,7 +11181,7 @@
       <c r="E396" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="F396" s="8" t="s">
+      <c r="F396" s="5" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11032,7 +11201,7 @@
       <c r="E397" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F397" s="8" t="s">
+      <c r="F397" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11066,7 +11235,7 @@
       <c r="E399" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F399" s="8" t="s">
+      <c r="F399" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11086,7 +11255,7 @@
       <c r="E400" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="F400" s="8" t="s">
+      <c r="F400" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11106,7 +11275,7 @@
       <c r="E401" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F401" s="8" t="s">
+      <c r="F401" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11126,7 +11295,7 @@
       <c r="E402" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F402" s="8" t="s">
+      <c r="F402" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11146,7 +11315,7 @@
       <c r="E403" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="F403" s="8" t="s">
+      <c r="F403" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11166,7 +11335,7 @@
       <c r="E404" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="F404" s="8" t="s">
+      <c r="F404" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11186,7 +11355,7 @@
       <c r="E405" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F405" s="8" t="s">
+      <c r="F405" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11206,7 +11375,7 @@
       <c r="E406" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="F406" s="8" t="s">
+      <c r="F406" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11226,7 +11395,7 @@
       <c r="E407" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F407" s="8" t="s">
+      <c r="F407" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11246,7 +11415,7 @@
       <c r="E408" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F408" s="8" t="s">
+      <c r="F408" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11266,7 +11435,7 @@
       <c r="E409" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="F409" s="8" t="s">
+      <c r="F409" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11286,7 +11455,7 @@
       <c r="E410" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="F410" s="8" t="s">
+      <c r="F410" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11306,7 +11475,7 @@
       <c r="E411" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F411" s="8" t="s">
+      <c r="F411" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11326,7 +11495,7 @@
       <c r="E412" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F412" s="8" t="s">
+      <c r="F412" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11346,7 +11515,7 @@
       <c r="E413" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F413" s="8" t="s">
+      <c r="F413" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11366,7 +11535,7 @@
       <c r="E414" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F414" s="8" t="s">
+      <c r="F414" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11386,7 +11555,7 @@
       <c r="E415" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F415" s="8" t="s">
+      <c r="F415" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11406,7 +11575,7 @@
       <c r="E416" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F416" s="8" t="s">
+      <c r="F416" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11426,7 +11595,7 @@
       <c r="E417" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="F417" s="8" t="s">
+      <c r="F417" s="5" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11446,7 +11615,497 @@
       <c r="E418" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F418" s="8" t="s">
+      <c r="F418" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>983</v>
+      </c>
+      <c r="B419" t="s">
+        <v>984</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>983</v>
+      </c>
+      <c r="B420" t="s">
+        <v>985</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>983</v>
+      </c>
+      <c r="B421" t="s">
+        <v>986</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>983</v>
+      </c>
+      <c r="B422" t="s">
+        <v>987</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>983</v>
+      </c>
+      <c r="B423" t="s">
+        <v>988</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>983</v>
+      </c>
+      <c r="B424" t="s">
+        <v>989</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>983</v>
+      </c>
+      <c r="B425" t="s">
+        <v>990</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>983</v>
+      </c>
+      <c r="B426" t="s">
+        <v>991</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>983</v>
+      </c>
+      <c r="B427" t="s">
+        <v>992</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>983</v>
+      </c>
+      <c r="B428" t="s">
+        <v>993</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>983</v>
+      </c>
+      <c r="B429" t="s">
+        <v>994</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>983</v>
+      </c>
+      <c r="B430" t="s">
+        <v>995</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>983</v>
+      </c>
+      <c r="B431" t="s">
+        <v>996</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>983</v>
+      </c>
+      <c r="B432" t="s">
+        <v>997</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>983</v>
+      </c>
+      <c r="B433" t="s">
+        <v>998</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>983</v>
+      </c>
+      <c r="B434" t="s">
+        <v>999</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F444" s="5" t="s">
         <v>729</v>
       </c>
     </row>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1607" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F629EB83-3C60-47F6-9A12-16F32CC3C898}"/>
+  <xr:revisionPtr revIDLastSave="1934" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958E97CD-2D6D-4629-B979-F25F5EAFA873}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1410" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="1250">
   <si>
     <t>record_id</t>
   </si>
@@ -2874,9 +2874,6 @@
     <t>37. Is there anything you would like to tell us about your experiences in Birmingham that is relevant to this survey?</t>
   </si>
   <si>
-    <t>1 - Not able; 2, 3, 4, 5 - Very able</t>
-  </si>
-  <si>
     <t>1 - do not agree at all; 2; 3; 4; 5 - strongly agree</t>
   </si>
   <si>
@@ -3123,9 +3120,6 @@
     <t>health_prom_survey_q1</t>
   </si>
   <si>
-    <t>health_prom_survey_q2</t>
-  </si>
-  <si>
     <t>health_prom_survey_q2_other</t>
   </si>
   <si>
@@ -3156,9 +3150,6 @@
     <t>2. What was the event about?</t>
   </si>
   <si>
-    <t>2. What was the event about? - Other</t>
-  </si>
-  <si>
     <t>3. How was the event delivered?</t>
   </si>
   <si>
@@ -3187,6 +3178,650 @@
   </si>
   <si>
     <t>Stronly Disagree; Disagree; Neither Agree nor Disagree; Agree; Stronly Agree</t>
+  </si>
+  <si>
+    <t>health_literacy_deaf_health_champions</t>
+  </si>
+  <si>
+    <t>dhcs_q1_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q1_other_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q2_other_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q3_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q4_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q5_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q6_other_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q7_other_pre</t>
+  </si>
+  <si>
+    <t>dhcs_q1_other_post</t>
+  </si>
+  <si>
+    <t>dhcs_q2_post</t>
+  </si>
+  <si>
+    <t>dhcs_q3_post</t>
+  </si>
+  <si>
+    <t>dhcs_q4_post</t>
+  </si>
+  <si>
+    <t>dhcs_q5_post</t>
+  </si>
+  <si>
+    <t>dhcs_q6_post</t>
+  </si>
+  <si>
+    <t>dhcs_q7_post</t>
+  </si>
+  <si>
+    <t>dhcs_q8_post</t>
+  </si>
+  <si>
+    <t>dhcs_q1_other_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q2_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q3_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q4_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q5_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q6_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q7_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q8_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q9_follow_up</t>
+  </si>
+  <si>
+    <t>dhcs_q10_follow_up</t>
+  </si>
+  <si>
+    <t>health_literacy_deaf_health_champions_complete</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions Before the Session</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions After the Session</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions Follow up survey - to be completed 6 weeks later</t>
+  </si>
+  <si>
+    <t>1. Communication Preference</t>
+  </si>
+  <si>
+    <t>1. Communication Preference - Other</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___1</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___2</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___3</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___4</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___5</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___6</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___7</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___8</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___9</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___10</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___11</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___12</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___13</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___14</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___15</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___16</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___17</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___18</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___19</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___20</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___21</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___22</t>
+  </si>
+  <si>
+    <t>health_prom_survey_q2___o</t>
+  </si>
+  <si>
+    <t>Obesity/Weight management</t>
+  </si>
+  <si>
+    <t>Other (describe)</t>
+  </si>
+  <si>
+    <t>Behaviour Change (for example motivational interviewing)</t>
+  </si>
+  <si>
+    <t>Healthy Aging</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__1</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__2</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__3</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__4</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__5</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__6</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__7</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__8</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__9</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__10</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__11</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__12</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__13</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__14</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__15</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__16</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__17</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__18</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__19</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__20</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__21</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__22</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__23</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__24</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__25</t>
+  </si>
+  <si>
+    <t>dhcs_q2_pre__o</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions Before the Session. 2. What is the workshop about? Select all that apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Literacy - Deaf Health Champions Before the Session. </t>
+  </si>
+  <si>
+    <t>Teenage Contraception</t>
+  </si>
+  <si>
+    <t>School Immunisation</t>
+  </si>
+  <si>
+    <t>Mental Health of young people (reduce risk of suicide / self-harm in highest risk groups)</t>
+  </si>
+  <si>
+    <t>Physical Activity in young girls /disabled</t>
+  </si>
+  <si>
+    <t>Trips / Falls</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Health</t>
+  </si>
+  <si>
+    <t>Cancer / Screening</t>
+  </si>
+  <si>
+    <t>High Blood Pressure</t>
+  </si>
+  <si>
+    <t>Cardiovascular Health - Stroke</t>
+  </si>
+  <si>
+    <t>Health Checks</t>
+  </si>
+  <si>
+    <t>BSL; International Signer; Lip Speaker; Spoken English; Other</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; O</t>
+  </si>
+  <si>
+    <t>3. Do you know much about this topic?</t>
+  </si>
+  <si>
+    <t>4. How sure do you feel about making choices related to this topic?</t>
+  </si>
+  <si>
+    <t>5. How often do you look for information about this topic?</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__a</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__b</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__c</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__d</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__e</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__f</t>
+  </si>
+  <si>
+    <t>dhcs_q6_pre__g</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions Before the Session. 6. Where do you usually get your health information? Tick all that apply</t>
+  </si>
+  <si>
+    <t>Nothing at all; A little; Some; A lot; I know it very well</t>
+  </si>
+  <si>
+    <t>Not sure at all; A little sure; Somewhat sure; Very sure; Completely sure</t>
+  </si>
+  <si>
+    <t>Never; Rarely; Sometimes; Often; All the time</t>
+  </si>
+  <si>
+    <t>Doctor, nurse or pharmacy</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Friends or family</t>
+  </si>
+  <si>
+    <t>Books or magazines</t>
+  </si>
+  <si>
+    <t>Social media</t>
+  </si>
+  <si>
+    <t>Community group/organisation</t>
+  </si>
+  <si>
+    <t>dhcs_q7_pre__a</t>
+  </si>
+  <si>
+    <t>dhcs_q7_pre__b</t>
+  </si>
+  <si>
+    <t>dhcs_q7_pre__c</t>
+  </si>
+  <si>
+    <t>dhcs_q7_pre__d</t>
+  </si>
+  <si>
+    <t>dhcs_q7_pre__e</t>
+  </si>
+  <si>
+    <t>dhcs_q7_pre__f</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions Before the Session. 7. Do you experience any barriers in accessing information orsupport around this topic? Tick all that apply</t>
+  </si>
+  <si>
+    <t>I am unable to find information in a format/language that suits my needs (e.g. Easy Read, British Sign Language, Urdu)</t>
+  </si>
+  <si>
+    <t>I need an interpreter to support at medical appointments but one is not always booked (e.g. British Sign Language or spoken language interpreter)</t>
+  </si>
+  <si>
+    <t>I struggle to make an appointment at the GP (e.g. due to the booking system, lack of digital skills or language barriers)</t>
+  </si>
+  <si>
+    <t>I do not feel comfortable or confident accessing information orsupport</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__1</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__2</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__3</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__4</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__5</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__6</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__7</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__8</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__9</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__10</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__11</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__12</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__13</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__14</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__15</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__16</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__17</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__18</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__19</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__20</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__21</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__22</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__23</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__24</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__25</t>
+  </si>
+  <si>
+    <t>dhcs_q1_post__o</t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions After the Session
+1. What was the workshop about? Select all that apply</t>
+  </si>
+  <si>
+    <t>2. Do you feel you know much about this topic now?</t>
+  </si>
+  <si>
+    <t>3. After this session, how do you now feel about making choicesrelated to this topic?</t>
+  </si>
+  <si>
+    <t>4. What is one new thing you learned today?</t>
+  </si>
+  <si>
+    <t>5. Do you feel you now know where to find accurate and accessibleinformation about this topic?</t>
+  </si>
+  <si>
+    <t>6. The information was too complex</t>
+  </si>
+  <si>
+    <t>7. The information was not relevant</t>
+  </si>
+  <si>
+    <t>8. There was too much information and not enough time to processit</t>
+  </si>
+  <si>
+    <t>Not at all; A little; Some; A lot; I know it very well</t>
+  </si>
+  <si>
+    <t>Not sure at all; Somewhat sure;  Completely sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1; 2; </t>
+  </si>
+  <si>
+    <t>Health Literacy - Deaf Health Champions Follow up survey - to be completed 6 weeks later
+1. What was the workshop about? Select all that apply</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__1</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__2</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__3</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__4</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__5</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__6</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__7</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__8</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__9</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__10</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__11</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__12</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__13</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__14</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__15</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__16</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__17</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__18</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__19</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__20</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__21</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__22</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__23</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__24</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__25</t>
+  </si>
+  <si>
+    <t>dhcs_q1_follow_up__o</t>
+  </si>
+  <si>
+    <t>2. How do you feel now compared to 6 weeks ago?</t>
+  </si>
+  <si>
+    <t>Better; Same; Worse</t>
+  </si>
+  <si>
+    <t>3. What has changed for you? (Have any of these improved in the past 6 weeks? Sleep? Mood? Energy?)</t>
+  </si>
+  <si>
+    <t>4. Did you work on your goals?</t>
+  </si>
+  <si>
+    <t>Yes; Some; No</t>
+  </si>
+  <si>
+    <t>1; 2; 0</t>
+  </si>
+  <si>
+    <t>5. What has been easiest to do? (Example: Increase exercise e.g. walk more/exercise, drink more water, cook from fresh, start a routine, be more organised)</t>
+  </si>
+  <si>
+    <t>6. What has been difficult or stopped you? (Time, stress, motivation, understanding of the information/what I need to do)</t>
+  </si>
+  <si>
+    <t>7. Do you understand what to do to stay healthy?</t>
+  </si>
+  <si>
+    <t>Yes; Not sure; No</t>
+  </si>
+  <si>
+    <t>8. How confident do you feel to continue?</t>
+  </si>
+  <si>
+    <t>Low - Not confident; Medium - I feel quite confident; High - I am confident and can make changes</t>
+  </si>
+  <si>
+    <t>9. What support do you need now?</t>
+  </si>
+  <si>
+    <t>10. What is one goal you can make for the next 6 weeks?</t>
+  </si>
+  <si>
+    <t>1 - Not able; 2; 3; 4; 5 - Very able</t>
   </si>
 </sst>
 </file>
@@ -3256,7 +3891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3278,6 +3913,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3560,17 +4204,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F444"/>
+  <dimension ref="A1:F584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E437" sqref="E437"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="10" customWidth="1"/>
     <col min="4" max="4" width="67.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.21875" style="5" bestFit="1" customWidth="1"/>
@@ -3583,7 +4227,7 @@
       <c r="B1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>376</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3603,7 +4247,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>719</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3620,7 +4264,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>719</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3634,7 +4278,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>719</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3651,7 +4295,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>720</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3668,7 +4312,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>720</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3682,7 +4326,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>720</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3696,7 +4340,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>387</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3716,7 +4360,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>387</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3730,7 +4374,7 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>387</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3744,7 +4388,7 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>387</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -3758,7 +4402,7 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>387</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3776,7 +4420,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>388</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3790,7 +4434,7 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3810,7 +4454,7 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>722</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3830,7 +4474,7 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3850,7 +4494,7 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>723</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3864,7 +4508,7 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>723</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3878,7 +4522,7 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>723</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3892,7 +4536,7 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>723</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -3906,7 +4550,7 @@
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>723</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -3920,7 +4564,7 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>390</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3934,7 +4578,7 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="10" t="s">
         <v>390</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -3948,7 +4592,7 @@
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>390</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -3968,7 +4612,7 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>391</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -3982,7 +4626,7 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="10" t="s">
         <v>391</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3996,7 +4640,7 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -4016,7 +4660,7 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -4036,7 +4680,7 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -4056,7 +4700,7 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -4070,7 +4714,7 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -4090,7 +4734,7 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -4110,7 +4754,7 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="10" t="s">
         <v>392</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -4124,7 +4768,7 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="10" t="s">
         <v>393</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -4144,7 +4788,7 @@
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="10" t="s">
         <v>393</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -4158,7 +4802,7 @@
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="10" t="s">
         <v>394</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -4178,7 +4822,7 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -4198,7 +4842,7 @@
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -4218,7 +4862,7 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -4238,7 +4882,7 @@
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -4258,7 +4902,7 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -4278,7 +4922,7 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -4298,7 +4942,7 @@
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -4318,7 +4962,7 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -4338,7 +4982,7 @@
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -4358,7 +5002,7 @@
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="10" t="s">
         <v>447</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -4378,7 +5022,7 @@
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -4398,7 +5042,7 @@
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -4418,7 +5062,7 @@
       <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -4438,7 +5082,7 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -4458,7 +5102,7 @@
       <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4478,7 +5122,7 @@
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -4498,7 +5142,7 @@
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -4518,7 +5162,7 @@
       <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="10" t="s">
         <v>449</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -4538,7 +5182,7 @@
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -4558,7 +5202,7 @@
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -4578,7 +5222,7 @@
       <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4598,7 +5242,7 @@
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -4618,7 +5262,7 @@
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -4638,7 +5282,7 @@
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -4658,7 +5302,7 @@
       <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -4678,7 +5322,7 @@
       <c r="B62" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -4698,7 +5342,7 @@
       <c r="B63" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -4718,7 +5362,7 @@
       <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -4738,7 +5382,7 @@
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -4758,7 +5402,7 @@
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -4778,7 +5422,7 @@
       <c r="B67" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4798,7 +5442,7 @@
       <c r="B68" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4818,7 +5462,7 @@
       <c r="B69" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -4838,7 +5482,7 @@
       <c r="B70" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -4858,7 +5502,7 @@
       <c r="B71" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4878,7 +5522,7 @@
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -4898,7 +5542,7 @@
       <c r="B73" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -4918,7 +5562,7 @@
       <c r="B74" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -4938,7 +5582,7 @@
       <c r="B75" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -4952,7 +5596,7 @@
       <c r="B76" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="10" t="s">
         <v>479</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4972,7 +5616,7 @@
       <c r="B77" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="10" t="s">
         <v>479</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -4992,7 +5636,7 @@
       <c r="B78" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="10" t="s">
         <v>479</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -5012,7 +5656,7 @@
       <c r="B79" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="10" t="s">
         <v>479</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -5032,7 +5676,7 @@
       <c r="B80" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="10" t="s">
         <v>479</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -5052,7 +5696,7 @@
       <c r="B81" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="10" t="s">
         <v>395</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -5072,7 +5716,7 @@
       <c r="B82" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="10" t="s">
         <v>395</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -5092,7 +5736,7 @@
       <c r="B83" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="10" t="s">
         <v>395</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5112,7 +5756,7 @@
       <c r="B84" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -5126,7 +5770,7 @@
       <c r="B85" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5146,7 +5790,7 @@
       <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -5160,7 +5804,7 @@
       <c r="B87" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5180,7 +5824,7 @@
       <c r="B88" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -5200,7 +5844,7 @@
       <c r="B89" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5220,7 +5864,7 @@
       <c r="B90" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -5240,7 +5884,7 @@
       <c r="B91" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5260,7 +5904,7 @@
       <c r="B92" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -5280,7 +5924,7 @@
       <c r="B93" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5300,7 +5944,7 @@
       <c r="B94" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -5320,7 +5964,7 @@
       <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5340,7 +5984,7 @@
       <c r="B96" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -5360,7 +6004,7 @@
       <c r="B97" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5380,7 +6024,7 @@
       <c r="B98" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5400,7 +6044,7 @@
       <c r="B99" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5420,7 +6064,7 @@
       <c r="B100" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5440,7 +6084,7 @@
       <c r="B101" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5460,7 +6104,7 @@
       <c r="B102" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5480,7 +6124,7 @@
       <c r="B103" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="10" t="s">
         <v>397</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5500,7 +6144,7 @@
       <c r="B104" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -5520,7 +6164,7 @@
       <c r="B105" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5540,7 +6184,7 @@
       <c r="B106" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -5560,7 +6204,7 @@
       <c r="B107" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5580,7 +6224,7 @@
       <c r="B108" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -5600,7 +6244,7 @@
       <c r="B109" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5620,7 +6264,7 @@
       <c r="B110" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -5640,7 +6284,7 @@
       <c r="B111" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5660,7 +6304,7 @@
       <c r="B112" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -5680,7 +6324,7 @@
       <c r="B113" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5700,7 +6344,7 @@
       <c r="B114" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -5720,7 +6364,7 @@
       <c r="B115" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -5740,7 +6384,7 @@
       <c r="B116" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="10" t="s">
         <v>396</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -5760,7 +6404,7 @@
       <c r="B117" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -5780,7 +6424,7 @@
       <c r="B118" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -5800,7 +6444,7 @@
       <c r="B119" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -5820,7 +6464,7 @@
       <c r="B120" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -5840,7 +6484,7 @@
       <c r="B121" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -5860,7 +6504,7 @@
       <c r="B122" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -5880,7 +6524,7 @@
       <c r="B123" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -5900,7 +6544,7 @@
       <c r="B124" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -5920,7 +6564,7 @@
       <c r="B125" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -5940,7 +6584,7 @@
       <c r="B126" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -5960,7 +6604,7 @@
       <c r="B127" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -5980,7 +6624,7 @@
       <c r="B128" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -6000,7 +6644,7 @@
       <c r="B129" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -6020,7 +6664,7 @@
       <c r="B130" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -6040,7 +6684,7 @@
       <c r="B131" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -6060,7 +6704,7 @@
       <c r="B132" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -6080,7 +6724,7 @@
       <c r="B133" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -6100,7 +6744,7 @@
       <c r="B134" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -6120,7 +6764,7 @@
       <c r="B135" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -6140,7 +6784,7 @@
       <c r="B136" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -6160,7 +6804,7 @@
       <c r="B137" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -6180,7 +6824,7 @@
       <c r="B138" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -6200,7 +6844,7 @@
       <c r="B139" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -6220,7 +6864,7 @@
       <c r="B140" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -6240,7 +6884,7 @@
       <c r="B141" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="10" t="s">
         <v>516</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -6254,7 +6898,7 @@
       <c r="B142" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="10" t="s">
         <v>539</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -6274,7 +6918,7 @@
       <c r="B143" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="10" t="s">
         <v>539</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -6288,7 +6932,7 @@
       <c r="B144" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="10" t="s">
         <v>542</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -6308,7 +6952,7 @@
       <c r="B145" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -6328,7 +6972,7 @@
       <c r="B146" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D146" s="3" t="s">
@@ -6348,7 +6992,7 @@
       <c r="B147" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -6368,7 +7012,7 @@
       <c r="B148" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D148" s="3" t="s">
@@ -6388,7 +7032,7 @@
       <c r="B149" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -6408,7 +7052,7 @@
       <c r="B150" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -6428,7 +7072,7 @@
       <c r="B151" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -6448,7 +7092,7 @@
       <c r="B152" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D152" s="3" t="s">
@@ -6468,7 +7112,7 @@
       <c r="B153" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -6488,7 +7132,7 @@
       <c r="B154" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="10" t="s">
         <v>543</v>
       </c>
       <c r="D154" s="3" t="s">
@@ -6508,7 +7152,7 @@
       <c r="B155" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="10" t="s">
         <v>554</v>
       </c>
       <c r="D155" s="3" t="s">
@@ -6528,7 +7172,7 @@
       <c r="B156" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D156" s="3" t="s">
@@ -6548,7 +7192,7 @@
       <c r="B157" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="10" t="s">
         <v>555</v>
       </c>
       <c r="D157" s="3" t="s">
@@ -6568,7 +7212,7 @@
       <c r="B158" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="10" t="s">
         <v>556</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -6588,7 +7232,7 @@
       <c r="B159" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D159" s="3" t="s">
@@ -6608,7 +7252,7 @@
       <c r="B160" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D160" s="3" t="s">
@@ -6628,7 +7272,7 @@
       <c r="B161" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -6648,7 +7292,7 @@
       <c r="B162" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D162" s="3" t="s">
@@ -6668,7 +7312,7 @@
       <c r="B163" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D163" s="3" t="s">
@@ -6688,7 +7332,7 @@
       <c r="B164" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -6708,7 +7352,7 @@
       <c r="B165" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="10" t="s">
         <v>557</v>
       </c>
       <c r="D165" s="3" t="s">
@@ -6728,7 +7372,7 @@
       <c r="B166" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="10" t="s">
         <v>558</v>
       </c>
       <c r="D166" s="3" t="s">
@@ -6748,7 +7392,7 @@
       <c r="B167" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D167" s="3" t="s">
@@ -6768,7 +7412,7 @@
       <c r="B168" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D168" s="3" t="s">
@@ -6788,7 +7432,7 @@
       <c r="B169" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D169" s="3" t="s">
@@ -6808,7 +7452,7 @@
       <c r="B170" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D170" s="3" t="s">
@@ -6828,7 +7472,7 @@
       <c r="B171" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D171" s="3" t="s">
@@ -6848,7 +7492,7 @@
       <c r="B172" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -6868,7 +7512,7 @@
       <c r="B173" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="10" t="s">
         <v>559</v>
       </c>
       <c r="D173" s="3" t="s">
@@ -6888,7 +7532,7 @@
       <c r="B174" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -6908,7 +7552,7 @@
       <c r="B175" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D175" s="3" t="s">
@@ -6928,7 +7572,7 @@
       <c r="B176" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D176" s="3" t="s">
@@ -6948,7 +7592,7 @@
       <c r="B177" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D177" s="3" t="s">
@@ -6968,7 +7612,7 @@
       <c r="B178" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D178" s="3" t="s">
@@ -6988,7 +7632,7 @@
       <c r="B179" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D179" s="3" t="s">
@@ -7008,7 +7652,7 @@
       <c r="B180" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D180" s="3" t="s">
@@ -7028,7 +7672,7 @@
       <c r="B181" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -7048,7 +7692,7 @@
       <c r="B182" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D182" s="3" t="s">
@@ -7068,7 +7712,7 @@
       <c r="B183" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D183" s="3" t="s">
@@ -7088,7 +7732,7 @@
       <c r="B184" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D184" s="3" t="s">
@@ -7108,7 +7752,7 @@
       <c r="B185" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D185" s="3" t="s">
@@ -7128,7 +7772,7 @@
       <c r="B186" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -7148,7 +7792,7 @@
       <c r="B187" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="10" t="s">
         <v>398</v>
       </c>
       <c r="D187" s="3" t="s">
@@ -7168,7 +7812,7 @@
       <c r="B188" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D188" s="3" t="s">
@@ -7188,7 +7832,7 @@
       <c r="B189" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="10" t="s">
         <v>584</v>
       </c>
       <c r="D189" s="3" t="s">
@@ -7208,7 +7852,7 @@
       <c r="B190" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="10" t="s">
         <v>584</v>
       </c>
       <c r="D190" s="3" t="s">
@@ -7228,7 +7872,7 @@
       <c r="B191" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="10" t="s">
         <v>584</v>
       </c>
       <c r="D191" s="3" t="s">
@@ -7248,7 +7892,7 @@
       <c r="B192" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="10" t="s">
         <v>584</v>
       </c>
       <c r="D192" s="3" t="s">
@@ -7262,7 +7906,7 @@
       <c r="B193" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D193" s="3" t="s">
@@ -7282,7 +7926,7 @@
       <c r="B194" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="10" t="s">
         <v>824</v>
       </c>
       <c r="D194" s="3" t="s">
@@ -7302,7 +7946,7 @@
       <c r="B195" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="10" t="s">
         <v>824</v>
       </c>
       <c r="D195" s="3" t="s">
@@ -7322,7 +7966,7 @@
       <c r="B196" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="10" t="s">
         <v>824</v>
       </c>
       <c r="D196" s="3" t="s">
@@ -7342,7 +7986,7 @@
       <c r="B197" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="10" t="s">
         <v>824</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -7362,7 +8006,7 @@
       <c r="B198" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="10" t="s">
         <v>825</v>
       </c>
       <c r="D198" s="5" t="s">
@@ -7382,7 +8026,7 @@
       <c r="B199" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="10" t="s">
         <v>825</v>
       </c>
       <c r="D199" s="5" t="s">
@@ -7402,7 +8046,7 @@
       <c r="B200" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="10" t="s">
         <v>825</v>
       </c>
       <c r="D200" s="5" t="s">
@@ -7422,7 +8066,7 @@
       <c r="B201" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="10" t="s">
         <v>825</v>
       </c>
       <c r="D201" s="5" t="s">
@@ -7442,7 +8086,7 @@
       <c r="B202" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="10" t="s">
         <v>830</v>
       </c>
       <c r="D202" s="5" t="s">
@@ -7462,7 +8106,7 @@
       <c r="B203" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="10" t="s">
         <v>830</v>
       </c>
       <c r="D203" s="5" t="s">
@@ -7482,7 +8126,7 @@
       <c r="B204" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="10" t="s">
         <v>830</v>
       </c>
       <c r="D204" s="5" t="s">
@@ -7502,7 +8146,7 @@
       <c r="B205" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="10" t="s">
         <v>830</v>
       </c>
       <c r="D205" s="5" t="s">
@@ -7522,7 +8166,7 @@
       <c r="B206" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="10" t="s">
         <v>835</v>
       </c>
       <c r="D206" s="5" t="s">
@@ -7542,7 +8186,7 @@
       <c r="B207" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="10" t="s">
         <v>835</v>
       </c>
       <c r="D207" s="3" t="s">
@@ -7562,7 +8206,7 @@
       <c r="B208" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="10" t="s">
         <v>835</v>
       </c>
       <c r="D208" s="3" t="s">
@@ -7582,7 +8226,7 @@
       <c r="B209" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="10" t="s">
         <v>835</v>
       </c>
       <c r="D209" s="3" t="s">
@@ -7602,7 +8246,7 @@
       <c r="B210" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D210" s="3" t="s">
@@ -7622,7 +8266,7 @@
       <c r="B211" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="10" t="s">
         <v>402</v>
       </c>
       <c r="D211" s="3" t="s">
@@ -7642,7 +8286,7 @@
       <c r="B212" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="10" t="s">
         <v>402</v>
       </c>
       <c r="D212" s="3" t="s">
@@ -7662,7 +8306,7 @@
       <c r="B213" t="s">
         <v>211</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="10" t="s">
         <v>402</v>
       </c>
       <c r="D213" s="3" t="s">
@@ -7682,7 +8326,7 @@
       <c r="B214" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="10" t="s">
         <v>402</v>
       </c>
       <c r="D214" s="3" t="s">
@@ -7702,7 +8346,7 @@
       <c r="B215" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="10" t="s">
         <v>399</v>
       </c>
       <c r="D215" s="3" t="s">
@@ -7722,7 +8366,7 @@
       <c r="B216" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="10" t="s">
         <v>399</v>
       </c>
       <c r="D216" s="3" t="s">
@@ -7742,7 +8386,7 @@
       <c r="B217" t="s">
         <v>215</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="10" t="s">
         <v>399</v>
       </c>
       <c r="D217" s="3" t="s">
@@ -7762,7 +8406,7 @@
       <c r="B218" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="10" t="s">
         <v>399</v>
       </c>
       <c r="D218" s="3" t="s">
@@ -7782,7 +8426,7 @@
       <c r="B219" t="s">
         <v>217</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D219" s="3" t="s">
@@ -7802,7 +8446,7 @@
       <c r="B220" t="s">
         <v>218</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D220" s="3" t="s">
@@ -7822,7 +8466,7 @@
       <c r="B221" t="s">
         <v>219</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D221" s="3" t="s">
@@ -7842,7 +8486,7 @@
       <c r="B222" t="s">
         <v>220</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D222" s="3" t="s">
@@ -7862,7 +8506,7 @@
       <c r="B223" t="s">
         <v>221</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D223" s="3" t="s">
@@ -7882,7 +8526,7 @@
       <c r="B224" t="s">
         <v>222</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D224" s="3" t="s">
@@ -7902,7 +8546,7 @@
       <c r="B225" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D225" s="3" t="s">
@@ -7922,7 +8566,7 @@
       <c r="B226" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D226" s="3" t="s">
@@ -7942,7 +8586,7 @@
       <c r="B227" t="s">
         <v>225</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D227" s="3" t="s">
@@ -7962,7 +8606,7 @@
       <c r="B228" t="s">
         <v>226</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="10" t="s">
         <v>400</v>
       </c>
       <c r="D228" s="3" t="s">
@@ -7982,7 +8626,7 @@
       <c r="B229" t="s">
         <v>227</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="10" t="s">
         <v>401</v>
       </c>
       <c r="D229" s="3" t="s">
@@ -8002,7 +8646,7 @@
       <c r="B230" t="s">
         <v>228</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D230" s="3" t="s">
@@ -8022,7 +8666,7 @@
       <c r="B231" t="s">
         <v>229</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D231" s="3" t="s">
@@ -8042,7 +8686,7 @@
       <c r="B232" t="s">
         <v>230</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D232" s="3" t="s">
@@ -8062,7 +8706,7 @@
       <c r="B233" t="s">
         <v>231</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D233" s="3" t="s">
@@ -8082,7 +8726,7 @@
       <c r="B234" t="s">
         <v>232</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D234" s="3" t="s">
@@ -8102,7 +8746,7 @@
       <c r="B235" t="s">
         <v>233</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D235" s="3" t="s">
@@ -8122,7 +8766,7 @@
       <c r="B236" t="s">
         <v>234</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D236" s="3" t="s">
@@ -8142,7 +8786,7 @@
       <c r="B237" t="s">
         <v>235</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D237" s="3" t="s">
@@ -8162,7 +8806,7 @@
       <c r="B238" t="s">
         <v>236</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D238" s="3" t="s">
@@ -8182,7 +8826,7 @@
       <c r="B239" t="s">
         <v>237</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D239" s="3" t="s">
@@ -8202,7 +8846,7 @@
       <c r="B240" t="s">
         <v>238</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D240" s="3" t="s">
@@ -8222,7 +8866,7 @@
       <c r="B241" t="s">
         <v>239</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D241" s="3" t="s">
@@ -8242,7 +8886,7 @@
       <c r="B242" t="s">
         <v>240</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D242" s="3" t="s">
@@ -8262,7 +8906,7 @@
       <c r="B243" t="s">
         <v>241</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D243" s="3" t="s">
@@ -8282,7 +8926,7 @@
       <c r="B244" t="s">
         <v>242</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="10" t="s">
         <v>403</v>
       </c>
       <c r="D244" s="3" t="s">
@@ -8302,7 +8946,7 @@
       <c r="B245" t="s">
         <v>243</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="10" t="s">
         <v>401</v>
       </c>
       <c r="D245" s="3" t="s">
@@ -8322,7 +8966,7 @@
       <c r="B246" t="s">
         <v>244</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D246" s="3" t="s">
@@ -8342,7 +8986,7 @@
       <c r="B247" t="s">
         <v>245</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="10" t="s">
         <v>628</v>
       </c>
       <c r="D247" s="3" t="s">
@@ -8362,7 +9006,7 @@
       <c r="B248" t="s">
         <v>246</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="10" t="s">
         <v>629</v>
       </c>
       <c r="D248" s="3" t="s">
@@ -8382,7 +9026,7 @@
       <c r="B249" t="s">
         <v>247</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D249" s="3" t="s">
@@ -8402,7 +9046,7 @@
       <c r="B250" t="s">
         <v>248</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D250" s="3" t="s">
@@ -8422,7 +9066,7 @@
       <c r="B251" t="s">
         <v>249</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D251" s="3" t="s">
@@ -8442,7 +9086,7 @@
       <c r="B252" t="s">
         <v>250</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D252" s="3" t="s">
@@ -8462,7 +9106,7 @@
       <c r="B253" t="s">
         <v>251</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D253" s="3" t="s">
@@ -8482,7 +9126,7 @@
       <c r="B254" t="s">
         <v>252</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D254" s="3" t="s">
@@ -8502,7 +9146,7 @@
       <c r="B255" t="s">
         <v>253</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D255" s="3" t="s">
@@ -8522,7 +9166,7 @@
       <c r="B256" t="s">
         <v>254</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D256" s="3" t="s">
@@ -8542,7 +9186,7 @@
       <c r="B257" t="s">
         <v>255</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="10" t="s">
         <v>630</v>
       </c>
       <c r="D257" s="3" t="s">
@@ -8556,7 +9200,7 @@
       <c r="B258" t="s">
         <v>256</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="10" t="s">
         <v>639</v>
       </c>
       <c r="D258" s="3" t="s">
@@ -8576,7 +9220,7 @@
       <c r="B259" t="s">
         <v>257</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D259" s="3" t="s">
@@ -8596,7 +9240,7 @@
       <c r="B260" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="10" t="s">
         <v>627</v>
       </c>
       <c r="D260" s="3" t="s">
@@ -8616,7 +9260,7 @@
       <c r="B261" t="s">
         <v>259</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="10" t="s">
         <v>627</v>
       </c>
       <c r="D261" s="3" t="s">
@@ -8636,7 +9280,7 @@
       <c r="B262" t="s">
         <v>260</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="10" t="s">
         <v>627</v>
       </c>
       <c r="D262" s="3" t="s">
@@ -8656,7 +9300,7 @@
       <c r="B263" t="s">
         <v>261</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="10" t="s">
         <v>627</v>
       </c>
       <c r="D263" s="3" t="s">
@@ -8676,7 +9320,7 @@
       <c r="B264" t="s">
         <v>262</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="10" t="s">
         <v>627</v>
       </c>
       <c r="D264" s="3" t="s">
@@ -8690,7 +9334,7 @@
       <c r="B265" t="s">
         <v>263</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D265" s="3" t="s">
@@ -8710,7 +9354,7 @@
       <c r="B266" t="s">
         <v>264</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D266" s="3" t="s">
@@ -8730,7 +9374,7 @@
       <c r="B267" t="s">
         <v>265</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D267" s="3" t="s">
@@ -8750,7 +9394,7 @@
       <c r="B268" t="s">
         <v>266</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D268" s="3" t="s">
@@ -8770,7 +9414,7 @@
       <c r="B269" t="s">
         <v>267</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D269" s="3" t="s">
@@ -8790,7 +9434,7 @@
       <c r="B270" t="s">
         <v>268</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D270" s="3" t="s">
@@ -8810,7 +9454,7 @@
       <c r="B271" t="s">
         <v>269</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D271" s="3" t="s">
@@ -8830,7 +9474,7 @@
       <c r="B272" t="s">
         <v>270</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D272" s="3" t="s">
@@ -8850,7 +9494,7 @@
       <c r="B273" t="s">
         <v>271</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D273" s="3" t="s">
@@ -8870,7 +9514,7 @@
       <c r="B274" t="s">
         <v>272</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D274" s="3" t="s">
@@ -8890,7 +9534,7 @@
       <c r="B275" t="s">
         <v>273</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D275" s="3" t="s">
@@ -8910,7 +9554,7 @@
       <c r="B276" t="s">
         <v>274</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D276" s="3" t="s">
@@ -8930,7 +9574,7 @@
       <c r="B277" t="s">
         <v>275</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D277" s="3" t="s">
@@ -8950,7 +9594,7 @@
       <c r="B278" t="s">
         <v>276</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D278" s="3" t="s">
@@ -8970,7 +9614,7 @@
       <c r="B279" t="s">
         <v>277</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D279" s="3" t="s">
@@ -8990,7 +9634,7 @@
       <c r="B280" t="s">
         <v>278</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D280" s="3" t="s">
@@ -9010,7 +9654,7 @@
       <c r="B281" t="s">
         <v>279</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D281" s="3" t="s">
@@ -9030,7 +9674,7 @@
       <c r="B282" t="s">
         <v>280</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D282" s="3" t="s">
@@ -9044,7 +9688,7 @@
       <c r="B283" t="s">
         <v>281</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D283" s="3" t="s">
@@ -9058,7 +9702,7 @@
       <c r="B284" t="s">
         <v>282</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D284" s="3" t="s">
@@ -9072,7 +9716,7 @@
       <c r="B285" t="s">
         <v>283</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="10" t="s">
         <v>405</v>
       </c>
       <c r="D285" s="3" t="s">
@@ -9086,7 +9730,7 @@
       <c r="B286" t="s">
         <v>284</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D286" s="3" t="s">
@@ -9106,7 +9750,7 @@
       <c r="B287" t="s">
         <v>285</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D287" s="3" t="s">
@@ -9120,7 +9764,7 @@
       <c r="B288" t="s">
         <v>286</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D288" s="3" t="s">
@@ -9134,7 +9778,7 @@
       <c r="B289" t="s">
         <v>287</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D289" s="3" t="s">
@@ -9148,7 +9792,7 @@
       <c r="B290" t="s">
         <v>288</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="10" t="s">
         <v>406</v>
       </c>
       <c r="D290" s="3" t="s">
@@ -9162,7 +9806,7 @@
       <c r="B291" t="s">
         <v>289</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D291" s="3" t="s">
@@ -9182,7 +9826,7 @@
       <c r="B292" t="s">
         <v>290</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="10" t="s">
         <v>407</v>
       </c>
       <c r="D292" s="3" t="s">
@@ -9202,7 +9846,7 @@
       <c r="B293" t="s">
         <v>291</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="10" t="s">
         <v>408</v>
       </c>
       <c r="D293" s="3" t="s">
@@ -9222,7 +9866,7 @@
       <c r="B294" t="s">
         <v>292</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="10" t="s">
         <v>408</v>
       </c>
       <c r="D294" s="3" t="s">
@@ -9242,7 +9886,7 @@
       <c r="B295" t="s">
         <v>293</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="10" t="s">
         <v>408</v>
       </c>
       <c r="D295" s="3" t="s">
@@ -9262,7 +9906,7 @@
       <c r="B296" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="10" t="s">
         <v>408</v>
       </c>
       <c r="D296" s="3" t="s">
@@ -9282,7 +9926,7 @@
       <c r="B297" t="s">
         <v>295</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="10" t="s">
         <v>409</v>
       </c>
       <c r="D297" s="3" t="s">
@@ -9302,7 +9946,7 @@
       <c r="B298" t="s">
         <v>296</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="10" t="s">
         <v>409</v>
       </c>
       <c r="D298" s="3" t="s">
@@ -9322,7 +9966,7 @@
       <c r="B299" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="10" t="s">
         <v>409</v>
       </c>
       <c r="D299" s="3" t="s">
@@ -9342,7 +9986,7 @@
       <c r="B300" t="s">
         <v>298</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="10" t="s">
         <v>409</v>
       </c>
       <c r="D300" s="3" t="s">
@@ -9362,7 +10006,7 @@
       <c r="B301" t="s">
         <v>299</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="10" t="s">
         <v>409</v>
       </c>
       <c r="D301" s="3" t="s">
@@ -9382,7 +10026,7 @@
       <c r="B302" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="10" t="s">
         <v>409</v>
       </c>
       <c r="D302" s="3" t="s">
@@ -9402,7 +10046,7 @@
       <c r="B303" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D303" s="3" t="s">
@@ -9422,7 +10066,7 @@
       <c r="B304" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D304" s="3" t="s">
@@ -9442,7 +10086,7 @@
       <c r="B305" t="s">
         <v>303</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D305" s="3" t="s">
@@ -9462,7 +10106,7 @@
       <c r="B306" t="s">
         <v>304</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D306" s="3" t="s">
@@ -9482,7 +10126,7 @@
       <c r="B307" t="s">
         <v>305</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D307" s="3" t="s">
@@ -9502,7 +10146,7 @@
       <c r="B308" t="s">
         <v>306</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D308" s="3" t="s">
@@ -9522,7 +10166,7 @@
       <c r="B309" t="s">
         <v>307</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D309" s="3" t="s">
@@ -9542,7 +10186,7 @@
       <c r="B310" t="s">
         <v>308</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D310" s="3" t="s">
@@ -9562,7 +10206,7 @@
       <c r="B311" t="s">
         <v>309</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="10" t="s">
         <v>410</v>
       </c>
       <c r="D311" s="3" t="s">
@@ -9582,7 +10226,7 @@
       <c r="B312" t="s">
         <v>310</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D312" s="3" t="s">
@@ -9602,7 +10246,7 @@
       <c r="B313" t="s">
         <v>311</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="10" t="s">
         <v>686</v>
       </c>
       <c r="D313" s="3" t="s">
@@ -9622,7 +10266,7 @@
       <c r="B314" t="s">
         <v>312</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="10" t="s">
         <v>686</v>
       </c>
       <c r="D314" s="3" t="s">
@@ -9642,7 +10286,7 @@
       <c r="B315" t="s">
         <v>313</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="10" t="s">
         <v>686</v>
       </c>
       <c r="D315" s="3" t="s">
@@ -9662,7 +10306,7 @@
       <c r="B316" t="s">
         <v>314</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="10" t="s">
         <v>686</v>
       </c>
       <c r="D316" s="3" t="s">
@@ -9682,7 +10326,7 @@
       <c r="B317" t="s">
         <v>315</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="10" t="s">
         <v>691</v>
       </c>
       <c r="D317" s="3" t="s">
@@ -9702,7 +10346,7 @@
       <c r="B318" t="s">
         <v>316</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="10" t="s">
         <v>692</v>
       </c>
       <c r="D318" s="3" t="s">
@@ -9716,7 +10360,7 @@
       <c r="B319" t="s">
         <v>317</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="10" t="s">
         <v>694</v>
       </c>
       <c r="D319" s="3" t="s">
@@ -9736,7 +10380,7 @@
       <c r="B320" t="s">
         <v>318</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="10" t="s">
         <v>695</v>
       </c>
       <c r="D320" s="3" t="s">
@@ -9756,7 +10400,7 @@
       <c r="B321" t="s">
         <v>319</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="10" t="s">
         <v>696</v>
       </c>
       <c r="D321" s="3" t="s">
@@ -9770,7 +10414,7 @@
       <c r="B322" t="s">
         <v>320</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="10" t="s">
         <v>697</v>
       </c>
       <c r="D322" s="3" t="s">
@@ -9790,7 +10434,7 @@
       <c r="B323" t="s">
         <v>321</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="10" t="s">
         <v>698</v>
       </c>
       <c r="D323" s="3" t="s">
@@ -9810,7 +10454,7 @@
       <c r="B324" t="s">
         <v>322</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="10" t="s">
         <v>699</v>
       </c>
       <c r="D324" s="3" t="s">
@@ -9824,7 +10468,7 @@
       <c r="B325" t="s">
         <v>323</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="10" t="s">
         <v>700</v>
       </c>
       <c r="D325" s="3" t="s">
@@ -9844,7 +10488,7 @@
       <c r="B326" t="s">
         <v>324</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D326" s="3" t="s">
@@ -9864,7 +10508,7 @@
       <c r="B327" t="s">
         <v>325</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C327" s="11" t="s">
         <v>701</v>
       </c>
       <c r="D327" s="4" t="s">
@@ -9884,7 +10528,7 @@
       <c r="B328" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" s="11" t="s">
         <v>702</v>
       </c>
       <c r="D328" s="4" t="s">
@@ -9904,7 +10548,7 @@
       <c r="B329" t="s">
         <v>327</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C329" s="11" t="s">
         <v>701</v>
       </c>
       <c r="D329" s="4" t="s">
@@ -9924,7 +10568,7 @@
       <c r="B330" t="s">
         <v>328</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="10" t="s">
         <v>705</v>
       </c>
       <c r="D330" s="3" t="s">
@@ -9944,7 +10588,7 @@
       <c r="B331" t="s">
         <v>329</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="10" t="s">
         <v>705</v>
       </c>
       <c r="D331" s="3" t="s">
@@ -9964,7 +10608,7 @@
       <c r="B332" t="s">
         <v>330</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="10" t="s">
         <v>705</v>
       </c>
       <c r="D332" s="3" t="s">
@@ -9984,7 +10628,7 @@
       <c r="B333" t="s">
         <v>331</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="10" t="s">
         <v>709</v>
       </c>
       <c r="D333" s="3" t="s">
@@ -10004,7 +10648,7 @@
       <c r="B334" t="s">
         <v>332</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="10" t="s">
         <v>709</v>
       </c>
       <c r="D334" s="3" t="s">
@@ -10018,7 +10662,7 @@
       <c r="B335" t="s">
         <v>333</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="10" t="s">
         <v>709</v>
       </c>
       <c r="D335" s="3" t="s">
@@ -10032,7 +10676,7 @@
       <c r="B336" t="s">
         <v>334</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="10" t="s">
         <v>712</v>
       </c>
       <c r="D336" s="3" t="s">
@@ -10052,7 +10696,7 @@
       <c r="B337" t="s">
         <v>335</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C337" s="11" t="s">
         <v>818</v>
       </c>
       <c r="D337" s="3" t="s">
@@ -10072,7 +10716,7 @@
       <c r="B338" t="s">
         <v>336</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="C338" s="11" t="s">
         <v>818</v>
       </c>
       <c r="D338" s="3" t="s">
@@ -10086,7 +10730,7 @@
       <c r="B339" t="s">
         <v>337</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C339" s="11" t="s">
         <v>818</v>
       </c>
       <c r="D339" s="3" t="s">
@@ -10100,7 +10744,7 @@
       <c r="B340" t="s">
         <v>338</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="10" t="s">
         <v>713</v>
       </c>
       <c r="D340" s="3" t="s">
@@ -10120,7 +10764,7 @@
       <c r="B341" t="s">
         <v>339</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="10" t="s">
         <v>713</v>
       </c>
       <c r="D341" s="3" t="s">
@@ -10134,7 +10778,7 @@
       <c r="B342" t="s">
         <v>340</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="10" t="s">
         <v>713</v>
       </c>
       <c r="D342" s="3" t="s">
@@ -10148,7 +10792,7 @@
       <c r="B343" t="s">
         <v>341</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="10" t="s">
         <v>714</v>
       </c>
       <c r="D343" s="3" t="s">
@@ -10168,7 +10812,7 @@
       <c r="B344" t="s">
         <v>342</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="10" t="s">
         <v>714</v>
       </c>
       <c r="D344" s="3" t="s">
@@ -10182,7 +10826,7 @@
       <c r="B345" t="s">
         <v>343</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="10" t="s">
         <v>714</v>
       </c>
       <c r="D345" s="3" t="s">
@@ -10196,7 +10840,7 @@
       <c r="B346" t="s">
         <v>344</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D346" s="3" t="s">
@@ -10216,7 +10860,7 @@
       <c r="B347" t="s">
         <v>345</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" s="10" t="s">
         <v>411</v>
       </c>
       <c r="D347" s="3" t="s">
@@ -10236,7 +10880,7 @@
       <c r="B348" t="s">
         <v>346</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" s="10" t="s">
         <v>411</v>
       </c>
       <c r="D348" s="3" t="s">
@@ -10256,7 +10900,7 @@
       <c r="B349" t="s">
         <v>347</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" s="10" t="s">
         <v>411</v>
       </c>
       <c r="D349" s="3" t="s">
@@ -10276,7 +10920,7 @@
       <c r="B350" t="s">
         <v>348</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="10" t="s">
         <v>411</v>
       </c>
       <c r="D350" s="3" t="s">
@@ -10296,7 +10940,7 @@
       <c r="B351" t="s">
         <v>349</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C351" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D351" s="3" t="s">
@@ -10316,7 +10960,7 @@
       <c r="B352" t="s">
         <v>350</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C352" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D352" s="3" t="s">
@@ -10336,7 +10980,7 @@
       <c r="B353" t="s">
         <v>351</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D353" s="3" t="s">
@@ -10356,7 +11000,7 @@
       <c r="B354" t="s">
         <v>352</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C354" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D354" s="3" t="s">
@@ -10376,7 +11020,7 @@
       <c r="B355" t="s">
         <v>353</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C355" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D355" s="3" t="s">
@@ -10396,7 +11040,7 @@
       <c r="B356" t="s">
         <v>354</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C356" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D356" s="3" t="s">
@@ -10416,7 +11060,7 @@
       <c r="B357" t="s">
         <v>355</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C357" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D357" s="3" t="s">
@@ -10436,7 +11080,7 @@
       <c r="B358" t="s">
         <v>356</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C358" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D358" s="3" t="s">
@@ -10456,7 +11100,7 @@
       <c r="B359" t="s">
         <v>357</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C359" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D359" s="3" t="s">
@@ -10476,7 +11120,7 @@
       <c r="B360" t="s">
         <v>358</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C360" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D360" s="3" t="s">
@@ -10496,14 +11140,14 @@
       <c r="B361" t="s">
         <v>851</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C361" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>897</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>757</v>
@@ -10516,14 +11160,14 @@
       <c r="B362" t="s">
         <v>852</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C362" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>898</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F362" s="5" t="s">
         <v>757</v>
@@ -10536,14 +11180,14 @@
       <c r="B363" t="s">
         <v>853</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C363" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>899</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>757</v>
@@ -10556,14 +11200,14 @@
       <c r="B364" t="s">
         <v>854</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C364" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>900</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>757</v>
@@ -10576,14 +11220,14 @@
       <c r="B365" t="s">
         <v>855</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C365" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>901</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>757</v>
@@ -10596,14 +11240,14 @@
       <c r="B366" t="s">
         <v>856</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C366" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>902</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>757</v>
@@ -10616,14 +11260,14 @@
       <c r="B367" t="s">
         <v>857</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C367" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>903</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>757</v>
@@ -10636,14 +11280,14 @@
       <c r="B368" t="s">
         <v>858</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C368" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>904</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>934</v>
+        <v>1249</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>757</v>
@@ -10656,14 +11300,14 @@
       <c r="B369" t="s">
         <v>859</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C369" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>913</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F369" s="5" t="s">
         <v>757</v>
@@ -10676,14 +11320,14 @@
       <c r="B370" t="s">
         <v>860</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C370" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>905</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F370" s="5" t="s">
         <v>757</v>
@@ -10696,14 +11340,14 @@
       <c r="B371" t="s">
         <v>861</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>906</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F371" s="5" t="s">
         <v>757</v>
@@ -10716,14 +11360,14 @@
       <c r="B372" t="s">
         <v>862</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>907</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F372" s="5" t="s">
         <v>757</v>
@@ -10736,14 +11380,14 @@
       <c r="B373" t="s">
         <v>863</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C373" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>908</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F373" s="5" t="s">
         <v>757</v>
@@ -10756,14 +11400,14 @@
       <c r="B374" t="s">
         <v>864</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C374" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>909</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F374" s="5" t="s">
         <v>757</v>
@@ -10776,14 +11420,14 @@
       <c r="B375" t="s">
         <v>865</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C375" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>910</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F375" s="5" t="s">
         <v>757</v>
@@ -10796,14 +11440,14 @@
       <c r="B376" t="s">
         <v>866</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C376" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>911</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F376" s="5" t="s">
         <v>757</v>
@@ -10816,14 +11460,14 @@
       <c r="B377" t="s">
         <v>867</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>912</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F377" s="5" t="s">
         <v>757</v>
@@ -10836,14 +11480,14 @@
       <c r="B378" t="s">
         <v>868</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C378" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>914</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F378" s="5" t="s">
         <v>757</v>
@@ -10856,14 +11500,14 @@
       <c r="B379" t="s">
         <v>869</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C379" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>915</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F379" s="5" t="s">
         <v>757</v>
@@ -10876,14 +11520,14 @@
       <c r="B380" t="s">
         <v>870</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C380" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>916</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F380" s="5" t="s">
         <v>757</v>
@@ -10896,14 +11540,14 @@
       <c r="B381" t="s">
         <v>871</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>917</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F381" s="5" t="s">
         <v>757</v>
@@ -10916,14 +11560,14 @@
       <c r="B382" t="s">
         <v>872</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="C382" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>918</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F382" s="5" t="s">
         <v>757</v>
@@ -10936,14 +11580,14 @@
       <c r="B383" t="s">
         <v>873</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>919</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F383" s="5" t="s">
         <v>757</v>
@@ -10956,14 +11600,14 @@
       <c r="B384" t="s">
         <v>874</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>920</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F384" s="5" t="s">
         <v>757</v>
@@ -10976,14 +11620,14 @@
       <c r="B385" t="s">
         <v>875</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C385" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>921</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F385" s="5" t="s">
         <v>757</v>
@@ -10996,14 +11640,14 @@
       <c r="B386" t="s">
         <v>876</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C386" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>922</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F386" s="5" t="s">
         <v>757</v>
@@ -11016,14 +11660,14 @@
       <c r="B387" t="s">
         <v>877</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C387" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>923</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F387" s="5" t="s">
         <v>757</v>
@@ -11036,14 +11680,14 @@
       <c r="B388" t="s">
         <v>878</v>
       </c>
-      <c r="C388" s="3" t="s">
+      <c r="C388" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>924</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F388" s="5" t="s">
         <v>757</v>
@@ -11056,14 +11700,14 @@
       <c r="B389" t="s">
         <v>879</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C389" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>925</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F389" s="5" t="s">
         <v>757</v>
@@ -11076,7 +11720,7 @@
       <c r="B390" t="s">
         <v>880</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C390" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D390" s="3" t="s">
@@ -11090,14 +11734,14 @@
       <c r="B391" t="s">
         <v>881</v>
       </c>
-      <c r="C391" s="3" t="s">
+      <c r="C391" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>927</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F391" s="5" t="s">
         <v>775</v>
@@ -11110,7 +11754,7 @@
       <c r="B392" t="s">
         <v>882</v>
       </c>
-      <c r="C392" s="3" t="s">
+      <c r="C392" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D392" s="3" t="s">
@@ -11124,7 +11768,7 @@
       <c r="B393" t="s">
         <v>883</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C393" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D393" s="3" t="s">
@@ -11138,7 +11782,7 @@
       <c r="B394" t="s">
         <v>884</v>
       </c>
-      <c r="C394" s="3" t="s">
+      <c r="C394" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D394" s="3" t="s">
@@ -11152,7 +11796,7 @@
       <c r="B395" t="s">
         <v>885</v>
       </c>
-      <c r="C395" s="3" t="s">
+      <c r="C395" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D395" s="3" t="s">
@@ -11172,7 +11816,7 @@
       <c r="B396" t="s">
         <v>886</v>
       </c>
-      <c r="C396" s="3" t="s">
+      <c r="C396" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D396" s="3" t="s">
@@ -11192,7 +11836,7 @@
       <c r="B397" t="s">
         <v>887</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C397" s="10" t="s">
         <v>891</v>
       </c>
       <c r="D397" s="3" t="s">
@@ -11212,7 +11856,7 @@
       <c r="B398" t="s">
         <v>888</v>
       </c>
-      <c r="C398" s="3" t="s">
+      <c r="C398" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D398" s="3" t="s">
@@ -11221,252 +11865,252 @@
     </row>
     <row r="399" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
+        <v>936</v>
+      </c>
+      <c r="B399" t="s">
         <v>937</v>
       </c>
-      <c r="B399" t="s">
-        <v>938</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>951</v>
+      <c r="C399" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E399" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F399" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F399" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B400" t="s">
-        <v>939</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>951</v>
+        <v>938</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B401" t="s">
-        <v>940</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>951</v>
+        <v>939</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E401" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F401" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F401" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B402" t="s">
-        <v>941</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>951</v>
+        <v>940</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E402" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F402" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F402" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B403" t="s">
-        <v>942</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>951</v>
+        <v>941</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B404" t="s">
-        <v>943</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>951</v>
+        <v>942</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B405" t="s">
-        <v>944</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>952</v>
+        <v>943</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E405" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F405" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F405" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B406" t="s">
-        <v>945</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>952</v>
+        <v>944</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B407" t="s">
-        <v>946</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>952</v>
+        <v>945</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E407" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F407" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F407" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B408" t="s">
-        <v>947</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>952</v>
+        <v>946</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E408" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F408" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F408" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B409" t="s">
-        <v>948</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>952</v>
+        <v>947</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B410" t="s">
-        <v>949</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B411" t="s">
-        <v>950</v>
-      </c>
-      <c r="C411" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C411" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D411" s="3" t="s">
@@ -11481,132 +12125,132 @@
     </row>
     <row r="412" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>968</v>
+      </c>
+      <c r="B412" t="s">
         <v>969</v>
       </c>
-      <c r="B412" t="s">
-        <v>970</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>976</v>
+      <c r="C412" s="10" t="s">
+        <v>975</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E412" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F412" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F412" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B413" t="s">
-        <v>971</v>
-      </c>
-      <c r="C413" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="D413" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="D413" s="3" t="s">
-        <v>977</v>
-      </c>
       <c r="E413" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F413" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F413" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B414" t="s">
-        <v>972</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>975</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E414" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F414" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F414" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B415" t="s">
-        <v>973</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>952</v>
+        <v>972</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E415" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F415" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F415" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B416" t="s">
-        <v>974</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E416" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F416" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F416" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B417" t="s">
-        <v>975</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>952</v>
+        <v>974</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E417" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F417" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="F417" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B418" t="s">
-        <v>982</v>
-      </c>
-      <c r="C418" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C418" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D418" s="3" t="s">
@@ -11621,19 +12265,19 @@
     </row>
     <row r="419" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>982</v>
+      </c>
+      <c r="B419" t="s">
         <v>983</v>
       </c>
-      <c r="B419" t="s">
-        <v>984</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>1000</v>
+      <c r="C419" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F419" s="5" t="s">
         <v>757</v>
@@ -11641,19 +12285,19 @@
     </row>
     <row r="420" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B420" t="s">
-        <v>985</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>1000</v>
+        <v>984</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F420" s="5" t="s">
         <v>757</v>
@@ -11661,19 +12305,19 @@
     </row>
     <row r="421" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B421" t="s">
-        <v>986</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>1000</v>
+        <v>985</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>757</v>
@@ -11681,16 +12325,16 @@
     </row>
     <row r="422" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B422" t="s">
-        <v>987</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>1000</v>
+        <v>986</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>726</v>
@@ -11701,33 +12345,33 @@
     </row>
     <row r="423" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B423" t="s">
-        <v>988</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>1000</v>
+        <v>987</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B424" t="s">
-        <v>989</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>1001</v>
+        <v>988</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F424" s="5" t="s">
         <v>757</v>
@@ -11735,19 +12379,19 @@
     </row>
     <row r="425" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B425" t="s">
-        <v>990</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>1001</v>
+        <v>989</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F425" s="5" t="s">
         <v>757</v>
@@ -11755,19 +12399,19 @@
     </row>
     <row r="426" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B426" t="s">
-        <v>991</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>1001</v>
+        <v>990</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E426" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F426" s="5" t="s">
         <v>757</v>
@@ -11775,16 +12419,16 @@
     </row>
     <row r="427" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B427" t="s">
-        <v>992</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>1001</v>
+        <v>991</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E427" s="5" t="s">
         <v>726</v>
@@ -11795,33 +12439,33 @@
     </row>
     <row r="428" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B428" t="s">
-        <v>993</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>1001</v>
+        <v>992</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B429" t="s">
-        <v>994</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>1002</v>
+        <v>993</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F429" s="5" t="s">
         <v>757</v>
@@ -11829,33 +12473,33 @@
     </row>
     <row r="430" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B430" t="s">
-        <v>995</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>1002</v>
+        <v>994</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B431" t="s">
-        <v>996</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>1002</v>
+        <v>995</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F431" s="5" t="s">
         <v>757</v>
@@ -11863,19 +12507,19 @@
     </row>
     <row r="432" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B432" t="s">
-        <v>997</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>1002</v>
+        <v>996</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F432" s="5" t="s">
         <v>757</v>
@@ -11883,16 +12527,16 @@
     </row>
     <row r="433" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B433" t="s">
-        <v>998</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E433" s="5" t="s">
         <v>726</v>
@@ -11903,12 +12547,12 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B434" t="s">
-        <v>999</v>
-      </c>
-      <c r="C434" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C434" s="10" t="s">
         <v>389</v>
       </c>
       <c r="D434" s="3" t="s">
@@ -11923,19 +12567,19 @@
     </row>
     <row r="435" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B435" t="s">
         <v>1015</v>
       </c>
-      <c r="B435" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>1033</v>
+      <c r="C435" s="10" t="s">
+        <v>1030</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F435" s="5" t="s">
         <v>763</v>
@@ -11943,169 +12587,2903 @@
     </row>
     <row r="436" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B436" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C436" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F436" s="5" t="s">
         <v>1033</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E436" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F436" s="5" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B437" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>1033</v>
+        <v>1070</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1028</v>
+        <v>1092</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B438" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>1033</v>
+        <v>1071</v>
+      </c>
+      <c r="C438" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1029</v>
+        <v>519</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>771</v>
+        <v>821</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>759</v>
+        <v>822</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B439" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>1033</v>
+        <v>1072</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B440" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>1033</v>
+        <v>1073</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>1038</v>
+        <v>821</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B441" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>1033</v>
+        <v>1074</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1030</v>
+        <v>841</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>1038</v>
+        <v>821</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B442" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>1033</v>
+        <v>1075</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1031</v>
+        <v>522</v>
       </c>
       <c r="E442" s="5" t="s">
-        <v>1038</v>
+        <v>821</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B443" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>1033</v>
+        <v>1076</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1032</v>
+        <v>525</v>
       </c>
       <c r="E443" s="5" t="s">
-        <v>1038</v>
+        <v>821</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>757</v>
+        <v>822</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B444" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C444" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="D444" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E445" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C456" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E459" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C466" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D444" s="3" t="s">
+      <c r="D466" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E444" s="5" t="s">
+      <c r="E466" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F444" s="5" t="s">
+      <c r="F466" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C468" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E469" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C470" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E471" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C472" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C476" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E477" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E481" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E519" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E521" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E523" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E525" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C526" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E531" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C534" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E535" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E537" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E539" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C540" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E541" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C542" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E545" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C546" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E547" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E551" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E553" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C556" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E557" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C558" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E563" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C564" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E565" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C566" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C568" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C570" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C572" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C574" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C576" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E577" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C578" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C580" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E581" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C584" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F584" s="5" t="s">
         <v>729</v>
       </c>
     </row>

--- a/data/fff-question-lookup.xlsx
+++ b/data/fff-question-lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birminghamcitycouncil-my.sharepoint.com/personal/david_ellis_birmingham_gov_uk/Documents/Documents/Main work/FFF-RedCap/FFF-RedCap-data-processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1934" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958E97CD-2D6D-4629-B979-F25F5EAFA873}"/>
+  <xr:revisionPtr revIDLastSave="1936" documentId="11_F25DC773A252ABDACC1048C4315C7F365BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C2912A-2115-4BF3-A885-D54FEF52542E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1410" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4206,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F584"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10953,24 +10953,24 @@
         <v>729</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B352" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -10978,13 +10978,13 @@
         <v>386</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C353" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E353" s="5" t="s">
         <v>756</v>
@@ -10998,13 +10998,13 @@
         <v>386</v>
       </c>
       <c r="B354" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C354" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>756</v>
@@ -11018,13 +11018,13 @@
         <v>386</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C355" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E355" s="5" t="s">
         <v>756</v>
@@ -11038,13 +11038,13 @@
         <v>386</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C356" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>756</v>
@@ -11058,13 +11058,13 @@
         <v>386</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C357" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E357" s="5" t="s">
         <v>756</v>
@@ -11078,13 +11078,13 @@
         <v>386</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C358" s="10" t="s">
         <v>412</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>756</v>
@@ -11093,44 +11093,44 @@
         <v>757</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>386</v>
       </c>
       <c r="B359" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="F359" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>850</v>
+      </c>
+      <c r="B360" t="s">
+        <v>851</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F360" s="5" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>386</v>
-      </c>
-      <c r="B360" t="s">
-        <v>358</v>
-      </c>
-      <c r="C360" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="F360" s="5" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -11138,13 +11138,13 @@
         <v>850</v>
       </c>
       <c r="B361" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C361" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>1249</v>
@@ -11158,13 +11158,13 @@
         <v>850</v>
       </c>
       <c r="B362" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C362" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>1249</v>
@@ -11178,13 +11178,13 @@
         <v>850</v>
       </c>
       <c r="B363" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C363" s="10" t="s">
         <v>896</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>1249</v>
@@ -11193,18 +11193,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>850</v>
       </c>
       <c r="B364" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>1249</v>
@@ -11218,13 +11218,13 @@
         <v>850</v>
       </c>
       <c r="B365" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C365" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E365" s="5" t="s">
         <v>1249</v>
@@ -11238,13 +11238,13 @@
         <v>850</v>
       </c>
       <c r="B366" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C366" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>1249</v>
@@ -11258,13 +11258,13 @@
         <v>850</v>
       </c>
       <c r="B367" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C367" s="10" t="s">
         <v>895</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E367" s="5" t="s">
         <v>1249</v>
@@ -11273,21 +11273,21 @@
         <v>757</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>850</v>
       </c>
       <c r="B368" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>1249</v>
+        <v>934</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>757</v>
@@ -11298,13 +11298,13 @@
         <v>850</v>
       </c>
       <c r="B369" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C369" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E369" s="5" t="s">
         <v>934</v>
@@ -11318,13 +11318,13 @@
         <v>850</v>
       </c>
       <c r="B370" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C370" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>934</v>
@@ -11338,13 +11338,13 @@
         <v>850</v>
       </c>
       <c r="B371" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C371" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E371" s="5" t="s">
         <v>934</v>
@@ -11358,13 +11358,13 @@
         <v>850</v>
       </c>
       <c r="B372" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C372" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>934</v>
@@ -11373,18 +11373,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>850</v>
       </c>
       <c r="B373" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E373" s="5" t="s">
         <v>934</v>
@@ -11398,13 +11398,13 @@
         <v>850</v>
       </c>
       <c r="B374" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C374" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>934</v>
@@ -11418,13 +11418,13 @@
         <v>850</v>
       </c>
       <c r="B375" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C375" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E375" s="5" t="s">
         <v>934</v>
@@ -11438,13 +11438,13 @@
         <v>850</v>
       </c>
       <c r="B376" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C376" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>934</v>
@@ -11453,18 +11453,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>850</v>
       </c>
       <c r="B377" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C377" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E377" s="5" t="s">
         <v>934</v>
@@ -11473,18 +11473,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>850</v>
       </c>
       <c r="B378" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C378" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>934</v>
@@ -11498,13 +11498,13 @@
         <v>850</v>
       </c>
       <c r="B379" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C379" s="10" t="s">
         <v>893</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>934</v>
@@ -11513,18 +11513,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>850</v>
       </c>
       <c r="B380" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>934</v>
@@ -11538,13 +11538,13 @@
         <v>850</v>
       </c>
       <c r="B381" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C381" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E381" s="5" t="s">
         <v>934</v>
@@ -11558,13 +11558,13 @@
         <v>850</v>
       </c>
       <c r="B382" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C382" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>934</v>
@@ -11578,13 +11578,13 @@
         <v>850</v>
       </c>
       <c r="B383" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C383" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E383" s="5" t="s">
         <v>934</v>
@@ -11598,13 +11598,13 @@
         <v>850</v>
       </c>
       <c r="B384" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C384" s="10" t="s">
         <v>892</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>934</v>
@@ -11613,18 +11613,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>850</v>
       </c>
       <c r="B385" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>934</v>
@@ -11638,13 +11638,13 @@
         <v>850</v>
       </c>
       <c r="B386" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C386" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>934</v>
@@ -11658,13 +11658,13 @@
         <v>850</v>
       </c>
       <c r="B387" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C387" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>934</v>
@@ -11678,13 +11678,13 @@
         <v>850</v>
       </c>
       <c r="B388" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C388" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>934</v>
@@ -11698,33 +11698,33 @@
         <v>850</v>
       </c>
       <c r="B389" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C389" s="10" t="s">
         <v>890</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="E389" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="F389" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>850</v>
       </c>
       <c r="B390" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -11732,19 +11732,13 @@
         <v>850</v>
       </c>
       <c r="B391" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C391" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="E391" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="F391" s="5" t="s">
-        <v>775</v>
+        <v>928</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -11752,13 +11746,13 @@
         <v>850</v>
       </c>
       <c r="B392" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C392" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -11766,13 +11760,13 @@
         <v>850</v>
       </c>
       <c r="B393" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C393" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -11780,13 +11774,19 @@
         <v>850</v>
       </c>
       <c r="B394" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C394" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -11794,13 +11794,13 @@
         <v>850</v>
       </c>
       <c r="B395" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C395" s="10" t="s">
         <v>889</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E395" s="5" t="s">
         <v>726</v>
@@ -11809,95 +11809,95 @@
         <v>727</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>850</v>
       </c>
       <c r="B396" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>850</v>
       </c>
       <c r="B397" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>891</v>
+        <v>389</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="E397" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>850</v>
+        <v>936</v>
       </c>
       <c r="B398" t="s">
-        <v>888</v>
+        <v>937</v>
       </c>
       <c r="C398" s="10" t="s">
-        <v>389</v>
+        <v>950</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>952</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>936</v>
       </c>
       <c r="B399" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C399" s="10" t="s">
         <v>950</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F399" s="5" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>936</v>
       </c>
       <c r="B400" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C400" s="10" t="s">
         <v>950</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F400" s="5" t="s">
         <v>965</v>
@@ -11908,13 +11908,13 @@
         <v>936</v>
       </c>
       <c r="B401" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C401" s="10" t="s">
         <v>950</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E401" s="5" t="s">
         <v>964</v>
@@ -11928,16 +11928,16 @@
         <v>936</v>
       </c>
       <c r="B402" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C402" s="10" t="s">
         <v>950</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F402" s="5" t="s">
         <v>965</v>
@@ -11948,13 +11948,13 @@
         <v>936</v>
       </c>
       <c r="B403" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C403" s="10" t="s">
         <v>950</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E403" s="5" t="s">
         <v>967</v>
@@ -11968,56 +11968,56 @@
         <v>936</v>
       </c>
       <c r="B404" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>936</v>
       </c>
       <c r="B405" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C405" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F405" s="5" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>936</v>
       </c>
       <c r="B406" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E406" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F406" s="5" t="s">
         <v>965</v>
@@ -12028,13 +12028,13 @@
         <v>936</v>
       </c>
       <c r="B407" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C407" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E407" s="5" t="s">
         <v>964</v>
@@ -12048,16 +12048,16 @@
         <v>936</v>
       </c>
       <c r="B408" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C408" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F408" s="5" t="s">
         <v>965</v>
@@ -12068,13 +12068,13 @@
         <v>936</v>
       </c>
       <c r="B409" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C409" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E409" s="5" t="s">
         <v>967</v>
@@ -12083,44 +12083,44 @@
         <v>965</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>936</v>
       </c>
       <c r="B410" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>951</v>
+        <v>389</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>963</v>
+        <v>423</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>967</v>
+        <v>728</v>
       </c>
       <c r="F410" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>968</v>
+      </c>
+      <c r="B411" t="s">
+        <v>969</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="F411" s="5" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>936</v>
-      </c>
-      <c r="B411" t="s">
-        <v>949</v>
-      </c>
-      <c r="C411" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E411" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="F411" s="5" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -12128,13 +12128,13 @@
         <v>968</v>
       </c>
       <c r="B412" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C412" s="10" t="s">
         <v>975</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>964</v>
@@ -12148,13 +12148,13 @@
         <v>968</v>
       </c>
       <c r="B413" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C413" s="10" t="s">
         <v>975</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E413" s="5" t="s">
         <v>964</v>
@@ -12168,13 +12168,13 @@
         <v>968</v>
       </c>
       <c r="B414" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>964</v>
@@ -12188,13 +12188,13 @@
         <v>968</v>
       </c>
       <c r="B415" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C415" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E415" s="5" t="s">
         <v>964</v>
@@ -12208,13 +12208,13 @@
         <v>968</v>
       </c>
       <c r="B416" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C416" s="10" t="s">
         <v>951</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>964</v>
@@ -12223,44 +12223,44 @@
         <v>965</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>968</v>
       </c>
       <c r="B417" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>951</v>
+        <v>389</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>980</v>
+        <v>423</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>964</v>
+        <v>728</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="B418" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>389</v>
+        <v>999</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>423</v>
+        <v>1002</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>728</v>
+        <v>1008</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12268,13 +12268,13 @@
         <v>982</v>
       </c>
       <c r="B419" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C419" s="10" t="s">
         <v>999</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>1008</v>
@@ -12288,13 +12288,13 @@
         <v>982</v>
       </c>
       <c r="B420" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C420" s="10" t="s">
         <v>999</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>1008</v>
@@ -12308,19 +12308,19 @@
         <v>982</v>
       </c>
       <c r="B421" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C421" s="10" t="s">
         <v>999</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1008</v>
+        <v>726</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12328,19 +12328,13 @@
         <v>982</v>
       </c>
       <c r="B422" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C422" s="10" t="s">
         <v>999</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E422" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="F422" s="5" t="s">
-        <v>727</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12348,13 +12342,19 @@
         <v>982</v>
       </c>
       <c r="B423" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1007</v>
+        <v>1002</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12362,13 +12362,13 @@
         <v>982</v>
       </c>
       <c r="B424" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C424" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>1008</v>
@@ -12382,13 +12382,13 @@
         <v>982</v>
       </c>
       <c r="B425" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C425" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>1008</v>
@@ -12402,19 +12402,19 @@
         <v>982</v>
       </c>
       <c r="B426" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C426" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E426" s="5" t="s">
-        <v>1008</v>
+        <v>726</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12422,19 +12422,13 @@
         <v>982</v>
       </c>
       <c r="B427" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C427" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E427" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="F427" s="5" t="s">
-        <v>727</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12442,13 +12436,19 @@
         <v>982</v>
       </c>
       <c r="B428" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1007</v>
+        <v>1010</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12456,19 +12456,13 @@
         <v>982</v>
       </c>
       <c r="B429" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C429" s="10" t="s">
         <v>1001</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E429" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F429" s="5" t="s">
-        <v>757</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12476,13 +12470,19 @@
         <v>982</v>
       </c>
       <c r="B430" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C430" s="10" t="s">
         <v>1001</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1006</v>
+        <v>1013</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -12490,13 +12490,13 @@
         <v>982</v>
       </c>
       <c r="B431" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C431" s="10" t="s">
         <v>1001</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E431" s="5" t="s">
         <v>1008</v>
@@ -12510,99 +12510,99 @@
         <v>982</v>
       </c>
       <c r="B432" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C432" s="10" t="s">
         <v>1001</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>1008</v>
+        <v>726</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>982</v>
       </c>
       <c r="B433" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>1001</v>
+        <v>389</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1011</v>
+        <v>423</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>982</v>
+        <v>1014</v>
       </c>
       <c r="B434" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>389</v>
+        <v>1030</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>423</v>
+        <v>1024</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>728</v>
+        <v>1031</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1014</v>
       </c>
       <c r="B435" t="s">
-        <v>1015</v>
+        <v>1069</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1024</v>
+        <v>517</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1014</v>
       </c>
       <c r="B436" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C436" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>517</v>
+        <v>1092</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>1032</v>
+        <v>821</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>1033</v>
+        <v>822</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -12610,13 +12610,13 @@
         <v>1014</v>
       </c>
       <c r="B437" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C437" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1092</v>
+        <v>519</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>821</v>
@@ -12630,13 +12630,13 @@
         <v>1014</v>
       </c>
       <c r="B438" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C438" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>821</v>
@@ -12650,13 +12650,13 @@
         <v>1014</v>
       </c>
       <c r="B439" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C439" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E439" s="5" t="s">
         <v>821</v>
@@ -12670,13 +12670,13 @@
         <v>1014</v>
       </c>
       <c r="B440" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C440" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>521</v>
+        <v>841</v>
       </c>
       <c r="E440" s="5" t="s">
         <v>821</v>
@@ -12690,13 +12690,13 @@
         <v>1014</v>
       </c>
       <c r="B441" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C441" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>841</v>
+        <v>522</v>
       </c>
       <c r="E441" s="5" t="s">
         <v>821</v>
@@ -12710,13 +12710,13 @@
         <v>1014</v>
       </c>
       <c r="B442" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C442" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>821</v>
@@ -12730,13 +12730,13 @@
         <v>1014</v>
       </c>
       <c r="B443" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C443" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>821</v>
@@ -12750,13 +12750,13 @@
         <v>1014</v>
       </c>
       <c r="B444" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C444" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>821</v>
@@ -12770,13 +12770,13 @@
         <v>1014</v>
       </c>
       <c r="B445" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C445" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>821</v>
@@ -12790,13 +12790,13 @@
         <v>1014</v>
       </c>
       <c r="B446" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C446" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>821</v>
@@ -12810,13 +12810,13 @@
         <v>1014</v>
       </c>
       <c r="B447" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C447" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E447" s="5" t="s">
         <v>821</v>
@@ -12830,13 +12830,13 @@
         <v>1014</v>
       </c>
       <c r="B448" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C448" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>528</v>
+        <v>1094</v>
       </c>
       <c r="E448" s="5" t="s">
         <v>821</v>
@@ -12850,13 +12850,13 @@
         <v>1014</v>
       </c>
       <c r="B449" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C449" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>1094</v>
+        <v>530</v>
       </c>
       <c r="E449" s="5" t="s">
         <v>821</v>
@@ -12870,13 +12870,13 @@
         <v>1014</v>
       </c>
       <c r="B450" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C450" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E450" s="5" t="s">
         <v>821</v>
@@ -12890,13 +12890,13 @@
         <v>1014</v>
       </c>
       <c r="B451" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C451" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E451" s="5" t="s">
         <v>821</v>
@@ -12910,13 +12910,13 @@
         <v>1014</v>
       </c>
       <c r="B452" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C452" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>532</v>
+        <v>1095</v>
       </c>
       <c r="E452" s="5" t="s">
         <v>821</v>
@@ -12930,13 +12930,13 @@
         <v>1014</v>
       </c>
       <c r="B453" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C453" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>1095</v>
+        <v>534</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>821</v>
@@ -12950,13 +12950,13 @@
         <v>1014</v>
       </c>
       <c r="B454" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C454" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>821</v>
@@ -12970,13 +12970,13 @@
         <v>1014</v>
       </c>
       <c r="B455" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C455" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E455" s="5" t="s">
         <v>821</v>
@@ -12990,13 +12990,13 @@
         <v>1014</v>
       </c>
       <c r="B456" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C456" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E456" s="5" t="s">
         <v>821</v>
@@ -13010,13 +13010,13 @@
         <v>1014</v>
       </c>
       <c r="B457" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C457" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="E457" s="5" t="s">
         <v>821</v>
@@ -13030,13 +13030,13 @@
         <v>1014</v>
       </c>
       <c r="B458" t="s">
-        <v>1091</v>
+        <v>1016</v>
       </c>
       <c r="C458" s="10" t="s">
         <v>1025</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>456</v>
+        <v>1093</v>
       </c>
       <c r="E458" s="5" t="s">
         <v>821</v>
@@ -13050,19 +13050,19 @@
         <v>1014</v>
       </c>
       <c r="B459" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>1093</v>
+        <v>1026</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>821</v>
+        <v>771</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>822</v>
+        <v>759</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -13070,33 +13070,33 @@
         <v>1014</v>
       </c>
       <c r="B460" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E460" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="F460" s="5" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1014</v>
       </c>
       <c r="B461" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C461" s="10" t="s">
         <v>1097</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1034</v>
+        <v>544</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -13104,13 +13104,13 @@
         <v>1014</v>
       </c>
       <c r="B462" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C462" s="10" t="s">
         <v>1097</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>544</v>
+        <v>1027</v>
       </c>
       <c r="E462" s="5" t="s">
         <v>1035</v>
@@ -13124,13 +13124,13 @@
         <v>1014</v>
       </c>
       <c r="B463" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C463" s="10" t="s">
         <v>1097</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E463" s="5" t="s">
         <v>1035</v>
@@ -13144,13 +13144,13 @@
         <v>1014</v>
       </c>
       <c r="B464" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C464" s="10" t="s">
         <v>1097</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E464" s="5" t="s">
         <v>1035</v>
@@ -13159,44 +13159,44 @@
         <v>757</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1014</v>
       </c>
       <c r="B465" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>1097</v>
+        <v>389</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>1029</v>
+        <v>423</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>1035</v>
+        <v>728</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="B466" t="s">
-        <v>1023</v>
+        <v>1037</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>389</v>
+        <v>1125</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>423</v>
+        <v>1067</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>728</v>
+        <v>1137</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>729</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -13204,33 +13204,33 @@
         <v>1036</v>
       </c>
       <c r="B467" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C467" s="10" t="s">
         <v>1125</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E467" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F467" s="5" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1036</v>
       </c>
       <c r="B468" t="s">
-        <v>1038</v>
+        <v>1098</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>1068</v>
+        <v>1126</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -13238,13 +13238,13 @@
         <v>1036</v>
       </c>
       <c r="B469" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C469" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E469" s="5" t="s">
         <v>821</v>
@@ -13258,13 +13258,13 @@
         <v>1036</v>
       </c>
       <c r="B470" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C470" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>821</v>
@@ -13278,13 +13278,13 @@
         <v>1036</v>
       </c>
       <c r="B471" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C471" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>1128</v>
+        <v>527</v>
       </c>
       <c r="E471" s="5" t="s">
         <v>821</v>
@@ -13298,13 +13298,13 @@
         <v>1036</v>
       </c>
       <c r="B472" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C472" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>527</v>
+        <v>1129</v>
       </c>
       <c r="E472" s="5" t="s">
         <v>821</v>
@@ -13318,13 +13318,13 @@
         <v>1036</v>
       </c>
       <c r="B473" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C473" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>1129</v>
+        <v>519</v>
       </c>
       <c r="E473" s="5" t="s">
         <v>821</v>
@@ -13338,13 +13338,13 @@
         <v>1036</v>
       </c>
       <c r="B474" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C474" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>519</v>
+        <v>1130</v>
       </c>
       <c r="E474" s="5" t="s">
         <v>821</v>
@@ -13358,13 +13358,13 @@
         <v>1036</v>
       </c>
       <c r="B475" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C475" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E475" s="5" t="s">
         <v>821</v>
@@ -13378,13 +13378,13 @@
         <v>1036</v>
       </c>
       <c r="B476" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C476" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E476" s="5" t="s">
         <v>821</v>
@@ -13398,13 +13398,13 @@
         <v>1036</v>
       </c>
       <c r="B477" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C477" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E477" s="5" t="s">
         <v>821</v>
@@ -13418,13 +13418,13 @@
         <v>1036</v>
       </c>
       <c r="B478" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C478" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E478" s="5" t="s">
         <v>821</v>
@@ -13438,13 +13438,13 @@
         <v>1036</v>
       </c>
       <c r="B479" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C479" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1134</v>
+        <v>525</v>
       </c>
       <c r="E479" s="5" t="s">
         <v>821</v>
@@ -13458,13 +13458,13 @@
         <v>1036</v>
       </c>
       <c r="B480" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C480" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>525</v>
+        <v>1135</v>
       </c>
       <c r="E480" s="5" t="s">
         <v>821</v>
@@ -13478,13 +13478,13 @@
         <v>1036</v>
       </c>
       <c r="B481" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C481" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>1135</v>
+        <v>522</v>
       </c>
       <c r="E481" s="5" t="s">
         <v>821</v>
@@ -13498,13 +13498,13 @@
         <v>1036</v>
       </c>
       <c r="B482" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C482" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>522</v>
+        <v>1136</v>
       </c>
       <c r="E482" s="5" t="s">
         <v>821</v>
@@ -13518,13 +13518,13 @@
         <v>1036</v>
       </c>
       <c r="B483" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C483" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>1136</v>
+        <v>517</v>
       </c>
       <c r="E483" s="5" t="s">
         <v>821</v>
@@ -13538,13 +13538,13 @@
         <v>1036</v>
       </c>
       <c r="B484" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C484" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E484" s="5" t="s">
         <v>821</v>
@@ -13558,13 +13558,13 @@
         <v>1036</v>
       </c>
       <c r="B485" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C485" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E485" s="5" t="s">
         <v>821</v>
@@ -13578,13 +13578,13 @@
         <v>1036</v>
       </c>
       <c r="B486" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C486" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E486" s="5" t="s">
         <v>821</v>
@@ -13598,13 +13598,13 @@
         <v>1036</v>
       </c>
       <c r="B487" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C487" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E487" s="5" t="s">
         <v>821</v>
@@ -13618,13 +13618,13 @@
         <v>1036</v>
       </c>
       <c r="B488" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C488" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>521</v>
+        <v>841</v>
       </c>
       <c r="E488" s="5" t="s">
         <v>821</v>
@@ -13638,13 +13638,13 @@
         <v>1036</v>
       </c>
       <c r="B489" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C489" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>841</v>
+        <v>523</v>
       </c>
       <c r="E489" s="5" t="s">
         <v>821</v>
@@ -13658,13 +13658,13 @@
         <v>1036</v>
       </c>
       <c r="B490" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C490" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E490" s="5" t="s">
         <v>821</v>
@@ -13678,13 +13678,13 @@
         <v>1036</v>
       </c>
       <c r="B491" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C491" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E491" s="5" t="s">
         <v>821</v>
@@ -13698,13 +13698,13 @@
         <v>1036</v>
       </c>
       <c r="B492" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C492" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E492" s="5" t="s">
         <v>821</v>
@@ -13718,13 +13718,13 @@
         <v>1036</v>
       </c>
       <c r="B493" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C493" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="E493" s="5" t="s">
         <v>821</v>
@@ -13738,93 +13738,93 @@
         <v>1036</v>
       </c>
       <c r="B494" t="s">
-        <v>1123</v>
+        <v>1039</v>
       </c>
       <c r="C494" s="10" t="s">
         <v>1124</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E494" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="F494" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1036</v>
       </c>
       <c r="B495" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>1124</v>
+        <v>1064</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1036</v>
       </c>
       <c r="B496" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C496" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E496" s="5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F496" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1036</v>
       </c>
       <c r="B497" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C497" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E497" s="5" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F497" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1036</v>
       </c>
       <c r="B498" t="s">
-        <v>1042</v>
+        <v>1142</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>1064</v>
+        <v>1149</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="E498" s="5" t="s">
-        <v>1152</v>
+        <v>821</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>757</v>
+        <v>822</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -13832,13 +13832,13 @@
         <v>1036</v>
       </c>
       <c r="B499" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C499" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E499" s="5" t="s">
         <v>821</v>
@@ -13852,13 +13852,13 @@
         <v>1036</v>
       </c>
       <c r="B500" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C500" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E500" s="5" t="s">
         <v>821</v>
@@ -13872,13 +13872,13 @@
         <v>1036</v>
       </c>
       <c r="B501" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C501" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E501" s="5" t="s">
         <v>821</v>
@@ -13892,13 +13892,13 @@
         <v>1036</v>
       </c>
       <c r="B502" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C502" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E502" s="5" t="s">
         <v>821</v>
@@ -13912,13 +13912,13 @@
         <v>1036</v>
       </c>
       <c r="B503" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C503" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E503" s="5" t="s">
         <v>821</v>
@@ -13932,13 +13932,13 @@
         <v>1036</v>
       </c>
       <c r="B504" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C504" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>1158</v>
+        <v>456</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>821</v>
@@ -13952,33 +13952,33 @@
         <v>1036</v>
       </c>
       <c r="B505" t="s">
-        <v>1148</v>
+        <v>1043</v>
       </c>
       <c r="C505" s="10" t="s">
         <v>1149</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E505" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="F505" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1036</v>
       </c>
       <c r="B506" t="s">
-        <v>1043</v>
+        <v>1159</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>1149</v>
+        <v>1165</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>1093</v>
+        <v>1166</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -13986,13 +13986,13 @@
         <v>1036</v>
       </c>
       <c r="B507" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C507" s="10" t="s">
         <v>1165</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E507" s="5" t="s">
         <v>821</v>
@@ -14006,13 +14006,13 @@
         <v>1036</v>
       </c>
       <c r="B508" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C508" s="10" t="s">
         <v>1165</v>
       </c>
-      <c r="D508" s="3" t="s">
-        <v>1167</v>
+      <c r="D508" s="5" t="s">
+        <v>1168</v>
       </c>
       <c r="E508" s="5" t="s">
         <v>821</v>
@@ -14026,13 +14026,13 @@
         <v>1036</v>
       </c>
       <c r="B509" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C509" s="10" t="s">
         <v>1165</v>
       </c>
-      <c r="D509" s="5" t="s">
-        <v>1168</v>
+      <c r="D509" s="3" t="s">
+        <v>1169</v>
       </c>
       <c r="E509" s="5" t="s">
         <v>821</v>
@@ -14046,13 +14046,13 @@
         <v>1036</v>
       </c>
       <c r="B510" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C510" s="10" t="s">
         <v>1165</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>1169</v>
+        <v>456</v>
       </c>
       <c r="E510" s="5" t="s">
         <v>821</v>
@@ -14066,13 +14066,13 @@
         <v>1036</v>
       </c>
       <c r="B511" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C511" s="10" t="s">
         <v>1165</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>456</v>
+        <v>1170</v>
       </c>
       <c r="E511" s="5" t="s">
         <v>821</v>
@@ -14086,19 +14086,13 @@
         <v>1036</v>
       </c>
       <c r="B512" t="s">
-        <v>1164</v>
+        <v>1044</v>
       </c>
       <c r="C512" s="10" t="s">
         <v>1165</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E512" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="F512" s="5" t="s">
-        <v>822</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -14106,13 +14100,19 @@
         <v>1036</v>
       </c>
       <c r="B513" t="s">
-        <v>1044</v>
+        <v>1171</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>1165</v>
+        <v>1197</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>1093</v>
+        <v>1126</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -14120,13 +14120,13 @@
         <v>1036</v>
       </c>
       <c r="B514" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C514" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E514" s="5" t="s">
         <v>821</v>
@@ -14140,13 +14140,13 @@
         <v>1036</v>
       </c>
       <c r="B515" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C515" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E515" s="5" t="s">
         <v>821</v>
@@ -14160,13 +14160,13 @@
         <v>1036</v>
       </c>
       <c r="B516" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C516" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1128</v>
+        <v>527</v>
       </c>
       <c r="E516" s="5" t="s">
         <v>821</v>
@@ -14180,13 +14180,13 @@
         <v>1036</v>
       </c>
       <c r="B517" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C517" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>527</v>
+        <v>1129</v>
       </c>
       <c r="E517" s="5" t="s">
         <v>821</v>
@@ -14200,13 +14200,13 @@
         <v>1036</v>
       </c>
       <c r="B518" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C518" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1129</v>
+        <v>519</v>
       </c>
       <c r="E518" s="5" t="s">
         <v>821</v>
@@ -14220,13 +14220,13 @@
         <v>1036</v>
       </c>
       <c r="B519" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C519" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>519</v>
+        <v>1130</v>
       </c>
       <c r="E519" s="5" t="s">
         <v>821</v>
@@ -14240,13 +14240,13 @@
         <v>1036</v>
       </c>
       <c r="B520" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C520" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E520" s="5" t="s">
         <v>821</v>
@@ -14260,13 +14260,13 @@
         <v>1036</v>
       </c>
       <c r="B521" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C521" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E521" s="5" t="s">
         <v>821</v>
@@ -14280,13 +14280,13 @@
         <v>1036</v>
       </c>
       <c r="B522" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C522" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E522" s="5" t="s">
         <v>821</v>
@@ -14300,13 +14300,13 @@
         <v>1036</v>
       </c>
       <c r="B523" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C523" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E523" s="5" t="s">
         <v>821</v>
@@ -14320,13 +14320,13 @@
         <v>1036</v>
       </c>
       <c r="B524" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C524" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1134</v>
+        <v>525</v>
       </c>
       <c r="E524" s="5" t="s">
         <v>821</v>
@@ -14340,13 +14340,13 @@
         <v>1036</v>
       </c>
       <c r="B525" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C525" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>525</v>
+        <v>1135</v>
       </c>
       <c r="E525" s="5" t="s">
         <v>821</v>
@@ -14360,13 +14360,13 @@
         <v>1036</v>
       </c>
       <c r="B526" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C526" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1135</v>
+        <v>522</v>
       </c>
       <c r="E526" s="5" t="s">
         <v>821</v>
@@ -14380,13 +14380,13 @@
         <v>1036</v>
       </c>
       <c r="B527" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C527" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>522</v>
+        <v>1136</v>
       </c>
       <c r="E527" s="5" t="s">
         <v>821</v>
@@ -14400,13 +14400,13 @@
         <v>1036</v>
       </c>
       <c r="B528" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C528" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>1136</v>
+        <v>517</v>
       </c>
       <c r="E528" s="5" t="s">
         <v>821</v>
@@ -14420,13 +14420,13 @@
         <v>1036</v>
       </c>
       <c r="B529" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C529" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E529" s="5" t="s">
         <v>821</v>
@@ -14440,13 +14440,13 @@
         <v>1036</v>
       </c>
       <c r="B530" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C530" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E530" s="5" t="s">
         <v>821</v>
@@ -14460,13 +14460,13 @@
         <v>1036</v>
       </c>
       <c r="B531" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C531" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E531" s="5" t="s">
         <v>821</v>
@@ -14480,13 +14480,13 @@
         <v>1036</v>
       </c>
       <c r="B532" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C532" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E532" s="5" t="s">
         <v>821</v>
@@ -14500,13 +14500,13 @@
         <v>1036</v>
       </c>
       <c r="B533" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C533" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>521</v>
+        <v>841</v>
       </c>
       <c r="E533" s="5" t="s">
         <v>821</v>
@@ -14520,13 +14520,13 @@
         <v>1036</v>
       </c>
       <c r="B534" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C534" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>841</v>
+        <v>523</v>
       </c>
       <c r="E534" s="5" t="s">
         <v>821</v>
@@ -14540,13 +14540,13 @@
         <v>1036</v>
       </c>
       <c r="B535" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C535" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E535" s="5" t="s">
         <v>821</v>
@@ -14560,13 +14560,13 @@
         <v>1036</v>
       </c>
       <c r="B536" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C536" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E536" s="5" t="s">
         <v>821</v>
@@ -14580,13 +14580,13 @@
         <v>1036</v>
       </c>
       <c r="B537" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C537" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E537" s="5" t="s">
         <v>821</v>
@@ -14600,13 +14600,13 @@
         <v>1036</v>
       </c>
       <c r="B538" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C538" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="E538" s="5" t="s">
         <v>821</v>
@@ -14620,33 +14620,33 @@
         <v>1036</v>
       </c>
       <c r="B539" t="s">
-        <v>1196</v>
+        <v>1045</v>
       </c>
       <c r="C539" s="10" t="s">
         <v>1197</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E539" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="F539" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1036</v>
       </c>
       <c r="B540" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C540" s="10" t="s">
-        <v>1197</v>
+        <v>1065</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1093</v>
+        <v>1198</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -14654,19 +14654,19 @@
         <v>1036</v>
       </c>
       <c r="B541" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C541" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E541" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>757</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -14674,19 +14674,13 @@
         <v>1036</v>
       </c>
       <c r="B542" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C542" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E542" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F542" s="5" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -14694,13 +14688,19 @@
         <v>1036</v>
       </c>
       <c r="B543" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C543" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -14708,13 +14708,13 @@
         <v>1036</v>
       </c>
       <c r="B544" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C544" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E544" s="5" t="s">
         <v>799</v>
@@ -14728,13 +14728,13 @@
         <v>1036</v>
       </c>
       <c r="B545" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C545" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E545" s="5" t="s">
         <v>799</v>
@@ -14748,13 +14748,13 @@
         <v>1036</v>
       </c>
       <c r="B546" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C546" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E546" s="5" t="s">
         <v>799</v>
@@ -14763,24 +14763,24 @@
         <v>773</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1036</v>
       </c>
       <c r="B547" t="s">
-        <v>1052</v>
+        <v>1209</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>1065</v>
+        <v>1208</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>1204</v>
+        <v>1126</v>
       </c>
       <c r="E547" s="5" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -14788,13 +14788,13 @@
         <v>1036</v>
       </c>
       <c r="B548" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C548" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E548" s="5" t="s">
         <v>821</v>
@@ -14808,13 +14808,13 @@
         <v>1036</v>
       </c>
       <c r="B549" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C549" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E549" s="5" t="s">
         <v>821</v>
@@ -14828,13 +14828,13 @@
         <v>1036</v>
       </c>
       <c r="B550" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C550" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>1128</v>
+        <v>527</v>
       </c>
       <c r="E550" s="5" t="s">
         <v>821</v>
@@ -14848,13 +14848,13 @@
         <v>1036</v>
       </c>
       <c r="B551" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C551" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>527</v>
+        <v>1129</v>
       </c>
       <c r="E551" s="5" t="s">
         <v>821</v>
@@ -14868,13 +14868,13 @@
         <v>1036</v>
       </c>
       <c r="B552" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C552" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>1129</v>
+        <v>519</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>821</v>
@@ -14888,13 +14888,13 @@
         <v>1036</v>
       </c>
       <c r="B553" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C553" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>519</v>
+        <v>1130</v>
       </c>
       <c r="E553" s="5" t="s">
         <v>821</v>
@@ -14908,13 +14908,13 @@
         <v>1036</v>
       </c>
       <c r="B554" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C554" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E554" s="5" t="s">
         <v>821</v>
@@ -14928,13 +14928,13 @@
         <v>1036</v>
       </c>
       <c r="B555" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C555" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E555" s="5" t="s">
         <v>821</v>
@@ -14948,13 +14948,13 @@
         <v>1036</v>
       </c>
       <c r="B556" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C556" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E556" s="5" t="s">
         <v>821</v>
@@ -14968,13 +14968,13 @@
         <v>1036</v>
       </c>
       <c r="B557" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C557" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>821</v>
@@ -14988,13 +14988,13 @@
         <v>1036</v>
       </c>
       <c r="B558" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C558" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1134</v>
+        <v>525</v>
       </c>
       <c r="E558" s="5" t="s">
         <v>821</v>
@@ -15008,13 +15008,13 @@
         <v>1036</v>
       </c>
       <c r="B559" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C559" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>525</v>
+        <v>1135</v>
       </c>
       <c r="E559" s="5" t="s">
         <v>821</v>
@@ -15028,13 +15028,13 @@
         <v>1036</v>
       </c>
       <c r="B560" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C560" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1135</v>
+        <v>522</v>
       </c>
       <c r="E560" s="5" t="s">
         <v>821</v>
@@ -15048,13 +15048,13 @@
         <v>1036</v>
       </c>
       <c r="B561" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C561" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>522</v>
+        <v>1136</v>
       </c>
       <c r="E561" s="5" t="s">
         <v>821</v>
@@ -15068,13 +15068,13 @@
         <v>1036</v>
       </c>
       <c r="B562" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C562" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1136</v>
+        <v>517</v>
       </c>
       <c r="E562" s="5" t="s">
         <v>821</v>
@@ -15088,13 +15088,13 @@
         <v>1036</v>
       </c>
       <c r="B563" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C563" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E563" s="5" t="s">
         <v>821</v>
@@ -15108,13 +15108,13 @@
         <v>1036</v>
       </c>
       <c r="B564" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C564" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E564" s="5" t="s">
         <v>821</v>
@@ -15128,13 +15128,13 @@
         <v>1036</v>
       </c>
       <c r="B565" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C565" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E565" s="5" t="s">
         <v>821</v>
@@ -15148,13 +15148,13 @@
         <v>1036</v>
       </c>
       <c r="B566" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C566" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E566" s="5" t="s">
         <v>821</v>
@@ -15168,13 +15168,13 @@
         <v>1036</v>
       </c>
       <c r="B567" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C567" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>521</v>
+        <v>841</v>
       </c>
       <c r="E567" s="5" t="s">
         <v>821</v>
@@ -15188,13 +15188,13 @@
         <v>1036</v>
       </c>
       <c r="B568" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C568" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>841</v>
+        <v>523</v>
       </c>
       <c r="E568" s="5" t="s">
         <v>821</v>
@@ -15208,13 +15208,13 @@
         <v>1036</v>
       </c>
       <c r="B569" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C569" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E569" s="5" t="s">
         <v>821</v>
@@ -15228,13 +15228,13 @@
         <v>1036</v>
       </c>
       <c r="B570" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C570" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E570" s="5" t="s">
         <v>821</v>
@@ -15248,13 +15248,13 @@
         <v>1036</v>
       </c>
       <c r="B571" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C571" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E571" s="5" t="s">
         <v>821</v>
@@ -15268,13 +15268,13 @@
         <v>1036</v>
       </c>
       <c r="B572" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C572" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="E572" s="5" t="s">
         <v>821</v>
@@ -15288,33 +15288,33 @@
         <v>1036</v>
       </c>
       <c r="B573" t="s">
-        <v>1234</v>
+        <v>1053</v>
       </c>
       <c r="C573" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E573" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="F573" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1036</v>
       </c>
       <c r="B574" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C574" s="10" t="s">
-        <v>1208</v>
+        <v>1066</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1093</v>
+        <v>1235</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -15322,19 +15322,13 @@
         <v>1036</v>
       </c>
       <c r="B575" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C575" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E575" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F575" s="5" t="s">
-        <v>759</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -15342,47 +15336,47 @@
         <v>1036</v>
       </c>
       <c r="B576" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C576" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1036</v>
       </c>
       <c r="B577" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C577" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E577" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F577" s="5" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1036</v>
       </c>
       <c r="B578" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C578" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -15390,53 +15384,53 @@
         <v>1036</v>
       </c>
       <c r="B579" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C579" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1243</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1036</v>
       </c>
       <c r="B580" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C580" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E580" s="5" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="F580" s="5" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1036</v>
       </c>
       <c r="B581" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C581" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E581" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F581" s="5" t="s">
-        <v>759</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -15444,35 +15438,41 @@
         <v>1036</v>
       </c>
       <c r="B582" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C582" s="10" t="s">
         <v>1066</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1036</v>
       </c>
       <c r="B583" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>1066</v>
+        <v>389</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1248</v>
+        <v>423</v>
+      </c>
+      <c r="E583" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1036</v>
+        <v>385</v>
       </c>
       <c r="B584" t="s">
-        <v>1063</v>
+        <v>350</v>
       </c>
       <c r="C584" s="10" t="s">
         <v>389</v>
